--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43555</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42825</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42460</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42094</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41729</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41364</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40999</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>33925700</v>
+        <v>35685700</v>
       </c>
       <c r="E8" s="3">
-        <v>28133500</v>
+        <v>34672200</v>
       </c>
       <c r="F8" s="3">
-        <v>26253200</v>
+        <v>28752500</v>
       </c>
       <c r="G8" s="3">
-        <v>25172500</v>
+        <v>26830800</v>
       </c>
       <c r="H8" s="3">
-        <v>25508700</v>
+        <v>25726300</v>
       </c>
       <c r="I8" s="3">
-        <v>21549200</v>
+        <v>26070000</v>
       </c>
       <c r="J8" s="3">
+        <v>22023300</v>
+      </c>
+      <c r="K8" s="3">
         <v>21242900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>23467400</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,14 +920,17 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
+      <c r="D15" s="3">
+        <v>-3189900</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -925,15 +947,18 @@
       <c r="I15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>-2775300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17111100</v>
+        <v>18424900</v>
       </c>
       <c r="E17" s="3">
-        <v>11001900</v>
+        <v>17487500</v>
       </c>
       <c r="F17" s="3">
-        <v>8780500</v>
+        <v>11244000</v>
       </c>
       <c r="G17" s="3">
-        <v>7924000</v>
+        <v>8973700</v>
       </c>
       <c r="H17" s="3">
-        <v>6970800</v>
+        <v>8098300</v>
       </c>
       <c r="I17" s="3">
-        <v>4293800</v>
+        <v>7124200</v>
       </c>
       <c r="J17" s="3">
+        <v>4388200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5693900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7810100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16814700</v>
+        <v>17260800</v>
       </c>
       <c r="E18" s="3">
-        <v>17131500</v>
+        <v>17184600</v>
       </c>
       <c r="F18" s="3">
-        <v>17472600</v>
+        <v>17508500</v>
       </c>
       <c r="G18" s="3">
-        <v>17248500</v>
+        <v>17857100</v>
       </c>
       <c r="H18" s="3">
-        <v>18537900</v>
+        <v>17628000</v>
       </c>
       <c r="I18" s="3">
-        <v>17255500</v>
+        <v>18945800</v>
       </c>
       <c r="J18" s="3">
+        <v>17635100</v>
+      </c>
+      <c r="K18" s="3">
         <v>15549100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15657400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6403700</v>
+        <v>-9555200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4320300</v>
+        <v>-6544500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5626300</v>
+        <v>-4415400</v>
       </c>
       <c r="G20" s="3">
-        <v>-3624700</v>
+        <v>-5750100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3859800</v>
+        <v>-3704400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3229300</v>
+        <v>-3944700</v>
       </c>
       <c r="J20" s="3">
+        <v>-3300400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3243100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7973900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13510300</v>
+        <v>14232100</v>
       </c>
       <c r="E21" s="3">
-        <v>15897800</v>
+        <v>13797200</v>
       </c>
       <c r="F21" s="3">
-        <v>14881300</v>
+        <v>16237300</v>
       </c>
       <c r="G21" s="3">
-        <v>16497600</v>
+        <v>15198600</v>
       </c>
       <c r="H21" s="3">
-        <v>17574700</v>
+        <v>16851000</v>
       </c>
       <c r="I21" s="3">
-        <v>16676000</v>
+        <v>17951700</v>
       </c>
       <c r="J21" s="3">
+        <v>17034100</v>
+      </c>
+      <c r="K21" s="3">
         <v>14807800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10461900</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10411000</v>
+        <v>7705500</v>
       </c>
       <c r="E23" s="3">
-        <v>12811200</v>
+        <v>10640100</v>
       </c>
       <c r="F23" s="3">
-        <v>11846300</v>
+        <v>13093100</v>
       </c>
       <c r="G23" s="3">
-        <v>13623800</v>
+        <v>12107000</v>
       </c>
       <c r="H23" s="3">
-        <v>14678100</v>
+        <v>13923600</v>
       </c>
       <c r="I23" s="3">
-        <v>14026100</v>
+        <v>15001100</v>
       </c>
       <c r="J23" s="3">
+        <v>14334700</v>
+      </c>
+      <c r="K23" s="3">
         <v>12305900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7683500</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1777700</v>
+        <v>2052200</v>
       </c>
       <c r="E24" s="3">
-        <v>2849100</v>
+        <v>1816800</v>
       </c>
       <c r="F24" s="3">
-        <v>3110400</v>
+        <v>2911800</v>
       </c>
       <c r="G24" s="3">
-        <v>4183300</v>
+        <v>3178800</v>
       </c>
       <c r="H24" s="3">
-        <v>4252200</v>
+        <v>4275300</v>
       </c>
       <c r="I24" s="3">
-        <v>3999500</v>
+        <v>4345700</v>
       </c>
       <c r="J24" s="3">
+        <v>4087500</v>
+      </c>
+      <c r="K24" s="3">
         <v>3597700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3879900</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8633300</v>
+        <v>5653400</v>
       </c>
       <c r="E26" s="3">
-        <v>9962100</v>
+        <v>8823300</v>
       </c>
       <c r="F26" s="3">
-        <v>8736000</v>
+        <v>10181300</v>
       </c>
       <c r="G26" s="3">
-        <v>9440600</v>
+        <v>8928200</v>
       </c>
       <c r="H26" s="3">
-        <v>10426000</v>
+        <v>9648300</v>
       </c>
       <c r="I26" s="3">
-        <v>10026700</v>
+        <v>10655400</v>
       </c>
       <c r="J26" s="3">
+        <v>10247300</v>
+      </c>
+      <c r="K26" s="3">
         <v>8708200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3803600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7932700</v>
+        <v>4906500</v>
       </c>
       <c r="E27" s="3">
-        <v>8996000</v>
+        <v>8107300</v>
       </c>
       <c r="F27" s="3">
-        <v>8421300</v>
+        <v>9194000</v>
       </c>
       <c r="G27" s="3">
-        <v>8648200</v>
+        <v>8606600</v>
       </c>
       <c r="H27" s="3">
-        <v>9396900</v>
+        <v>8838500</v>
       </c>
       <c r="I27" s="3">
-        <v>8789200</v>
+        <v>9603600</v>
       </c>
       <c r="J27" s="3">
+        <v>8982500</v>
+      </c>
+      <c r="K27" s="3">
         <v>7587300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3600600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6403700</v>
+        <v>9555200</v>
       </c>
       <c r="E32" s="3">
-        <v>4320300</v>
+        <v>6544500</v>
       </c>
       <c r="F32" s="3">
-        <v>5626300</v>
+        <v>4415400</v>
       </c>
       <c r="G32" s="3">
-        <v>3624700</v>
+        <v>5750100</v>
       </c>
       <c r="H32" s="3">
-        <v>3859800</v>
+        <v>3704400</v>
       </c>
       <c r="I32" s="3">
-        <v>3229300</v>
+        <v>3944700</v>
       </c>
       <c r="J32" s="3">
+        <v>3300400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3243100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7973900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7932700</v>
+        <v>4906500</v>
       </c>
       <c r="E33" s="3">
-        <v>8996000</v>
+        <v>8107300</v>
       </c>
       <c r="F33" s="3">
-        <v>8421300</v>
+        <v>9194000</v>
       </c>
       <c r="G33" s="3">
-        <v>8648200</v>
+        <v>8606600</v>
       </c>
       <c r="H33" s="3">
-        <v>9396900</v>
+        <v>8838500</v>
       </c>
       <c r="I33" s="3">
-        <v>8789200</v>
+        <v>9603600</v>
       </c>
       <c r="J33" s="3">
+        <v>8982500</v>
+      </c>
+      <c r="K33" s="3">
         <v>7587300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3600600</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7932700</v>
+        <v>4906500</v>
       </c>
       <c r="E35" s="3">
-        <v>8996000</v>
+        <v>8107300</v>
       </c>
       <c r="F35" s="3">
-        <v>8421300</v>
+        <v>9194000</v>
       </c>
       <c r="G35" s="3">
-        <v>8648200</v>
+        <v>8606600</v>
       </c>
       <c r="H35" s="3">
-        <v>9396900</v>
+        <v>8838500</v>
       </c>
       <c r="I35" s="3">
-        <v>8789200</v>
+        <v>9603600</v>
       </c>
       <c r="J35" s="3">
+        <v>8982500</v>
+      </c>
+      <c r="K35" s="3">
         <v>7587300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3600600</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43555</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42825</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42460</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42094</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41729</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41364</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40999</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>674541000</v>
+        <v>726955000</v>
       </c>
       <c r="E41" s="3">
-        <v>679147000</v>
+        <v>688640000</v>
       </c>
       <c r="F41" s="3">
-        <v>577451000</v>
+        <v>693343000</v>
       </c>
       <c r="G41" s="3">
-        <v>446849000</v>
+        <v>589521000</v>
       </c>
       <c r="H41" s="3">
-        <v>368039000</v>
+        <v>456189000</v>
       </c>
       <c r="I41" s="3">
-        <v>217886000</v>
+        <v>375732000</v>
       </c>
       <c r="J41" s="3">
+        <v>222441000</v>
+      </c>
+      <c r="K41" s="3">
         <v>104153000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>82518400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>359736000</v>
+        <v>527768000</v>
       </c>
       <c r="E42" s="3">
-        <v>358277000</v>
+        <v>367255000</v>
       </c>
       <c r="F42" s="3">
-        <v>432290000</v>
+        <v>365766000</v>
       </c>
       <c r="G42" s="3">
-        <v>374106000</v>
+        <v>441325000</v>
       </c>
       <c r="H42" s="3">
-        <v>364956000</v>
+        <v>381926000</v>
       </c>
       <c r="I42" s="3">
-        <v>339180000</v>
+        <v>372584000</v>
       </c>
       <c r="J42" s="3">
+        <v>346270000</v>
+      </c>
+      <c r="K42" s="3">
         <v>311254000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>398474000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>26928200</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>25179900</v>
+        <v>27491000</v>
       </c>
       <c r="F47" s="3">
-        <v>25045500</v>
+        <v>25706200</v>
       </c>
       <c r="G47" s="3">
-        <v>23536600</v>
+        <v>25569000</v>
       </c>
       <c r="H47" s="3">
-        <v>22013600</v>
+        <v>24028600</v>
       </c>
       <c r="I47" s="3">
-        <v>19452800</v>
+        <v>22473700</v>
       </c>
       <c r="J47" s="3">
+        <v>19859400</v>
+      </c>
+      <c r="K47" s="3">
         <v>16095600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10221000</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12144000</v>
+        <v>12247600</v>
       </c>
       <c r="E48" s="3">
-        <v>12453100</v>
+        <v>12397800</v>
       </c>
       <c r="F48" s="3">
-        <v>12352400</v>
+        <v>12713400</v>
       </c>
       <c r="G48" s="3">
-        <v>12381000</v>
+        <v>12610600</v>
       </c>
       <c r="H48" s="3">
-        <v>12296300</v>
+        <v>12639800</v>
       </c>
       <c r="I48" s="3">
-        <v>13998900</v>
+        <v>12553300</v>
       </c>
       <c r="J48" s="3">
+        <v>14291500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12768600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8926800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10331100</v>
+        <v>13905200</v>
       </c>
       <c r="E49" s="3">
-        <v>11332300</v>
+        <v>10547000</v>
       </c>
       <c r="F49" s="3">
-        <v>11434100</v>
+        <v>11569200</v>
       </c>
       <c r="G49" s="3">
-        <v>11405500</v>
+        <v>11673100</v>
       </c>
       <c r="H49" s="3">
-        <v>11792200</v>
+        <v>11643900</v>
       </c>
       <c r="I49" s="3">
-        <v>13483700</v>
+        <v>12038700</v>
       </c>
       <c r="J49" s="3">
+        <v>13765500</v>
+      </c>
+      <c r="K49" s="3">
         <v>9920800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11306900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8439700</v>
+        <v>7792600</v>
       </c>
       <c r="E52" s="3">
-        <v>8756200</v>
+        <v>8616100</v>
       </c>
       <c r="F52" s="3">
-        <v>6614000</v>
+        <v>8939200</v>
       </c>
       <c r="G52" s="3">
-        <v>4578600</v>
+        <v>6752200</v>
       </c>
       <c r="H52" s="3">
-        <v>5632900</v>
+        <v>4674300</v>
       </c>
       <c r="I52" s="3">
-        <v>5376600</v>
+        <v>5750600</v>
       </c>
       <c r="J52" s="3">
+        <v>5489000</v>
+      </c>
+      <c r="K52" s="3">
         <v>870900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9184500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2828250000</v>
+        <v>3123380000</v>
       </c>
       <c r="E54" s="3">
-        <v>2790060000</v>
+        <v>2887370000</v>
       </c>
       <c r="F54" s="3">
-        <v>2756970000</v>
+        <v>2848380000</v>
       </c>
       <c r="G54" s="3">
-        <v>2711570000</v>
+        <v>2814600000</v>
       </c>
       <c r="H54" s="3">
-        <v>2601100000</v>
+        <v>2768250000</v>
       </c>
       <c r="I54" s="3">
-        <v>2346420000</v>
+        <v>2655470000</v>
       </c>
       <c r="J54" s="3">
+        <v>2395460000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2131590000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1945430000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,8 +2137,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2035,11 +2165,14 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>18539300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,39 +2200,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>726500</v>
+        <v>1043200</v>
       </c>
       <c r="E59" s="3">
-        <v>792700</v>
+        <v>741700</v>
       </c>
       <c r="F59" s="3">
-        <v>741800</v>
+        <v>809200</v>
       </c>
       <c r="G59" s="3">
-        <v>823700</v>
+        <v>757300</v>
       </c>
       <c r="H59" s="3">
-        <v>825500</v>
+        <v>840900</v>
       </c>
       <c r="I59" s="3">
-        <v>723700</v>
+        <v>842800</v>
       </c>
       <c r="J59" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K59" s="3">
         <v>578100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19594900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>258591000</v>
+        <v>353717000</v>
       </c>
       <c r="E61" s="3">
-        <v>246391000</v>
+        <v>263996000</v>
       </c>
       <c r="F61" s="3">
-        <v>244201000</v>
+        <v>251541000</v>
       </c>
       <c r="G61" s="3">
-        <v>197006000</v>
+        <v>249305000</v>
       </c>
       <c r="H61" s="3">
-        <v>200052000</v>
+        <v>201124000</v>
       </c>
       <c r="I61" s="3">
-        <v>163567000</v>
+        <v>204233000</v>
       </c>
       <c r="J61" s="3">
+        <v>166986000</v>
+      </c>
+      <c r="K61" s="3">
         <v>153373000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>113841000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11841500</v>
+        <v>11156400</v>
       </c>
       <c r="E62" s="3">
-        <v>12697900</v>
+        <v>12089000</v>
       </c>
       <c r="F62" s="3">
-        <v>12233000</v>
+        <v>12963300</v>
       </c>
       <c r="G62" s="3">
-        <v>11710200</v>
+        <v>12488700</v>
       </c>
       <c r="H62" s="3">
-        <v>12856600</v>
+        <v>11954900</v>
       </c>
       <c r="I62" s="3">
-        <v>7196000</v>
+        <v>13125300</v>
       </c>
       <c r="J62" s="3">
+        <v>7346400</v>
+      </c>
+      <c r="K62" s="3">
         <v>6642600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>370800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2681180000</v>
+        <v>2974990000</v>
       </c>
       <c r="E66" s="3">
-        <v>2644390000</v>
+        <v>2737220000</v>
       </c>
       <c r="F66" s="3">
-        <v>2618070000</v>
+        <v>2699670000</v>
       </c>
       <c r="G66" s="3">
-        <v>2570990000</v>
+        <v>2672800000</v>
       </c>
       <c r="H66" s="3">
-        <v>2461790000</v>
+        <v>2624720000</v>
       </c>
       <c r="I66" s="3">
-        <v>2227660000</v>
+        <v>2513240000</v>
       </c>
       <c r="J66" s="3">
+        <v>2274220000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2024830000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1867840000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2403,17 +2570,20 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>3619200</v>
+      </c>
+      <c r="K70" s="3">
         <v>3545100</v>
       </c>
-      <c r="J70" s="3">
-        <v>3545100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3996600</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>96725500</v>
+        <v>100742000</v>
       </c>
       <c r="E72" s="3">
-        <v>91490200</v>
+        <v>98747300</v>
       </c>
       <c r="F72" s="3">
-        <v>84345700</v>
+        <v>93402500</v>
       </c>
       <c r="G72" s="3">
-        <v>78136200</v>
+        <v>86108700</v>
       </c>
       <c r="H72" s="3">
-        <v>71526300</v>
+        <v>79769400</v>
       </c>
       <c r="I72" s="3">
-        <v>64010500</v>
+        <v>73021400</v>
       </c>
       <c r="J72" s="3">
+        <v>65348400</v>
+      </c>
+      <c r="K72" s="3">
         <v>57056700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6527800</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>147072000</v>
+        <v>148396000</v>
       </c>
       <c r="E76" s="3">
-        <v>145667000</v>
+        <v>150146000</v>
       </c>
       <c r="F76" s="3">
-        <v>138901000</v>
+        <v>148711000</v>
       </c>
       <c r="G76" s="3">
-        <v>140588000</v>
+        <v>141805000</v>
       </c>
       <c r="H76" s="3">
-        <v>139315000</v>
+        <v>143527000</v>
       </c>
       <c r="I76" s="3">
-        <v>115214000</v>
+        <v>142227000</v>
       </c>
       <c r="J76" s="3">
+        <v>117622000</v>
+      </c>
+      <c r="K76" s="3">
         <v>103222000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73595100</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43555</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42825</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42460</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42094</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41729</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41364</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40999</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7932700</v>
+        <v>4906500</v>
       </c>
       <c r="E81" s="3">
-        <v>8996000</v>
+        <v>8107300</v>
       </c>
       <c r="F81" s="3">
-        <v>8421300</v>
+        <v>9194000</v>
       </c>
       <c r="G81" s="3">
-        <v>8648200</v>
+        <v>8606600</v>
       </c>
       <c r="H81" s="3">
-        <v>9396900</v>
+        <v>8838500</v>
       </c>
       <c r="I81" s="3">
-        <v>8789200</v>
+        <v>9603600</v>
       </c>
       <c r="J81" s="3">
+        <v>8982500</v>
+      </c>
+      <c r="K81" s="3">
         <v>7587300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3600600</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3092400</v>
+        <v>6533600</v>
       </c>
       <c r="E83" s="3">
-        <v>3079800</v>
+        <v>3160500</v>
       </c>
       <c r="F83" s="3">
-        <v>3028300</v>
+        <v>3147500</v>
       </c>
       <c r="G83" s="3">
-        <v>2867500</v>
+        <v>3094900</v>
       </c>
       <c r="H83" s="3">
-        <v>2890200</v>
+        <v>2930600</v>
       </c>
       <c r="I83" s="3">
-        <v>2644100</v>
+        <v>2953800</v>
       </c>
       <c r="J83" s="3">
+        <v>2702200</v>
+      </c>
+      <c r="K83" s="3">
         <v>2496400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2775300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50988600</v>
+        <v>74885200</v>
       </c>
       <c r="E89" s="3">
-        <v>111905000</v>
+        <v>52110400</v>
       </c>
       <c r="F89" s="3">
-        <v>63748800</v>
+        <v>114367100</v>
       </c>
       <c r="G89" s="3">
-        <v>61397700</v>
+        <v>65151400</v>
       </c>
       <c r="H89" s="3">
-        <v>-19050300</v>
+        <v>62748600</v>
       </c>
       <c r="I89" s="3">
-        <v>-37140700</v>
+        <v>-19469500</v>
       </c>
       <c r="J89" s="3">
+        <v>-37957900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2260500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5359600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1294400</v>
+        <v>-1181500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1452700</v>
+        <v>-1322800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1106600</v>
+        <v>-1484700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1062900</v>
+        <v>-1130900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1603200</v>
+        <v>-1086300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1375900</v>
+        <v>-1638500</v>
       </c>
       <c r="J91" s="3">
+        <v>-1406200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1192600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1185900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51154400</v>
+        <v>-31292800</v>
       </c>
       <c r="E94" s="3">
-        <v>-5143800</v>
+        <v>-52279900</v>
       </c>
       <c r="F94" s="3">
-        <v>80969600</v>
+        <v>-5257000</v>
       </c>
       <c r="G94" s="3">
-        <v>20363500</v>
+        <v>82751100</v>
       </c>
       <c r="H94" s="3">
-        <v>59100400</v>
+        <v>20811500</v>
       </c>
       <c r="I94" s="3">
-        <v>54552700</v>
+        <v>60400700</v>
       </c>
       <c r="J94" s="3">
+        <v>55753000</v>
+      </c>
+      <c r="K94" s="3">
         <v>17139100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-93692800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2511400</v>
+        <v>-2829100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2191300</v>
+        <v>-2566600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2241300</v>
+        <v>-2239500</v>
       </c>
       <c r="G96" s="3">
-        <v>-2286100</v>
+        <v>-2290600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2399600</v>
+        <v>-2336400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1964400</v>
+        <v>-2452400</v>
       </c>
       <c r="J96" s="3">
+        <v>-2007600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1705500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1844200</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4402800</v>
+        <v>-2338000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2641000</v>
+        <v>-4499700</v>
       </c>
       <c r="F100" s="3">
-        <v>-6095700</v>
+        <v>-2699100</v>
       </c>
       <c r="G100" s="3">
-        <v>-959900</v>
+        <v>-6229800</v>
       </c>
       <c r="H100" s="3">
-        <v>-10513700</v>
+        <v>-981000</v>
       </c>
       <c r="I100" s="3">
-        <v>-9154400</v>
+        <v>-10745000</v>
       </c>
       <c r="J100" s="3">
+        <v>-9355800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9365400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>88482200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38100</v>
+        <v>-2898400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2423500</v>
+        <v>-38900</v>
       </c>
       <c r="F101" s="3">
-        <v>-413500</v>
+        <v>-2476900</v>
       </c>
       <c r="G101" s="3">
-        <v>-1047300</v>
+        <v>-422600</v>
       </c>
       <c r="H101" s="3">
-        <v>2297900</v>
+        <v>-1070300</v>
       </c>
       <c r="I101" s="3">
-        <v>2712900</v>
+        <v>2348500</v>
       </c>
       <c r="J101" s="3">
+        <v>2772600</v>
+      </c>
+      <c r="K101" s="3">
         <v>1706900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-152600</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4606700</v>
+        <v>38356000</v>
       </c>
       <c r="E102" s="3">
-        <v>101696600</v>
+        <v>-4708100</v>
       </c>
       <c r="F102" s="3">
-        <v>138209200</v>
+        <v>103934200</v>
       </c>
       <c r="G102" s="3">
-        <v>79754000</v>
+        <v>141250100</v>
       </c>
       <c r="H102" s="3">
-        <v>31834200</v>
+        <v>81508800</v>
       </c>
       <c r="I102" s="3">
-        <v>10970500</v>
+        <v>32534700</v>
       </c>
       <c r="J102" s="3">
+        <v>11211900</v>
+      </c>
+      <c r="K102" s="3">
         <v>7220100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35685700</v>
+        <v>36261900</v>
       </c>
       <c r="E8" s="3">
-        <v>34672200</v>
+        <v>35232000</v>
       </c>
       <c r="F8" s="3">
-        <v>28752500</v>
+        <v>29216700</v>
       </c>
       <c r="G8" s="3">
-        <v>26830800</v>
+        <v>27264000</v>
       </c>
       <c r="H8" s="3">
-        <v>25726300</v>
+        <v>26141700</v>
       </c>
       <c r="I8" s="3">
-        <v>26070000</v>
+        <v>26490900</v>
       </c>
       <c r="J8" s="3">
-        <v>22023300</v>
+        <v>22378900</v>
       </c>
       <c r="K8" s="3">
         <v>21242900</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3189900</v>
+        <v>-3241400</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18424900</v>
+        <v>20414200</v>
       </c>
       <c r="E17" s="3">
-        <v>17487500</v>
+        <v>17769900</v>
       </c>
       <c r="F17" s="3">
-        <v>11244000</v>
+        <v>11425600</v>
       </c>
       <c r="G17" s="3">
-        <v>8973700</v>
+        <v>9118600</v>
       </c>
       <c r="H17" s="3">
-        <v>8098300</v>
+        <v>8229100</v>
       </c>
       <c r="I17" s="3">
-        <v>7124200</v>
+        <v>7239200</v>
       </c>
       <c r="J17" s="3">
-        <v>4388200</v>
+        <v>4459100</v>
       </c>
       <c r="K17" s="3">
         <v>5693900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17260800</v>
+        <v>15847700</v>
       </c>
       <c r="E18" s="3">
-        <v>17184600</v>
+        <v>17462100</v>
       </c>
       <c r="F18" s="3">
-        <v>17508500</v>
+        <v>17791200</v>
       </c>
       <c r="G18" s="3">
-        <v>17857100</v>
+        <v>18145400</v>
       </c>
       <c r="H18" s="3">
-        <v>17628000</v>
+        <v>17912600</v>
       </c>
       <c r="I18" s="3">
-        <v>18945800</v>
+        <v>19251700</v>
       </c>
       <c r="J18" s="3">
-        <v>17635100</v>
+        <v>17919900</v>
       </c>
       <c r="K18" s="3">
         <v>15549100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-9555200</v>
+        <v>-8017800</v>
       </c>
       <c r="E20" s="3">
-        <v>-6544500</v>
+        <v>-6650200</v>
       </c>
       <c r="F20" s="3">
-        <v>-4415400</v>
+        <v>-4486600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5750100</v>
+        <v>-5842900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3704400</v>
+        <v>-3764200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3944700</v>
+        <v>-4008400</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300400</v>
+        <v>-3353700</v>
       </c>
       <c r="K20" s="3">
         <v>-3243100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14232100</v>
+        <v>14440900</v>
       </c>
       <c r="E21" s="3">
-        <v>13797200</v>
+        <v>14009800</v>
       </c>
       <c r="F21" s="3">
-        <v>16237300</v>
+        <v>16489300</v>
       </c>
       <c r="G21" s="3">
-        <v>15198600</v>
+        <v>15434100</v>
       </c>
       <c r="H21" s="3">
-        <v>16851000</v>
+        <v>17113700</v>
       </c>
       <c r="I21" s="3">
-        <v>17951700</v>
+        <v>18232000</v>
       </c>
       <c r="J21" s="3">
-        <v>17034100</v>
+        <v>17300400</v>
       </c>
       <c r="K21" s="3">
         <v>14807800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7705500</v>
+        <v>7829900</v>
       </c>
       <c r="E23" s="3">
-        <v>10640100</v>
+        <v>10811900</v>
       </c>
       <c r="F23" s="3">
-        <v>13093100</v>
+        <v>13304500</v>
       </c>
       <c r="G23" s="3">
-        <v>12107000</v>
+        <v>12302500</v>
       </c>
       <c r="H23" s="3">
-        <v>13923600</v>
+        <v>14148400</v>
       </c>
       <c r="I23" s="3">
-        <v>15001100</v>
+        <v>15243300</v>
       </c>
       <c r="J23" s="3">
-        <v>14334700</v>
+        <v>14566200</v>
       </c>
       <c r="K23" s="3">
         <v>12305900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2052200</v>
+        <v>2085300</v>
       </c>
       <c r="E24" s="3">
-        <v>1816800</v>
+        <v>1846200</v>
       </c>
       <c r="F24" s="3">
-        <v>2911800</v>
+        <v>2958800</v>
       </c>
       <c r="G24" s="3">
-        <v>3178800</v>
+        <v>3230200</v>
       </c>
       <c r="H24" s="3">
-        <v>4275300</v>
+        <v>4344300</v>
       </c>
       <c r="I24" s="3">
-        <v>4345700</v>
+        <v>4415900</v>
       </c>
       <c r="J24" s="3">
-        <v>4087500</v>
+        <v>4153500</v>
       </c>
       <c r="K24" s="3">
         <v>3597700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5653400</v>
+        <v>5744700</v>
       </c>
       <c r="E26" s="3">
-        <v>8823300</v>
+        <v>8965700</v>
       </c>
       <c r="F26" s="3">
-        <v>10181300</v>
+        <v>10345700</v>
       </c>
       <c r="G26" s="3">
-        <v>8928200</v>
+        <v>9072300</v>
       </c>
       <c r="H26" s="3">
-        <v>9648300</v>
+        <v>9804100</v>
       </c>
       <c r="I26" s="3">
-        <v>10655400</v>
+        <v>10827400</v>
       </c>
       <c r="J26" s="3">
-        <v>10247300</v>
+        <v>10412700</v>
       </c>
       <c r="K26" s="3">
         <v>8708200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4906500</v>
+        <v>4985700</v>
       </c>
       <c r="E27" s="3">
-        <v>8107300</v>
+        <v>8238200</v>
       </c>
       <c r="F27" s="3">
-        <v>9194000</v>
+        <v>9342400</v>
       </c>
       <c r="G27" s="3">
-        <v>8606600</v>
+        <v>8745600</v>
       </c>
       <c r="H27" s="3">
-        <v>8838500</v>
+        <v>8981200</v>
       </c>
       <c r="I27" s="3">
-        <v>9603600</v>
+        <v>9758700</v>
       </c>
       <c r="J27" s="3">
-        <v>8982500</v>
+        <v>9127600</v>
       </c>
       <c r="K27" s="3">
         <v>7587300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>9555200</v>
+        <v>8017800</v>
       </c>
       <c r="E32" s="3">
-        <v>6544500</v>
+        <v>6650200</v>
       </c>
       <c r="F32" s="3">
-        <v>4415400</v>
+        <v>4486600</v>
       </c>
       <c r="G32" s="3">
-        <v>5750100</v>
+        <v>5842900</v>
       </c>
       <c r="H32" s="3">
-        <v>3704400</v>
+        <v>3764200</v>
       </c>
       <c r="I32" s="3">
-        <v>3944700</v>
+        <v>4008400</v>
       </c>
       <c r="J32" s="3">
-        <v>3300400</v>
+        <v>3353700</v>
       </c>
       <c r="K32" s="3">
         <v>3243100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4906500</v>
+        <v>4985700</v>
       </c>
       <c r="E33" s="3">
-        <v>8107300</v>
+        <v>8238200</v>
       </c>
       <c r="F33" s="3">
-        <v>9194000</v>
+        <v>9342400</v>
       </c>
       <c r="G33" s="3">
-        <v>8606600</v>
+        <v>8745600</v>
       </c>
       <c r="H33" s="3">
-        <v>8838500</v>
+        <v>8981200</v>
       </c>
       <c r="I33" s="3">
-        <v>9603600</v>
+        <v>9758700</v>
       </c>
       <c r="J33" s="3">
-        <v>8982500</v>
+        <v>9127600</v>
       </c>
       <c r="K33" s="3">
         <v>7587300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4906500</v>
+        <v>4985700</v>
       </c>
       <c r="E35" s="3">
-        <v>8107300</v>
+        <v>8238200</v>
       </c>
       <c r="F35" s="3">
-        <v>9194000</v>
+        <v>9342400</v>
       </c>
       <c r="G35" s="3">
-        <v>8606600</v>
+        <v>8745600</v>
       </c>
       <c r="H35" s="3">
-        <v>8838500</v>
+        <v>8981200</v>
       </c>
       <c r="I35" s="3">
-        <v>9603600</v>
+        <v>9758700</v>
       </c>
       <c r="J35" s="3">
-        <v>8982500</v>
+        <v>9127600</v>
       </c>
       <c r="K35" s="3">
         <v>7587300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>726955000</v>
+        <v>739488000</v>
       </c>
       <c r="E41" s="3">
-        <v>688640000</v>
+        <v>700513000</v>
       </c>
       <c r="F41" s="3">
-        <v>693343000</v>
+        <v>705297000</v>
       </c>
       <c r="G41" s="3">
-        <v>589521000</v>
+        <v>599685000</v>
       </c>
       <c r="H41" s="3">
-        <v>456189000</v>
+        <v>464054000</v>
       </c>
       <c r="I41" s="3">
-        <v>375732000</v>
+        <v>382210000</v>
       </c>
       <c r="J41" s="3">
-        <v>222441000</v>
+        <v>226276000</v>
       </c>
       <c r="K41" s="3">
         <v>104153000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>527768000</v>
+        <v>536868000</v>
       </c>
       <c r="E42" s="3">
-        <v>367255000</v>
+        <v>373587000</v>
       </c>
       <c r="F42" s="3">
-        <v>365766000</v>
+        <v>372072000</v>
       </c>
       <c r="G42" s="3">
-        <v>441325000</v>
+        <v>448934000</v>
       </c>
       <c r="H42" s="3">
-        <v>381926000</v>
+        <v>388511000</v>
       </c>
       <c r="I42" s="3">
-        <v>372584000</v>
+        <v>379008000</v>
       </c>
       <c r="J42" s="3">
-        <v>346270000</v>
+        <v>352240000</v>
       </c>
       <c r="K42" s="3">
         <v>311254000</v>
@@ -1849,26 +1849,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>25494300</v>
       </c>
       <c r="E47" s="3">
-        <v>27491000</v>
+        <v>27965000</v>
       </c>
       <c r="F47" s="3">
-        <v>25706200</v>
+        <v>26149500</v>
       </c>
       <c r="G47" s="3">
-        <v>25569000</v>
+        <v>26009800</v>
       </c>
       <c r="H47" s="3">
-        <v>24028600</v>
+        <v>24442900</v>
       </c>
       <c r="I47" s="3">
-        <v>22473700</v>
+        <v>22861200</v>
       </c>
       <c r="J47" s="3">
-        <v>19859400</v>
+        <v>20201800</v>
       </c>
       <c r="K47" s="3">
         <v>16095600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12247600</v>
+        <v>12458800</v>
       </c>
       <c r="E48" s="3">
-        <v>12397800</v>
+        <v>12611600</v>
       </c>
       <c r="F48" s="3">
-        <v>12713400</v>
+        <v>12932600</v>
       </c>
       <c r="G48" s="3">
-        <v>12610600</v>
+        <v>12828100</v>
       </c>
       <c r="H48" s="3">
-        <v>12639800</v>
+        <v>12857700</v>
       </c>
       <c r="I48" s="3">
-        <v>12553300</v>
+        <v>12769700</v>
       </c>
       <c r="J48" s="3">
-        <v>14291500</v>
+        <v>14537900</v>
       </c>
       <c r="K48" s="3">
         <v>12768600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13905200</v>
+        <v>14145000</v>
       </c>
       <c r="E49" s="3">
-        <v>10547000</v>
+        <v>10728800</v>
       </c>
       <c r="F49" s="3">
-        <v>11569200</v>
+        <v>11768600</v>
       </c>
       <c r="G49" s="3">
-        <v>11673100</v>
+        <v>11874300</v>
       </c>
       <c r="H49" s="3">
-        <v>11643900</v>
+        <v>11844600</v>
       </c>
       <c r="I49" s="3">
-        <v>12038700</v>
+        <v>12246300</v>
       </c>
       <c r="J49" s="3">
-        <v>13765500</v>
+        <v>14002800</v>
       </c>
       <c r="K49" s="3">
         <v>9920800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7792600</v>
+        <v>7927000</v>
       </c>
       <c r="E52" s="3">
-        <v>8616100</v>
+        <v>8764600</v>
       </c>
       <c r="F52" s="3">
-        <v>8939200</v>
+        <v>9093300</v>
       </c>
       <c r="G52" s="3">
-        <v>6752200</v>
+        <v>6868600</v>
       </c>
       <c r="H52" s="3">
-        <v>4674300</v>
+        <v>4754900</v>
       </c>
       <c r="I52" s="3">
-        <v>5750600</v>
+        <v>5849800</v>
       </c>
       <c r="J52" s="3">
-        <v>5489000</v>
+        <v>5583700</v>
       </c>
       <c r="K52" s="3">
         <v>870900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3123380000</v>
+        <v>3177230000</v>
       </c>
       <c r="E54" s="3">
-        <v>2887370000</v>
+        <v>2937150000</v>
       </c>
       <c r="F54" s="3">
-        <v>2848380000</v>
+        <v>2897490000</v>
       </c>
       <c r="G54" s="3">
-        <v>2814600000</v>
+        <v>2863130000</v>
       </c>
       <c r="H54" s="3">
-        <v>2768250000</v>
+        <v>2815980000</v>
       </c>
       <c r="I54" s="3">
-        <v>2655470000</v>
+        <v>2701250000</v>
       </c>
       <c r="J54" s="3">
-        <v>2395460000</v>
+        <v>2436770000</v>
       </c>
       <c r="K54" s="3">
         <v>2131590000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1043200</v>
+        <v>1061200</v>
       </c>
       <c r="E59" s="3">
-        <v>741700</v>
+        <v>754500</v>
       </c>
       <c r="F59" s="3">
-        <v>809200</v>
+        <v>823200</v>
       </c>
       <c r="G59" s="3">
-        <v>757300</v>
+        <v>770400</v>
       </c>
       <c r="H59" s="3">
-        <v>840900</v>
+        <v>855400</v>
       </c>
       <c r="I59" s="3">
-        <v>842800</v>
+        <v>857300</v>
       </c>
       <c r="J59" s="3">
-        <v>738800</v>
+        <v>751600</v>
       </c>
       <c r="K59" s="3">
         <v>578100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>353717000</v>
+        <v>359816000</v>
       </c>
       <c r="E61" s="3">
-        <v>263996000</v>
+        <v>268548000</v>
       </c>
       <c r="F61" s="3">
-        <v>251541000</v>
+        <v>255878000</v>
       </c>
       <c r="G61" s="3">
-        <v>249305000</v>
+        <v>253603000</v>
       </c>
       <c r="H61" s="3">
-        <v>201124000</v>
+        <v>204591000</v>
       </c>
       <c r="I61" s="3">
-        <v>204233000</v>
+        <v>207755000</v>
       </c>
       <c r="J61" s="3">
-        <v>166986000</v>
+        <v>169865000</v>
       </c>
       <c r="K61" s="3">
         <v>153373000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11156400</v>
+        <v>11348800</v>
       </c>
       <c r="E62" s="3">
-        <v>12089000</v>
+        <v>12297500</v>
       </c>
       <c r="F62" s="3">
-        <v>12963300</v>
+        <v>13186800</v>
       </c>
       <c r="G62" s="3">
-        <v>12488700</v>
+        <v>12704000</v>
       </c>
       <c r="H62" s="3">
-        <v>11954900</v>
+        <v>12161000</v>
       </c>
       <c r="I62" s="3">
-        <v>13125300</v>
+        <v>13351600</v>
       </c>
       <c r="J62" s="3">
-        <v>7346400</v>
+        <v>7473100</v>
       </c>
       <c r="K62" s="3">
         <v>6642600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2974990000</v>
+        <v>3026280000</v>
       </c>
       <c r="E66" s="3">
-        <v>2737220000</v>
+        <v>2784420000</v>
       </c>
       <c r="F66" s="3">
-        <v>2699670000</v>
+        <v>2746210000</v>
       </c>
       <c r="G66" s="3">
-        <v>2672800000</v>
+        <v>2718880000</v>
       </c>
       <c r="H66" s="3">
-        <v>2624720000</v>
+        <v>2669980000</v>
       </c>
       <c r="I66" s="3">
-        <v>2513240000</v>
+        <v>2556570000</v>
       </c>
       <c r="J66" s="3">
-        <v>2274220000</v>
+        <v>2313430000</v>
       </c>
       <c r="K66" s="3">
         <v>2024830000</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>3619200</v>
+        <v>3681600</v>
       </c>
       <c r="K70" s="3">
         <v>3545100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>100742000</v>
+        <v>102479000</v>
       </c>
       <c r="E72" s="3">
-        <v>98747300</v>
+        <v>100450000</v>
       </c>
       <c r="F72" s="3">
-        <v>93402500</v>
+        <v>95012900</v>
       </c>
       <c r="G72" s="3">
-        <v>86108700</v>
+        <v>87593300</v>
       </c>
       <c r="H72" s="3">
-        <v>79769400</v>
+        <v>81144700</v>
       </c>
       <c r="I72" s="3">
-        <v>73021400</v>
+        <v>74280300</v>
       </c>
       <c r="J72" s="3">
-        <v>65348400</v>
+        <v>66475100</v>
       </c>
       <c r="K72" s="3">
         <v>57056700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>148396000</v>
+        <v>150954000</v>
       </c>
       <c r="E76" s="3">
-        <v>150146000</v>
+        <v>152734000</v>
       </c>
       <c r="F76" s="3">
-        <v>148711000</v>
+        <v>151275000</v>
       </c>
       <c r="G76" s="3">
-        <v>141805000</v>
+        <v>144250000</v>
       </c>
       <c r="H76" s="3">
-        <v>143527000</v>
+        <v>146001000</v>
       </c>
       <c r="I76" s="3">
-        <v>142227000</v>
+        <v>144679000</v>
       </c>
       <c r="J76" s="3">
-        <v>117622000</v>
+        <v>119650000</v>
       </c>
       <c r="K76" s="3">
         <v>103222000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4906500</v>
+        <v>4985700</v>
       </c>
       <c r="E81" s="3">
-        <v>8107300</v>
+        <v>8238200</v>
       </c>
       <c r="F81" s="3">
-        <v>9194000</v>
+        <v>9342400</v>
       </c>
       <c r="G81" s="3">
-        <v>8606600</v>
+        <v>8745600</v>
       </c>
       <c r="H81" s="3">
-        <v>8838500</v>
+        <v>8981200</v>
       </c>
       <c r="I81" s="3">
-        <v>9603600</v>
+        <v>9758700</v>
       </c>
       <c r="J81" s="3">
-        <v>8982500</v>
+        <v>9127600</v>
       </c>
       <c r="K81" s="3">
         <v>7587300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6533600</v>
+        <v>6639100</v>
       </c>
       <c r="E83" s="3">
-        <v>3160500</v>
+        <v>3211500</v>
       </c>
       <c r="F83" s="3">
-        <v>3147500</v>
+        <v>3198400</v>
       </c>
       <c r="G83" s="3">
-        <v>3094900</v>
+        <v>3144900</v>
       </c>
       <c r="H83" s="3">
-        <v>2930600</v>
+        <v>2977900</v>
       </c>
       <c r="I83" s="3">
-        <v>2953800</v>
+        <v>3001400</v>
       </c>
       <c r="J83" s="3">
-        <v>2702200</v>
+        <v>2745900</v>
       </c>
       <c r="K83" s="3">
         <v>2496400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>74885200</v>
+        <v>76094300</v>
       </c>
       <c r="E89" s="3">
-        <v>52110400</v>
+        <v>52951800</v>
       </c>
       <c r="F89" s="3">
-        <v>114367100</v>
+        <v>116213700</v>
       </c>
       <c r="G89" s="3">
-        <v>65151400</v>
+        <v>66203300</v>
       </c>
       <c r="H89" s="3">
-        <v>62748600</v>
+        <v>63761800</v>
       </c>
       <c r="I89" s="3">
-        <v>-19469500</v>
+        <v>-19783900</v>
       </c>
       <c r="J89" s="3">
-        <v>-37957900</v>
+        <v>-38570800</v>
       </c>
       <c r="K89" s="3">
         <v>-2260500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1181500</v>
+        <v>-1200500</v>
       </c>
       <c r="E91" s="3">
-        <v>-1322800</v>
+        <v>-1344200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1484700</v>
+        <v>-1508600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1130900</v>
+        <v>-1149200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1086300</v>
+        <v>-1103800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1638500</v>
+        <v>-1664900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1406200</v>
+        <v>-1428900</v>
       </c>
       <c r="K91" s="3">
         <v>-1192600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31292800</v>
+        <v>-31798100</v>
       </c>
       <c r="E94" s="3">
-        <v>-52279900</v>
+        <v>-53124000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5257000</v>
+        <v>-5341900</v>
       </c>
       <c r="G94" s="3">
-        <v>82751100</v>
+        <v>84087300</v>
       </c>
       <c r="H94" s="3">
-        <v>20811500</v>
+        <v>21147600</v>
       </c>
       <c r="I94" s="3">
-        <v>60400700</v>
+        <v>61375900</v>
       </c>
       <c r="J94" s="3">
-        <v>55753000</v>
+        <v>56653200</v>
       </c>
       <c r="K94" s="3">
         <v>17139100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2829100</v>
+        <v>-2874800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2566600</v>
+        <v>-2608100</v>
       </c>
       <c r="F96" s="3">
-        <v>-2239500</v>
+        <v>-2275700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2290600</v>
+        <v>-2327600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2336400</v>
+        <v>-2374100</v>
       </c>
       <c r="I96" s="3">
-        <v>-2452400</v>
+        <v>-2492000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2007600</v>
+        <v>-2040000</v>
       </c>
       <c r="K96" s="3">
         <v>-1705500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2338000</v>
+        <v>-2375700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4499700</v>
+        <v>-4572300</v>
       </c>
       <c r="F100" s="3">
-        <v>-2699100</v>
+        <v>-2742700</v>
       </c>
       <c r="G100" s="3">
-        <v>-6229800</v>
+        <v>-6330400</v>
       </c>
       <c r="H100" s="3">
-        <v>-981000</v>
+        <v>-996900</v>
       </c>
       <c r="I100" s="3">
-        <v>-10745000</v>
+        <v>-10918500</v>
       </c>
       <c r="J100" s="3">
-        <v>-9355800</v>
+        <v>-9506900</v>
       </c>
       <c r="K100" s="3">
         <v>-9365400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2898400</v>
+        <v>-2945200</v>
       </c>
       <c r="E101" s="3">
-        <v>-38900</v>
+        <v>-39600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2476900</v>
+        <v>-2516900</v>
       </c>
       <c r="G101" s="3">
-        <v>-422600</v>
+        <v>-429400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1070300</v>
+        <v>-1087600</v>
       </c>
       <c r="I101" s="3">
-        <v>2348500</v>
+        <v>2386400</v>
       </c>
       <c r="J101" s="3">
-        <v>2772600</v>
+        <v>2817400</v>
       </c>
       <c r="K101" s="3">
         <v>1706900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38356000</v>
+        <v>38975300</v>
       </c>
       <c r="E102" s="3">
-        <v>-4708100</v>
+        <v>-4784100</v>
       </c>
       <c r="F102" s="3">
-        <v>103934200</v>
+        <v>105612300</v>
       </c>
       <c r="G102" s="3">
-        <v>141250100</v>
+        <v>143530800</v>
       </c>
       <c r="H102" s="3">
-        <v>81508800</v>
+        <v>82824900</v>
       </c>
       <c r="I102" s="3">
-        <v>32534700</v>
+        <v>33060000</v>
       </c>
       <c r="J102" s="3">
-        <v>11211900</v>
+        <v>11392900</v>
       </c>
       <c r="K102" s="3">
         <v>7220100</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36261900</v>
+        <v>36914900</v>
       </c>
       <c r="E8" s="3">
-        <v>35232000</v>
+        <v>35866500</v>
       </c>
       <c r="F8" s="3">
-        <v>29216700</v>
+        <v>29742900</v>
       </c>
       <c r="G8" s="3">
-        <v>27264000</v>
+        <v>27755000</v>
       </c>
       <c r="H8" s="3">
-        <v>26141700</v>
+        <v>26612500</v>
       </c>
       <c r="I8" s="3">
-        <v>26490900</v>
+        <v>26968000</v>
       </c>
       <c r="J8" s="3">
-        <v>22378900</v>
+        <v>22782000</v>
       </c>
       <c r="K8" s="3">
         <v>21242900</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3241400</v>
+        <v>-3299800</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20414200</v>
+        <v>20781800</v>
       </c>
       <c r="E17" s="3">
-        <v>17769900</v>
+        <v>18089900</v>
       </c>
       <c r="F17" s="3">
-        <v>11425600</v>
+        <v>11631300</v>
       </c>
       <c r="G17" s="3">
-        <v>9118600</v>
+        <v>9282800</v>
       </c>
       <c r="H17" s="3">
-        <v>8229100</v>
+        <v>8377300</v>
       </c>
       <c r="I17" s="3">
-        <v>7239200</v>
+        <v>7369600</v>
       </c>
       <c r="J17" s="3">
-        <v>4459100</v>
+        <v>4539400</v>
       </c>
       <c r="K17" s="3">
         <v>5693900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15847700</v>
+        <v>16133100</v>
       </c>
       <c r="E18" s="3">
-        <v>17462100</v>
+        <v>17776600</v>
       </c>
       <c r="F18" s="3">
-        <v>17791200</v>
+        <v>18111600</v>
       </c>
       <c r="G18" s="3">
-        <v>18145400</v>
+        <v>18472200</v>
       </c>
       <c r="H18" s="3">
-        <v>17912600</v>
+        <v>18235200</v>
       </c>
       <c r="I18" s="3">
-        <v>19251700</v>
+        <v>19598400</v>
       </c>
       <c r="J18" s="3">
-        <v>17919900</v>
+        <v>18242600</v>
       </c>
       <c r="K18" s="3">
         <v>15549100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8017800</v>
+        <v>-8162100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6650200</v>
+        <v>-6770000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4486600</v>
+        <v>-4567400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5842900</v>
+        <v>-5948100</v>
       </c>
       <c r="H20" s="3">
-        <v>-3764200</v>
+        <v>-3832000</v>
       </c>
       <c r="I20" s="3">
-        <v>-4008400</v>
+        <v>-4080600</v>
       </c>
       <c r="J20" s="3">
-        <v>-3353700</v>
+        <v>-3414100</v>
       </c>
       <c r="K20" s="3">
         <v>-3243100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14440900</v>
+        <v>14715500</v>
       </c>
       <c r="E21" s="3">
-        <v>14009800</v>
+        <v>14269100</v>
       </c>
       <c r="F21" s="3">
-        <v>16489300</v>
+        <v>16793300</v>
       </c>
       <c r="G21" s="3">
-        <v>15434100</v>
+        <v>15718900</v>
       </c>
       <c r="H21" s="3">
-        <v>17113700</v>
+        <v>17428400</v>
       </c>
       <c r="I21" s="3">
-        <v>18232000</v>
+        <v>18567000</v>
       </c>
       <c r="J21" s="3">
-        <v>17300400</v>
+        <v>17618000</v>
       </c>
       <c r="K21" s="3">
         <v>14807800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7829900</v>
+        <v>7970900</v>
       </c>
       <c r="E23" s="3">
-        <v>10811900</v>
+        <v>11006600</v>
       </c>
       <c r="F23" s="3">
-        <v>13304500</v>
+        <v>13544100</v>
       </c>
       <c r="G23" s="3">
-        <v>12302500</v>
+        <v>12524000</v>
       </c>
       <c r="H23" s="3">
-        <v>14148400</v>
+        <v>14403200</v>
       </c>
       <c r="I23" s="3">
-        <v>15243300</v>
+        <v>15517800</v>
       </c>
       <c r="J23" s="3">
-        <v>14566200</v>
+        <v>14828500</v>
       </c>
       <c r="K23" s="3">
         <v>12305900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2085300</v>
+        <v>2122800</v>
       </c>
       <c r="E24" s="3">
-        <v>1846200</v>
+        <v>1879400</v>
       </c>
       <c r="F24" s="3">
-        <v>2958800</v>
+        <v>3012100</v>
       </c>
       <c r="G24" s="3">
-        <v>3230200</v>
+        <v>3288300</v>
       </c>
       <c r="H24" s="3">
-        <v>4344300</v>
+        <v>4422600</v>
       </c>
       <c r="I24" s="3">
-        <v>4415900</v>
+        <v>4495400</v>
       </c>
       <c r="J24" s="3">
-        <v>4153500</v>
+        <v>4228300</v>
       </c>
       <c r="K24" s="3">
         <v>3597700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5744700</v>
+        <v>5848100</v>
       </c>
       <c r="E26" s="3">
-        <v>8965700</v>
+        <v>9127200</v>
       </c>
       <c r="F26" s="3">
-        <v>10345700</v>
+        <v>10532000</v>
       </c>
       <c r="G26" s="3">
-        <v>9072300</v>
+        <v>9235700</v>
       </c>
       <c r="H26" s="3">
-        <v>9804100</v>
+        <v>9980600</v>
       </c>
       <c r="I26" s="3">
-        <v>10827400</v>
+        <v>11022400</v>
       </c>
       <c r="J26" s="3">
-        <v>10412700</v>
+        <v>10600200</v>
       </c>
       <c r="K26" s="3">
         <v>8708200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4985700</v>
+        <v>5075500</v>
       </c>
       <c r="E27" s="3">
-        <v>8238200</v>
+        <v>8386500</v>
       </c>
       <c r="F27" s="3">
-        <v>9342400</v>
+        <v>9510700</v>
       </c>
       <c r="G27" s="3">
-        <v>8745600</v>
+        <v>8903100</v>
       </c>
       <c r="H27" s="3">
-        <v>8981200</v>
+        <v>9143000</v>
       </c>
       <c r="I27" s="3">
-        <v>9758700</v>
+        <v>9934400</v>
       </c>
       <c r="J27" s="3">
-        <v>9127600</v>
+        <v>9292000</v>
       </c>
       <c r="K27" s="3">
         <v>7587300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8017800</v>
+        <v>8162100</v>
       </c>
       <c r="E32" s="3">
-        <v>6650200</v>
+        <v>6770000</v>
       </c>
       <c r="F32" s="3">
-        <v>4486600</v>
+        <v>4567400</v>
       </c>
       <c r="G32" s="3">
-        <v>5842900</v>
+        <v>5948100</v>
       </c>
       <c r="H32" s="3">
-        <v>3764200</v>
+        <v>3832000</v>
       </c>
       <c r="I32" s="3">
-        <v>4008400</v>
+        <v>4080600</v>
       </c>
       <c r="J32" s="3">
-        <v>3353700</v>
+        <v>3414100</v>
       </c>
       <c r="K32" s="3">
         <v>3243100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4985700</v>
+        <v>5075500</v>
       </c>
       <c r="E33" s="3">
-        <v>8238200</v>
+        <v>8386500</v>
       </c>
       <c r="F33" s="3">
-        <v>9342400</v>
+        <v>9510700</v>
       </c>
       <c r="G33" s="3">
-        <v>8745600</v>
+        <v>8903100</v>
       </c>
       <c r="H33" s="3">
-        <v>8981200</v>
+        <v>9143000</v>
       </c>
       <c r="I33" s="3">
-        <v>9758700</v>
+        <v>9934400</v>
       </c>
       <c r="J33" s="3">
-        <v>9127600</v>
+        <v>9292000</v>
       </c>
       <c r="K33" s="3">
         <v>7587300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4985700</v>
+        <v>5075500</v>
       </c>
       <c r="E35" s="3">
-        <v>8238200</v>
+        <v>8386500</v>
       </c>
       <c r="F35" s="3">
-        <v>9342400</v>
+        <v>9510700</v>
       </c>
       <c r="G35" s="3">
-        <v>8745600</v>
+        <v>8903100</v>
       </c>
       <c r="H35" s="3">
-        <v>8981200</v>
+        <v>9143000</v>
       </c>
       <c r="I35" s="3">
-        <v>9758700</v>
+        <v>9934400</v>
       </c>
       <c r="J35" s="3">
-        <v>9127600</v>
+        <v>9292000</v>
       </c>
       <c r="K35" s="3">
         <v>7587300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>739488000</v>
+        <v>752805000</v>
       </c>
       <c r="E41" s="3">
-        <v>700513000</v>
+        <v>713128000</v>
       </c>
       <c r="F41" s="3">
-        <v>705297000</v>
+        <v>717999000</v>
       </c>
       <c r="G41" s="3">
-        <v>599685000</v>
+        <v>610484000</v>
       </c>
       <c r="H41" s="3">
-        <v>464054000</v>
+        <v>472411000</v>
       </c>
       <c r="I41" s="3">
-        <v>382210000</v>
+        <v>389093000</v>
       </c>
       <c r="J41" s="3">
-        <v>226276000</v>
+        <v>230351000</v>
       </c>
       <c r="K41" s="3">
         <v>104153000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>536868000</v>
+        <v>546536000</v>
       </c>
       <c r="E42" s="3">
-        <v>373587000</v>
+        <v>380315000</v>
       </c>
       <c r="F42" s="3">
-        <v>372072000</v>
+        <v>378773000</v>
       </c>
       <c r="G42" s="3">
-        <v>448934000</v>
+        <v>457019000</v>
       </c>
       <c r="H42" s="3">
-        <v>388511000</v>
+        <v>395507000</v>
       </c>
       <c r="I42" s="3">
-        <v>379008000</v>
+        <v>385833000</v>
       </c>
       <c r="J42" s="3">
-        <v>352240000</v>
+        <v>358583000</v>
       </c>
       <c r="K42" s="3">
         <v>311254000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25494300</v>
+        <v>25953400</v>
       </c>
       <c r="E47" s="3">
-        <v>27965000</v>
+        <v>28468600</v>
       </c>
       <c r="F47" s="3">
-        <v>26149500</v>
+        <v>26620400</v>
       </c>
       <c r="G47" s="3">
-        <v>26009800</v>
+        <v>26478200</v>
       </c>
       <c r="H47" s="3">
-        <v>24442900</v>
+        <v>24883100</v>
       </c>
       <c r="I47" s="3">
-        <v>22861200</v>
+        <v>23272900</v>
       </c>
       <c r="J47" s="3">
-        <v>20201800</v>
+        <v>20565600</v>
       </c>
       <c r="K47" s="3">
         <v>16095600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12458800</v>
+        <v>12683200</v>
       </c>
       <c r="E48" s="3">
-        <v>12611600</v>
+        <v>12838700</v>
       </c>
       <c r="F48" s="3">
-        <v>12932600</v>
+        <v>13165500</v>
       </c>
       <c r="G48" s="3">
-        <v>12828100</v>
+        <v>13059100</v>
       </c>
       <c r="H48" s="3">
-        <v>12857700</v>
+        <v>13089200</v>
       </c>
       <c r="I48" s="3">
-        <v>12769700</v>
+        <v>12999700</v>
       </c>
       <c r="J48" s="3">
-        <v>14537900</v>
+        <v>14799700</v>
       </c>
       <c r="K48" s="3">
         <v>12768600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14145000</v>
+        <v>14399700</v>
       </c>
       <c r="E49" s="3">
-        <v>10728800</v>
+        <v>10922100</v>
       </c>
       <c r="F49" s="3">
-        <v>11768600</v>
+        <v>11980600</v>
       </c>
       <c r="G49" s="3">
-        <v>11874300</v>
+        <v>12088200</v>
       </c>
       <c r="H49" s="3">
-        <v>11844600</v>
+        <v>12057900</v>
       </c>
       <c r="I49" s="3">
-        <v>12246300</v>
+        <v>12466800</v>
       </c>
       <c r="J49" s="3">
-        <v>14002800</v>
+        <v>14255000</v>
       </c>
       <c r="K49" s="3">
         <v>9920800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7927000</v>
+        <v>8069700</v>
       </c>
       <c r="E52" s="3">
-        <v>8764600</v>
+        <v>8922500</v>
       </c>
       <c r="F52" s="3">
-        <v>9093300</v>
+        <v>9257100</v>
       </c>
       <c r="G52" s="3">
-        <v>6868600</v>
+        <v>6992300</v>
       </c>
       <c r="H52" s="3">
-        <v>4754900</v>
+        <v>4840500</v>
       </c>
       <c r="I52" s="3">
-        <v>5849800</v>
+        <v>5955100</v>
       </c>
       <c r="J52" s="3">
-        <v>5583700</v>
+        <v>5684200</v>
       </c>
       <c r="K52" s="3">
         <v>870900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3177230000</v>
+        <v>3234450000</v>
       </c>
       <c r="E54" s="3">
-        <v>2937150000</v>
+        <v>2990040000</v>
       </c>
       <c r="F54" s="3">
-        <v>2897490000</v>
+        <v>2949670000</v>
       </c>
       <c r="G54" s="3">
-        <v>2863130000</v>
+        <v>2914690000</v>
       </c>
       <c r="H54" s="3">
-        <v>2815980000</v>
+        <v>2866690000</v>
       </c>
       <c r="I54" s="3">
-        <v>2701250000</v>
+        <v>2749900000</v>
       </c>
       <c r="J54" s="3">
-        <v>2436770000</v>
+        <v>2480650000</v>
       </c>
       <c r="K54" s="3">
         <v>2131590000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1061200</v>
+        <v>1080300</v>
       </c>
       <c r="E59" s="3">
-        <v>754500</v>
+        <v>768100</v>
       </c>
       <c r="F59" s="3">
-        <v>823200</v>
+        <v>838000</v>
       </c>
       <c r="G59" s="3">
-        <v>770400</v>
+        <v>784300</v>
       </c>
       <c r="H59" s="3">
-        <v>855400</v>
+        <v>870800</v>
       </c>
       <c r="I59" s="3">
-        <v>857300</v>
+        <v>872700</v>
       </c>
       <c r="J59" s="3">
-        <v>751600</v>
+        <v>765100</v>
       </c>
       <c r="K59" s="3">
         <v>578100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>359816000</v>
+        <v>366295000</v>
       </c>
       <c r="E61" s="3">
-        <v>268548000</v>
+        <v>273384000</v>
       </c>
       <c r="F61" s="3">
-        <v>255878000</v>
+        <v>260486000</v>
       </c>
       <c r="G61" s="3">
-        <v>253603000</v>
+        <v>258171000</v>
       </c>
       <c r="H61" s="3">
-        <v>204591000</v>
+        <v>208276000</v>
       </c>
       <c r="I61" s="3">
-        <v>207755000</v>
+        <v>211496000</v>
       </c>
       <c r="J61" s="3">
-        <v>169865000</v>
+        <v>172924000</v>
       </c>
       <c r="K61" s="3">
         <v>153373000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11348800</v>
+        <v>11553100</v>
       </c>
       <c r="E62" s="3">
-        <v>12297500</v>
+        <v>12518900</v>
       </c>
       <c r="F62" s="3">
-        <v>13186800</v>
+        <v>13424300</v>
       </c>
       <c r="G62" s="3">
-        <v>12704000</v>
+        <v>12932800</v>
       </c>
       <c r="H62" s="3">
-        <v>12161000</v>
+        <v>12380000</v>
       </c>
       <c r="I62" s="3">
-        <v>13351600</v>
+        <v>13592000</v>
       </c>
       <c r="J62" s="3">
-        <v>7473100</v>
+        <v>7607600</v>
       </c>
       <c r="K62" s="3">
         <v>6642600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3026280000</v>
+        <v>3080780000</v>
       </c>
       <c r="E66" s="3">
-        <v>2784420000</v>
+        <v>2834560000</v>
       </c>
       <c r="F66" s="3">
-        <v>2746210000</v>
+        <v>2795670000</v>
       </c>
       <c r="G66" s="3">
-        <v>2718880000</v>
+        <v>2767840000</v>
       </c>
       <c r="H66" s="3">
-        <v>2669980000</v>
+        <v>2718060000</v>
       </c>
       <c r="I66" s="3">
-        <v>2556570000</v>
+        <v>2602610000</v>
       </c>
       <c r="J66" s="3">
-        <v>2313430000</v>
+        <v>2355100000</v>
       </c>
       <c r="K66" s="3">
         <v>2024830000</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>3681600</v>
+        <v>3747900</v>
       </c>
       <c r="K70" s="3">
         <v>3545100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>102479000</v>
+        <v>104325000</v>
       </c>
       <c r="E72" s="3">
-        <v>100450000</v>
+        <v>102259000</v>
       </c>
       <c r="F72" s="3">
-        <v>95012900</v>
+        <v>96723900</v>
       </c>
       <c r="G72" s="3">
-        <v>87593300</v>
+        <v>89170700</v>
       </c>
       <c r="H72" s="3">
-        <v>81144700</v>
+        <v>82606000</v>
       </c>
       <c r="I72" s="3">
-        <v>74280300</v>
+        <v>75618000</v>
       </c>
       <c r="J72" s="3">
-        <v>66475100</v>
+        <v>67672200</v>
       </c>
       <c r="K72" s="3">
         <v>57056700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>150954000</v>
+        <v>153673000</v>
       </c>
       <c r="E76" s="3">
-        <v>152734000</v>
+        <v>155485000</v>
       </c>
       <c r="F76" s="3">
-        <v>151275000</v>
+        <v>153999000</v>
       </c>
       <c r="G76" s="3">
-        <v>144250000</v>
+        <v>146847000</v>
       </c>
       <c r="H76" s="3">
-        <v>146001000</v>
+        <v>148631000</v>
       </c>
       <c r="I76" s="3">
-        <v>144679000</v>
+        <v>147285000</v>
       </c>
       <c r="J76" s="3">
-        <v>119650000</v>
+        <v>121805000</v>
       </c>
       <c r="K76" s="3">
         <v>103222000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4985700</v>
+        <v>5075500</v>
       </c>
       <c r="E81" s="3">
-        <v>8238200</v>
+        <v>8386500</v>
       </c>
       <c r="F81" s="3">
-        <v>9342400</v>
+        <v>9510700</v>
       </c>
       <c r="G81" s="3">
-        <v>8745600</v>
+        <v>8903100</v>
       </c>
       <c r="H81" s="3">
-        <v>8981200</v>
+        <v>9143000</v>
       </c>
       <c r="I81" s="3">
-        <v>9758700</v>
+        <v>9934400</v>
       </c>
       <c r="J81" s="3">
-        <v>9127600</v>
+        <v>9292000</v>
       </c>
       <c r="K81" s="3">
         <v>7587300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6639100</v>
+        <v>6758600</v>
       </c>
       <c r="E83" s="3">
-        <v>3211500</v>
+        <v>3269300</v>
       </c>
       <c r="F83" s="3">
-        <v>3198400</v>
+        <v>3256000</v>
       </c>
       <c r="G83" s="3">
-        <v>3144900</v>
+        <v>3201600</v>
       </c>
       <c r="H83" s="3">
-        <v>2977900</v>
+        <v>3031600</v>
       </c>
       <c r="I83" s="3">
-        <v>3001400</v>
+        <v>3055500</v>
       </c>
       <c r="J83" s="3">
-        <v>2745900</v>
+        <v>2795300</v>
       </c>
       <c r="K83" s="3">
         <v>2496400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>76094300</v>
+        <v>77464700</v>
       </c>
       <c r="E89" s="3">
-        <v>52951800</v>
+        <v>53905400</v>
       </c>
       <c r="F89" s="3">
-        <v>116213700</v>
+        <v>118306600</v>
       </c>
       <c r="G89" s="3">
-        <v>66203300</v>
+        <v>67395500</v>
       </c>
       <c r="H89" s="3">
-        <v>63761800</v>
+        <v>64910000</v>
       </c>
       <c r="I89" s="3">
-        <v>-19783900</v>
+        <v>-20140100</v>
       </c>
       <c r="J89" s="3">
-        <v>-38570800</v>
+        <v>-39265400</v>
       </c>
       <c r="K89" s="3">
         <v>-2260500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1200500</v>
+        <v>-1222200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1344200</v>
+        <v>-1368400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1508600</v>
+        <v>-1535800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1149200</v>
+        <v>-1169900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1103800</v>
+        <v>-1123700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1664900</v>
+        <v>-1694900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1428900</v>
+        <v>-1454600</v>
       </c>
       <c r="K91" s="3">
         <v>-1192600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-31798100</v>
+        <v>-32370700</v>
       </c>
       <c r="E94" s="3">
-        <v>-53124000</v>
+        <v>-54080700</v>
       </c>
       <c r="F94" s="3">
-        <v>-5341900</v>
+        <v>-5438100</v>
       </c>
       <c r="G94" s="3">
-        <v>84087300</v>
+        <v>85601500</v>
       </c>
       <c r="H94" s="3">
-        <v>21147600</v>
+        <v>21528400</v>
       </c>
       <c r="I94" s="3">
-        <v>61375900</v>
+        <v>62481200</v>
       </c>
       <c r="J94" s="3">
-        <v>56653200</v>
+        <v>57673500</v>
       </c>
       <c r="K94" s="3">
         <v>17139100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2874800</v>
+        <v>-2926600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2608100</v>
+        <v>-2655000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2275700</v>
+        <v>-2316700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2327600</v>
+        <v>-2369500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2374100</v>
+        <v>-2416900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2492000</v>
+        <v>-2536800</v>
       </c>
       <c r="J96" s="3">
-        <v>-2040000</v>
+        <v>-2076800</v>
       </c>
       <c r="K96" s="3">
         <v>-1705500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2375700</v>
+        <v>-2418500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4572300</v>
+        <v>-4654700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2742700</v>
+        <v>-2792100</v>
       </c>
       <c r="G100" s="3">
-        <v>-6330400</v>
+        <v>-6444400</v>
       </c>
       <c r="H100" s="3">
-        <v>-996900</v>
+        <v>-1014800</v>
       </c>
       <c r="I100" s="3">
-        <v>-10918500</v>
+        <v>-11115100</v>
       </c>
       <c r="J100" s="3">
-        <v>-9506900</v>
+        <v>-9678100</v>
       </c>
       <c r="K100" s="3">
         <v>-9365400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2945200</v>
+        <v>-2998200</v>
       </c>
       <c r="E101" s="3">
-        <v>-39600</v>
+        <v>-40300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2516900</v>
+        <v>-2562200</v>
       </c>
       <c r="G101" s="3">
-        <v>-429400</v>
+        <v>-437100</v>
       </c>
       <c r="H101" s="3">
-        <v>-1087600</v>
+        <v>-1107200</v>
       </c>
       <c r="I101" s="3">
-        <v>2386400</v>
+        <v>2429400</v>
       </c>
       <c r="J101" s="3">
-        <v>2817400</v>
+        <v>2868100</v>
       </c>
       <c r="K101" s="3">
         <v>1706900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38975300</v>
+        <v>39677200</v>
       </c>
       <c r="E102" s="3">
-        <v>-4784100</v>
+        <v>-4870300</v>
       </c>
       <c r="F102" s="3">
-        <v>105612300</v>
+        <v>107514300</v>
       </c>
       <c r="G102" s="3">
-        <v>143530800</v>
+        <v>146115600</v>
       </c>
       <c r="H102" s="3">
-        <v>82824900</v>
+        <v>84316400</v>
       </c>
       <c r="I102" s="3">
-        <v>33060000</v>
+        <v>33655300</v>
       </c>
       <c r="J102" s="3">
-        <v>11392900</v>
+        <v>11598100</v>
       </c>
       <c r="K102" s="3">
         <v>7220100</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36914900</v>
+        <v>35186300</v>
       </c>
       <c r="E8" s="3">
-        <v>35866500</v>
+        <v>34187000</v>
       </c>
       <c r="F8" s="3">
-        <v>29742900</v>
+        <v>28350100</v>
       </c>
       <c r="G8" s="3">
-        <v>27755000</v>
+        <v>26455300</v>
       </c>
       <c r="H8" s="3">
-        <v>26612500</v>
+        <v>25366300</v>
       </c>
       <c r="I8" s="3">
-        <v>26968000</v>
+        <v>25705200</v>
       </c>
       <c r="J8" s="3">
-        <v>22782000</v>
+        <v>21715200</v>
       </c>
       <c r="K8" s="3">
         <v>21242900</v>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-3299800</v>
+        <v>-3145300</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20781800</v>
+        <v>19808700</v>
       </c>
       <c r="E17" s="3">
-        <v>18089900</v>
+        <v>17242800</v>
       </c>
       <c r="F17" s="3">
-        <v>11631300</v>
+        <v>11086700</v>
       </c>
       <c r="G17" s="3">
-        <v>9282800</v>
+        <v>8848100</v>
       </c>
       <c r="H17" s="3">
-        <v>8377300</v>
+        <v>7985000</v>
       </c>
       <c r="I17" s="3">
-        <v>7369600</v>
+        <v>7024500</v>
       </c>
       <c r="J17" s="3">
-        <v>4539400</v>
+        <v>4326800</v>
       </c>
       <c r="K17" s="3">
         <v>5693900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>16133100</v>
+        <v>15377600</v>
       </c>
       <c r="E18" s="3">
-        <v>17776600</v>
+        <v>16944200</v>
       </c>
       <c r="F18" s="3">
-        <v>18111600</v>
+        <v>17263500</v>
       </c>
       <c r="G18" s="3">
-        <v>18472200</v>
+        <v>17607200</v>
       </c>
       <c r="H18" s="3">
-        <v>18235200</v>
+        <v>17381300</v>
       </c>
       <c r="I18" s="3">
-        <v>19598400</v>
+        <v>18680700</v>
       </c>
       <c r="J18" s="3">
-        <v>18242600</v>
+        <v>17388300</v>
       </c>
       <c r="K18" s="3">
         <v>15549100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8162100</v>
+        <v>-7779900</v>
       </c>
       <c r="E20" s="3">
-        <v>-6770000</v>
+        <v>-6453000</v>
       </c>
       <c r="F20" s="3">
-        <v>-4567400</v>
+        <v>-4353600</v>
       </c>
       <c r="G20" s="3">
-        <v>-5948100</v>
+        <v>-5669600</v>
       </c>
       <c r="H20" s="3">
-        <v>-3832000</v>
+        <v>-3652600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4080600</v>
+        <v>-3889500</v>
       </c>
       <c r="J20" s="3">
-        <v>-3414100</v>
+        <v>-3254200</v>
       </c>
       <c r="K20" s="3">
         <v>-3243100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14715500</v>
+        <v>14068000</v>
       </c>
       <c r="E21" s="3">
-        <v>14269100</v>
+        <v>13621000</v>
       </c>
       <c r="F21" s="3">
-        <v>16793300</v>
+        <v>16026900</v>
       </c>
       <c r="G21" s="3">
-        <v>15718900</v>
+        <v>15002500</v>
       </c>
       <c r="H21" s="3">
-        <v>17428400</v>
+        <v>16630900</v>
       </c>
       <c r="I21" s="3">
-        <v>18567000</v>
+        <v>17716300</v>
       </c>
       <c r="J21" s="3">
-        <v>17618000</v>
+        <v>16810200</v>
       </c>
       <c r="K21" s="3">
         <v>14807800</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7970900</v>
+        <v>7597700</v>
       </c>
       <c r="E23" s="3">
-        <v>11006600</v>
+        <v>10491200</v>
       </c>
       <c r="F23" s="3">
-        <v>13544100</v>
+        <v>12909900</v>
       </c>
       <c r="G23" s="3">
-        <v>12524000</v>
+        <v>11937600</v>
       </c>
       <c r="H23" s="3">
-        <v>14403200</v>
+        <v>13728700</v>
       </c>
       <c r="I23" s="3">
-        <v>15517800</v>
+        <v>14791200</v>
       </c>
       <c r="J23" s="3">
-        <v>14828500</v>
+        <v>14134200</v>
       </c>
       <c r="K23" s="3">
         <v>12305900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2122800</v>
+        <v>2023400</v>
       </c>
       <c r="E24" s="3">
-        <v>1879400</v>
+        <v>1791400</v>
       </c>
       <c r="F24" s="3">
-        <v>3012100</v>
+        <v>2871100</v>
       </c>
       <c r="G24" s="3">
-        <v>3288300</v>
+        <v>3134300</v>
       </c>
       <c r="H24" s="3">
-        <v>4422600</v>
+        <v>4215500</v>
       </c>
       <c r="I24" s="3">
-        <v>4495400</v>
+        <v>4284900</v>
       </c>
       <c r="J24" s="3">
-        <v>4228300</v>
+        <v>4030300</v>
       </c>
       <c r="K24" s="3">
         <v>3597700</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5848100</v>
+        <v>5574300</v>
       </c>
       <c r="E26" s="3">
-        <v>9127200</v>
+        <v>8699800</v>
       </c>
       <c r="F26" s="3">
-        <v>10532000</v>
+        <v>10038800</v>
       </c>
       <c r="G26" s="3">
-        <v>9235700</v>
+        <v>8803200</v>
       </c>
       <c r="H26" s="3">
-        <v>9980600</v>
+        <v>9513300</v>
       </c>
       <c r="I26" s="3">
-        <v>11022400</v>
+        <v>10506300</v>
       </c>
       <c r="J26" s="3">
-        <v>10600200</v>
+        <v>10103900</v>
       </c>
       <c r="K26" s="3">
         <v>8708200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>5075500</v>
+        <v>4837900</v>
       </c>
       <c r="E27" s="3">
-        <v>8386500</v>
+        <v>7993800</v>
       </c>
       <c r="F27" s="3">
-        <v>9510700</v>
+        <v>9065300</v>
       </c>
       <c r="G27" s="3">
-        <v>8903100</v>
+        <v>8486200</v>
       </c>
       <c r="H27" s="3">
-        <v>9143000</v>
+        <v>8714800</v>
       </c>
       <c r="I27" s="3">
-        <v>9934400</v>
+        <v>9469200</v>
       </c>
       <c r="J27" s="3">
-        <v>9292000</v>
+        <v>8856800</v>
       </c>
       <c r="K27" s="3">
         <v>7587300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8162100</v>
+        <v>7779900</v>
       </c>
       <c r="E32" s="3">
-        <v>6770000</v>
+        <v>6453000</v>
       </c>
       <c r="F32" s="3">
-        <v>4567400</v>
+        <v>4353600</v>
       </c>
       <c r="G32" s="3">
-        <v>5948100</v>
+        <v>5669600</v>
       </c>
       <c r="H32" s="3">
-        <v>3832000</v>
+        <v>3652600</v>
       </c>
       <c r="I32" s="3">
-        <v>4080600</v>
+        <v>3889500</v>
       </c>
       <c r="J32" s="3">
-        <v>3414100</v>
+        <v>3254200</v>
       </c>
       <c r="K32" s="3">
         <v>3243100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5075500</v>
+        <v>4837900</v>
       </c>
       <c r="E33" s="3">
-        <v>8386500</v>
+        <v>7993800</v>
       </c>
       <c r="F33" s="3">
-        <v>9510700</v>
+        <v>9065300</v>
       </c>
       <c r="G33" s="3">
-        <v>8903100</v>
+        <v>8486200</v>
       </c>
       <c r="H33" s="3">
-        <v>9143000</v>
+        <v>8714800</v>
       </c>
       <c r="I33" s="3">
-        <v>9934400</v>
+        <v>9469200</v>
       </c>
       <c r="J33" s="3">
-        <v>9292000</v>
+        <v>8856800</v>
       </c>
       <c r="K33" s="3">
         <v>7587300</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5075500</v>
+        <v>4837900</v>
       </c>
       <c r="E35" s="3">
-        <v>8386500</v>
+        <v>7993800</v>
       </c>
       <c r="F35" s="3">
-        <v>9510700</v>
+        <v>9065300</v>
       </c>
       <c r="G35" s="3">
-        <v>8903100</v>
+        <v>8486200</v>
       </c>
       <c r="H35" s="3">
-        <v>9143000</v>
+        <v>8714800</v>
       </c>
       <c r="I35" s="3">
-        <v>9934400</v>
+        <v>9469200</v>
       </c>
       <c r="J35" s="3">
-        <v>9292000</v>
+        <v>8856800</v>
       </c>
       <c r="K35" s="3">
         <v>7587300</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>752805000</v>
+        <v>717554000</v>
       </c>
       <c r="E41" s="3">
-        <v>713128000</v>
+        <v>679735000</v>
       </c>
       <c r="F41" s="3">
-        <v>717999000</v>
+        <v>684377000</v>
       </c>
       <c r="G41" s="3">
-        <v>610484000</v>
+        <v>581898000</v>
       </c>
       <c r="H41" s="3">
-        <v>472411000</v>
+        <v>450290000</v>
       </c>
       <c r="I41" s="3">
-        <v>389093000</v>
+        <v>370873000</v>
       </c>
       <c r="J41" s="3">
-        <v>230351000</v>
+        <v>219564000</v>
       </c>
       <c r="K41" s="3">
         <v>104153000</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>546536000</v>
+        <v>520944000</v>
       </c>
       <c r="E42" s="3">
-        <v>380315000</v>
+        <v>362506000</v>
       </c>
       <c r="F42" s="3">
-        <v>378773000</v>
+        <v>361036000</v>
       </c>
       <c r="G42" s="3">
-        <v>457019000</v>
+        <v>435619000</v>
       </c>
       <c r="H42" s="3">
-        <v>395507000</v>
+        <v>376987000</v>
       </c>
       <c r="I42" s="3">
-        <v>385833000</v>
+        <v>367766000</v>
       </c>
       <c r="J42" s="3">
-        <v>358583000</v>
+        <v>341792000</v>
       </c>
       <c r="K42" s="3">
         <v>311254000</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25953400</v>
+        <v>24738100</v>
       </c>
       <c r="E47" s="3">
-        <v>28468600</v>
+        <v>27135500</v>
       </c>
       <c r="F47" s="3">
-        <v>26620400</v>
+        <v>25373800</v>
       </c>
       <c r="G47" s="3">
-        <v>26478200</v>
+        <v>25238400</v>
       </c>
       <c r="H47" s="3">
-        <v>24883100</v>
+        <v>23717900</v>
       </c>
       <c r="I47" s="3">
-        <v>23272900</v>
+        <v>22183100</v>
       </c>
       <c r="J47" s="3">
-        <v>20565600</v>
+        <v>19602600</v>
       </c>
       <c r="K47" s="3">
         <v>16095600</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12683200</v>
+        <v>12089300</v>
       </c>
       <c r="E48" s="3">
-        <v>12838700</v>
+        <v>12237500</v>
       </c>
       <c r="F48" s="3">
-        <v>13165500</v>
+        <v>12549000</v>
       </c>
       <c r="G48" s="3">
-        <v>13059100</v>
+        <v>12447600</v>
       </c>
       <c r="H48" s="3">
-        <v>13089200</v>
+        <v>12476300</v>
       </c>
       <c r="I48" s="3">
-        <v>12999700</v>
+        <v>12391000</v>
       </c>
       <c r="J48" s="3">
-        <v>14799700</v>
+        <v>14106700</v>
       </c>
       <c r="K48" s="3">
         <v>12768600</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14399700</v>
+        <v>13725400</v>
       </c>
       <c r="E49" s="3">
-        <v>10922100</v>
+        <v>10410600</v>
       </c>
       <c r="F49" s="3">
-        <v>11980600</v>
+        <v>11419600</v>
       </c>
       <c r="G49" s="3">
-        <v>12088200</v>
+        <v>11522100</v>
       </c>
       <c r="H49" s="3">
-        <v>12057900</v>
+        <v>11493300</v>
       </c>
       <c r="I49" s="3">
-        <v>12466800</v>
+        <v>11883100</v>
       </c>
       <c r="J49" s="3">
-        <v>14255000</v>
+        <v>13587500</v>
       </c>
       <c r="K49" s="3">
         <v>9920800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8069700</v>
+        <v>7691900</v>
       </c>
       <c r="E52" s="3">
-        <v>8922500</v>
+        <v>8504700</v>
       </c>
       <c r="F52" s="3">
-        <v>9257100</v>
+        <v>8823600</v>
       </c>
       <c r="G52" s="3">
-        <v>6992300</v>
+        <v>6664900</v>
       </c>
       <c r="H52" s="3">
-        <v>4840500</v>
+        <v>4613800</v>
       </c>
       <c r="I52" s="3">
-        <v>5955100</v>
+        <v>5676300</v>
       </c>
       <c r="J52" s="3">
-        <v>5684200</v>
+        <v>5418000</v>
       </c>
       <c r="K52" s="3">
         <v>870900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3234450000</v>
+        <v>3082990000</v>
       </c>
       <c r="E54" s="3">
-        <v>2990040000</v>
+        <v>2850030000</v>
       </c>
       <c r="F54" s="3">
-        <v>2949670000</v>
+        <v>2811550000</v>
       </c>
       <c r="G54" s="3">
-        <v>2914690000</v>
+        <v>2778200000</v>
       </c>
       <c r="H54" s="3">
-        <v>2866690000</v>
+        <v>2732450000</v>
       </c>
       <c r="I54" s="3">
-        <v>2749900000</v>
+        <v>2621130000</v>
       </c>
       <c r="J54" s="3">
-        <v>2480650000</v>
+        <v>2364490000</v>
       </c>
       <c r="K54" s="3">
         <v>2131590000</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1080300</v>
+        <v>1029700</v>
       </c>
       <c r="E59" s="3">
-        <v>768100</v>
+        <v>732100</v>
       </c>
       <c r="F59" s="3">
-        <v>838000</v>
+        <v>798800</v>
       </c>
       <c r="G59" s="3">
-        <v>784300</v>
+        <v>747500</v>
       </c>
       <c r="H59" s="3">
-        <v>870800</v>
+        <v>830000</v>
       </c>
       <c r="I59" s="3">
-        <v>872700</v>
+        <v>831900</v>
       </c>
       <c r="J59" s="3">
-        <v>765100</v>
+        <v>729300</v>
       </c>
       <c r="K59" s="3">
         <v>578100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>366295000</v>
+        <v>349143000</v>
       </c>
       <c r="E61" s="3">
-        <v>273384000</v>
+        <v>260582000</v>
       </c>
       <c r="F61" s="3">
-        <v>260486000</v>
+        <v>248289000</v>
       </c>
       <c r="G61" s="3">
-        <v>258171000</v>
+        <v>246081000</v>
       </c>
       <c r="H61" s="3">
-        <v>208276000</v>
+        <v>198523000</v>
       </c>
       <c r="I61" s="3">
-        <v>211496000</v>
+        <v>201592000</v>
       </c>
       <c r="J61" s="3">
-        <v>172924000</v>
+        <v>164827000</v>
       </c>
       <c r="K61" s="3">
         <v>153373000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11553100</v>
+        <v>11012200</v>
       </c>
       <c r="E62" s="3">
-        <v>12518900</v>
+        <v>11932700</v>
       </c>
       <c r="F62" s="3">
-        <v>13424300</v>
+        <v>12795700</v>
       </c>
       <c r="G62" s="3">
-        <v>12932800</v>
+        <v>12327200</v>
       </c>
       <c r="H62" s="3">
-        <v>12380000</v>
+        <v>11800300</v>
       </c>
       <c r="I62" s="3">
-        <v>13592000</v>
+        <v>12955600</v>
       </c>
       <c r="J62" s="3">
-        <v>7607600</v>
+        <v>7251400</v>
       </c>
       <c r="K62" s="3">
         <v>6642600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3080780000</v>
+        <v>2936520000</v>
       </c>
       <c r="E66" s="3">
-        <v>2834560000</v>
+        <v>2701830000</v>
       </c>
       <c r="F66" s="3">
-        <v>2795670000</v>
+        <v>2664760000</v>
       </c>
       <c r="G66" s="3">
-        <v>2767840000</v>
+        <v>2638230000</v>
       </c>
       <c r="H66" s="3">
-        <v>2718060000</v>
+        <v>2590780000</v>
       </c>
       <c r="I66" s="3">
-        <v>2602610000</v>
+        <v>2480740000</v>
       </c>
       <c r="J66" s="3">
-        <v>2355100000</v>
+        <v>2244820000</v>
       </c>
       <c r="K66" s="3">
         <v>2024830000</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>3747900</v>
+        <v>3572400</v>
       </c>
       <c r="K70" s="3">
         <v>3545100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>104325000</v>
+        <v>99439700</v>
       </c>
       <c r="E72" s="3">
-        <v>102259000</v>
+        <v>97470400</v>
       </c>
       <c r="F72" s="3">
-        <v>96723900</v>
+        <v>92194700</v>
       </c>
       <c r="G72" s="3">
-        <v>89170700</v>
+        <v>84995200</v>
       </c>
       <c r="H72" s="3">
-        <v>82606000</v>
+        <v>78737900</v>
       </c>
       <c r="I72" s="3">
-        <v>75618000</v>
+        <v>72077100</v>
       </c>
       <c r="J72" s="3">
-        <v>67672200</v>
+        <v>64503400</v>
       </c>
       <c r="K72" s="3">
         <v>57056700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153673000</v>
+        <v>146477000</v>
       </c>
       <c r="E76" s="3">
-        <v>155485000</v>
+        <v>148204000</v>
       </c>
       <c r="F76" s="3">
-        <v>153999000</v>
+        <v>146788000</v>
       </c>
       <c r="G76" s="3">
-        <v>146847000</v>
+        <v>139971000</v>
       </c>
       <c r="H76" s="3">
-        <v>148631000</v>
+        <v>141671000</v>
       </c>
       <c r="I76" s="3">
-        <v>147285000</v>
+        <v>140388000</v>
       </c>
       <c r="J76" s="3">
-        <v>121805000</v>
+        <v>116101000</v>
       </c>
       <c r="K76" s="3">
         <v>103222000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5075500</v>
+        <v>4837900</v>
       </c>
       <c r="E81" s="3">
-        <v>8386500</v>
+        <v>7993800</v>
       </c>
       <c r="F81" s="3">
-        <v>9510700</v>
+        <v>9065300</v>
       </c>
       <c r="G81" s="3">
-        <v>8903100</v>
+        <v>8486200</v>
       </c>
       <c r="H81" s="3">
-        <v>9143000</v>
+        <v>8714800</v>
       </c>
       <c r="I81" s="3">
-        <v>9934400</v>
+        <v>9469200</v>
       </c>
       <c r="J81" s="3">
-        <v>9292000</v>
+        <v>8856800</v>
       </c>
       <c r="K81" s="3">
         <v>7587300</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6758600</v>
+        <v>6442100</v>
       </c>
       <c r="E83" s="3">
-        <v>3269300</v>
+        <v>3116200</v>
       </c>
       <c r="F83" s="3">
-        <v>3256000</v>
+        <v>3103500</v>
       </c>
       <c r="G83" s="3">
-        <v>3201600</v>
+        <v>3051600</v>
       </c>
       <c r="H83" s="3">
-        <v>3031600</v>
+        <v>2889600</v>
       </c>
       <c r="I83" s="3">
-        <v>3055500</v>
+        <v>2912400</v>
       </c>
       <c r="J83" s="3">
-        <v>2795300</v>
+        <v>2664400</v>
       </c>
       <c r="K83" s="3">
         <v>2496400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>77464700</v>
+        <v>73837300</v>
       </c>
       <c r="E89" s="3">
-        <v>53905400</v>
+        <v>51381200</v>
       </c>
       <c r="F89" s="3">
-        <v>118306600</v>
+        <v>112766700</v>
       </c>
       <c r="G89" s="3">
-        <v>67395500</v>
+        <v>64239700</v>
       </c>
       <c r="H89" s="3">
-        <v>64910000</v>
+        <v>61870600</v>
       </c>
       <c r="I89" s="3">
-        <v>-20140100</v>
+        <v>-19197100</v>
       </c>
       <c r="J89" s="3">
-        <v>-39265400</v>
+        <v>-37426700</v>
       </c>
       <c r="K89" s="3">
         <v>-2260500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1222200</v>
+        <v>-1164900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1368400</v>
+        <v>-1304300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1535800</v>
+        <v>-1463900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1169900</v>
+        <v>-1115100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1123700</v>
+        <v>-1071100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1694900</v>
+        <v>-1615500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1454600</v>
+        <v>-1386500</v>
       </c>
       <c r="K91" s="3">
         <v>-1192600</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32370700</v>
+        <v>-30854900</v>
       </c>
       <c r="E94" s="3">
-        <v>-54080700</v>
+        <v>-51548300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5438100</v>
+        <v>-5183400</v>
       </c>
       <c r="G94" s="3">
-        <v>85601500</v>
+        <v>81593100</v>
       </c>
       <c r="H94" s="3">
-        <v>21528400</v>
+        <v>20520300</v>
       </c>
       <c r="I94" s="3">
-        <v>62481200</v>
+        <v>59555500</v>
       </c>
       <c r="J94" s="3">
-        <v>57673500</v>
+        <v>54972800</v>
       </c>
       <c r="K94" s="3">
         <v>17139100</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2926600</v>
+        <v>-2789500</v>
       </c>
       <c r="E96" s="3">
-        <v>-2655000</v>
+        <v>-2530700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2316700</v>
+        <v>-2208200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2369500</v>
+        <v>-2258500</v>
       </c>
       <c r="H96" s="3">
-        <v>-2416900</v>
+        <v>-2303700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2536800</v>
+        <v>-2418000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2076800</v>
+        <v>-1979500</v>
       </c>
       <c r="K96" s="3">
         <v>-1705500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2418500</v>
+        <v>-2305200</v>
       </c>
       <c r="E100" s="3">
-        <v>-4654700</v>
+        <v>-4436700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2792100</v>
+        <v>-2661300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6444400</v>
+        <v>-6142600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1014800</v>
+        <v>-967300</v>
       </c>
       <c r="I100" s="3">
-        <v>-11115100</v>
+        <v>-10594600</v>
       </c>
       <c r="J100" s="3">
-        <v>-9678100</v>
+        <v>-9224900</v>
       </c>
       <c r="K100" s="3">
         <v>-9365400</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2998200</v>
+        <v>-2857800</v>
       </c>
       <c r="E101" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="F101" s="3">
-        <v>-2562200</v>
+        <v>-2442200</v>
       </c>
       <c r="G101" s="3">
-        <v>-437100</v>
+        <v>-416700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1107200</v>
+        <v>-1055400</v>
       </c>
       <c r="I101" s="3">
-        <v>2429400</v>
+        <v>2315600</v>
       </c>
       <c r="J101" s="3">
-        <v>2868100</v>
+        <v>2733800</v>
       </c>
       <c r="K101" s="3">
         <v>1706900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39677200</v>
+        <v>37819200</v>
       </c>
       <c r="E102" s="3">
-        <v>-4870300</v>
+        <v>-4642200</v>
       </c>
       <c r="F102" s="3">
-        <v>107514300</v>
+        <v>102479800</v>
       </c>
       <c r="G102" s="3">
-        <v>146115600</v>
+        <v>139273500</v>
       </c>
       <c r="H102" s="3">
-        <v>84316400</v>
+        <v>80368200</v>
       </c>
       <c r="I102" s="3">
-        <v>33655300</v>
+        <v>32079400</v>
       </c>
       <c r="J102" s="3">
-        <v>11598100</v>
+        <v>11055000</v>
       </c>
       <c r="K102" s="3">
         <v>7220100</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43555</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42825</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42094</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41729</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41364</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40999</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>35186300</v>
+        <v>24617200</v>
       </c>
       <c r="E8" s="3">
-        <v>34187000</v>
+        <v>35301600</v>
       </c>
       <c r="F8" s="3">
-        <v>28350100</v>
+        <v>34299000</v>
       </c>
       <c r="G8" s="3">
-        <v>26455300</v>
+        <v>28443000</v>
       </c>
       <c r="H8" s="3">
-        <v>25366300</v>
+        <v>26542000</v>
       </c>
       <c r="I8" s="3">
-        <v>25705200</v>
+        <v>25449400</v>
       </c>
       <c r="J8" s="3">
+        <v>25789300</v>
+      </c>
+      <c r="K8" s="3">
         <v>21715200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21242900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23467400</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,17 +942,20 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>-3145300</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-3155600</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -950,15 +972,18 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>-2775300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19808700</v>
+        <v>9958800</v>
       </c>
       <c r="E17" s="3">
-        <v>17242800</v>
+        <v>19873600</v>
       </c>
       <c r="F17" s="3">
-        <v>11086700</v>
+        <v>17299300</v>
       </c>
       <c r="G17" s="3">
-        <v>8848100</v>
+        <v>11123000</v>
       </c>
       <c r="H17" s="3">
-        <v>7985000</v>
+        <v>8877100</v>
       </c>
       <c r="I17" s="3">
-        <v>7024500</v>
+        <v>8011200</v>
       </c>
       <c r="J17" s="3">
+        <v>7047500</v>
+      </c>
+      <c r="K17" s="3">
         <v>4326800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5693900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7810100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15377600</v>
+        <v>14658400</v>
       </c>
       <c r="E18" s="3">
-        <v>16944200</v>
+        <v>15428000</v>
       </c>
       <c r="F18" s="3">
-        <v>17263500</v>
+        <v>16999700</v>
       </c>
       <c r="G18" s="3">
-        <v>17607200</v>
+        <v>17320000</v>
       </c>
       <c r="H18" s="3">
-        <v>17381300</v>
+        <v>17664900</v>
       </c>
       <c r="I18" s="3">
-        <v>18680700</v>
+        <v>17438200</v>
       </c>
       <c r="J18" s="3">
+        <v>18741900</v>
+      </c>
+      <c r="K18" s="3">
         <v>17388300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15549100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15657400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-7779900</v>
+        <v>-5082100</v>
       </c>
       <c r="E20" s="3">
-        <v>-6453000</v>
+        <v>-7805400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4353600</v>
+        <v>-6474100</v>
       </c>
       <c r="G20" s="3">
-        <v>-5669600</v>
+        <v>-4367800</v>
       </c>
       <c r="H20" s="3">
-        <v>-3652600</v>
+        <v>-5688200</v>
       </c>
       <c r="I20" s="3">
-        <v>-3889500</v>
+        <v>-3664600</v>
       </c>
       <c r="J20" s="3">
+        <v>-3902200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3254200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3243100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7973900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>14068000</v>
+        <v>12846500</v>
       </c>
       <c r="E21" s="3">
-        <v>13621000</v>
+        <v>14092900</v>
       </c>
       <c r="F21" s="3">
-        <v>16026900</v>
+        <v>13655400</v>
       </c>
       <c r="G21" s="3">
-        <v>15002500</v>
+        <v>16069200</v>
       </c>
       <c r="H21" s="3">
-        <v>16630900</v>
+        <v>15041600</v>
       </c>
       <c r="I21" s="3">
-        <v>17716300</v>
+        <v>16675900</v>
       </c>
       <c r="J21" s="3">
+        <v>17764800</v>
+      </c>
+      <c r="K21" s="3">
         <v>16810200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14807800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10461900</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>7597700</v>
+        <v>9576300</v>
       </c>
       <c r="E23" s="3">
-        <v>10491200</v>
+        <v>7622600</v>
       </c>
       <c r="F23" s="3">
-        <v>12909900</v>
+        <v>10525600</v>
       </c>
       <c r="G23" s="3">
-        <v>11937600</v>
+        <v>12952200</v>
       </c>
       <c r="H23" s="3">
-        <v>13728700</v>
+        <v>11976700</v>
       </c>
       <c r="I23" s="3">
-        <v>14791200</v>
+        <v>13773700</v>
       </c>
       <c r="J23" s="3">
+        <v>14839600</v>
+      </c>
+      <c r="K23" s="3">
         <v>14134200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12305900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7683500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2023400</v>
+        <v>1700800</v>
       </c>
       <c r="E24" s="3">
-        <v>1791400</v>
+        <v>2030100</v>
       </c>
       <c r="F24" s="3">
-        <v>2871100</v>
+        <v>1797300</v>
       </c>
       <c r="G24" s="3">
-        <v>3134300</v>
+        <v>2880500</v>
       </c>
       <c r="H24" s="3">
-        <v>4215500</v>
+        <v>3144600</v>
       </c>
       <c r="I24" s="3">
-        <v>4284900</v>
+        <v>4229300</v>
       </c>
       <c r="J24" s="3">
+        <v>4299000</v>
+      </c>
+      <c r="K24" s="3">
         <v>4030300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3597700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3879900</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>5574300</v>
+        <v>7875500</v>
       </c>
       <c r="E26" s="3">
-        <v>8699800</v>
+        <v>5592500</v>
       </c>
       <c r="F26" s="3">
-        <v>10038800</v>
+        <v>8728300</v>
       </c>
       <c r="G26" s="3">
-        <v>8803200</v>
+        <v>10071700</v>
       </c>
       <c r="H26" s="3">
-        <v>9513300</v>
+        <v>8832100</v>
       </c>
       <c r="I26" s="3">
-        <v>10506300</v>
+        <v>9544400</v>
       </c>
       <c r="J26" s="3">
+        <v>10540700</v>
+      </c>
+      <c r="K26" s="3">
         <v>10103900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8708200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3803600</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>4837900</v>
+        <v>7140800</v>
       </c>
       <c r="E27" s="3">
-        <v>7993800</v>
+        <v>4853700</v>
       </c>
       <c r="F27" s="3">
-        <v>9065300</v>
+        <v>8020000</v>
       </c>
       <c r="G27" s="3">
-        <v>8486200</v>
+        <v>9095000</v>
       </c>
       <c r="H27" s="3">
-        <v>8714800</v>
+        <v>8514000</v>
       </c>
       <c r="I27" s="3">
-        <v>9469200</v>
+        <v>8743400</v>
       </c>
       <c r="J27" s="3">
+        <v>9500200</v>
+      </c>
+      <c r="K27" s="3">
         <v>8856800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7587300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3600600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>7779900</v>
+        <v>5082100</v>
       </c>
       <c r="E32" s="3">
-        <v>6453000</v>
+        <v>7805400</v>
       </c>
       <c r="F32" s="3">
-        <v>4353600</v>
+        <v>6474100</v>
       </c>
       <c r="G32" s="3">
-        <v>5669600</v>
+        <v>4367800</v>
       </c>
       <c r="H32" s="3">
-        <v>3652600</v>
+        <v>5688200</v>
       </c>
       <c r="I32" s="3">
-        <v>3889500</v>
+        <v>3664600</v>
       </c>
       <c r="J32" s="3">
+        <v>3902200</v>
+      </c>
+      <c r="K32" s="3">
         <v>3254200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3243100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7973900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>4837900</v>
+        <v>7140800</v>
       </c>
       <c r="E33" s="3">
-        <v>7993800</v>
+        <v>4853700</v>
       </c>
       <c r="F33" s="3">
-        <v>9065300</v>
+        <v>8020000</v>
       </c>
       <c r="G33" s="3">
-        <v>8486200</v>
+        <v>9095000</v>
       </c>
       <c r="H33" s="3">
-        <v>8714800</v>
+        <v>8514000</v>
       </c>
       <c r="I33" s="3">
-        <v>9469200</v>
+        <v>8743400</v>
       </c>
       <c r="J33" s="3">
+        <v>9500200</v>
+      </c>
+      <c r="K33" s="3">
         <v>8856800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7587300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3600600</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>4837900</v>
+        <v>7140800</v>
       </c>
       <c r="E35" s="3">
-        <v>7993800</v>
+        <v>4853700</v>
       </c>
       <c r="F35" s="3">
-        <v>9065300</v>
+        <v>8020000</v>
       </c>
       <c r="G35" s="3">
-        <v>8486200</v>
+        <v>9095000</v>
       </c>
       <c r="H35" s="3">
-        <v>8714800</v>
+        <v>8514000</v>
       </c>
       <c r="I35" s="3">
-        <v>9469200</v>
+        <v>8743400</v>
       </c>
       <c r="J35" s="3">
+        <v>9500200</v>
+      </c>
+      <c r="K35" s="3">
         <v>8856800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7587300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3600600</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43555</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42825</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42094</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41729</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41364</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40999</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>717554000</v>
+        <v>946393000</v>
       </c>
       <c r="E41" s="3">
-        <v>679735000</v>
+        <v>719905000</v>
       </c>
       <c r="F41" s="3">
-        <v>684377000</v>
+        <v>681961000</v>
       </c>
       <c r="G41" s="3">
-        <v>581898000</v>
+        <v>686619000</v>
       </c>
       <c r="H41" s="3">
-        <v>450290000</v>
+        <v>583803000</v>
       </c>
       <c r="I41" s="3">
-        <v>370873000</v>
+        <v>451765000</v>
       </c>
       <c r="J41" s="3">
+        <v>372088000</v>
+      </c>
+      <c r="K41" s="3">
         <v>219564000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>104153000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>82518400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>520944000</v>
+        <v>427501000</v>
       </c>
       <c r="E42" s="3">
-        <v>362506000</v>
+        <v>522650000</v>
       </c>
       <c r="F42" s="3">
-        <v>361036000</v>
+        <v>363694000</v>
       </c>
       <c r="G42" s="3">
-        <v>435619000</v>
+        <v>362219000</v>
       </c>
       <c r="H42" s="3">
-        <v>376987000</v>
+        <v>437045000</v>
       </c>
       <c r="I42" s="3">
-        <v>367766000</v>
+        <v>378222000</v>
       </c>
       <c r="J42" s="3">
+        <v>368971000</v>
+      </c>
+      <c r="K42" s="3">
         <v>341792000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>311254000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>398474000</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>24738100</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>27135500</v>
+        <v>24819100</v>
       </c>
       <c r="F47" s="3">
-        <v>25373800</v>
+        <v>27224400</v>
       </c>
       <c r="G47" s="3">
-        <v>25238400</v>
+        <v>25456900</v>
       </c>
       <c r="H47" s="3">
-        <v>23717900</v>
+        <v>25321000</v>
       </c>
       <c r="I47" s="3">
-        <v>22183100</v>
+        <v>23795600</v>
       </c>
       <c r="J47" s="3">
+        <v>22255700</v>
+      </c>
+      <c r="K47" s="3">
         <v>19602600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16095600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10221000</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12089300</v>
+        <v>11913900</v>
       </c>
       <c r="E48" s="3">
-        <v>12237500</v>
+        <v>12128900</v>
       </c>
       <c r="F48" s="3">
-        <v>12549000</v>
+        <v>12277600</v>
       </c>
       <c r="G48" s="3">
-        <v>12447600</v>
+        <v>12590100</v>
       </c>
       <c r="H48" s="3">
-        <v>12476300</v>
+        <v>12488300</v>
       </c>
       <c r="I48" s="3">
-        <v>12391000</v>
+        <v>12517200</v>
       </c>
       <c r="J48" s="3">
+        <v>12431600</v>
+      </c>
+      <c r="K48" s="3">
         <v>14106700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12768600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>8926800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13725400</v>
+        <v>13197700</v>
       </c>
       <c r="E49" s="3">
-        <v>10410600</v>
+        <v>13770400</v>
       </c>
       <c r="F49" s="3">
-        <v>11419600</v>
+        <v>10444700</v>
       </c>
       <c r="G49" s="3">
-        <v>11522100</v>
+        <v>11457000</v>
       </c>
       <c r="H49" s="3">
-        <v>11493300</v>
+        <v>11559900</v>
       </c>
       <c r="I49" s="3">
-        <v>11883100</v>
+        <v>11530900</v>
       </c>
       <c r="J49" s="3">
+        <v>11922000</v>
+      </c>
+      <c r="K49" s="3">
         <v>13587500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9920800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11306900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7691900</v>
+        <v>12393300</v>
       </c>
       <c r="E52" s="3">
-        <v>8504700</v>
+        <v>7717000</v>
       </c>
       <c r="F52" s="3">
-        <v>8823600</v>
+        <v>8532500</v>
       </c>
       <c r="G52" s="3">
-        <v>6664900</v>
+        <v>8852500</v>
       </c>
       <c r="H52" s="3">
-        <v>4613800</v>
+        <v>6686700</v>
       </c>
       <c r="I52" s="3">
-        <v>5676300</v>
+        <v>4628900</v>
       </c>
       <c r="J52" s="3">
+        <v>5694900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5418000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>870900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>9184500</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3082990000</v>
+        <v>3303560000</v>
       </c>
       <c r="E54" s="3">
-        <v>2850030000</v>
+        <v>3093090000</v>
       </c>
       <c r="F54" s="3">
-        <v>2811550000</v>
+        <v>2859370000</v>
       </c>
       <c r="G54" s="3">
-        <v>2778200000</v>
+        <v>2820750000</v>
       </c>
       <c r="H54" s="3">
-        <v>2732450000</v>
+        <v>2787300000</v>
       </c>
       <c r="I54" s="3">
-        <v>2621130000</v>
+        <v>2741400000</v>
       </c>
       <c r="J54" s="3">
+        <v>2629720000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2364490000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2131590000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1945430000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,8 +2267,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2168,11 +2298,14 @@
         <v>0</v>
       </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>18539300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2203,42 +2336,48 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1029700</v>
+        <v>1104400</v>
       </c>
       <c r="E59" s="3">
-        <v>732100</v>
+        <v>1033000</v>
       </c>
       <c r="F59" s="3">
-        <v>798800</v>
+        <v>734500</v>
       </c>
       <c r="G59" s="3">
-        <v>747500</v>
+        <v>801400</v>
       </c>
       <c r="H59" s="3">
-        <v>830000</v>
+        <v>750000</v>
       </c>
       <c r="I59" s="3">
-        <v>831900</v>
+        <v>832800</v>
       </c>
       <c r="J59" s="3">
+        <v>834600</v>
+      </c>
+      <c r="K59" s="3">
         <v>729300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>578100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>19594900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>349143000</v>
+        <v>404534000</v>
       </c>
       <c r="E61" s="3">
-        <v>260582000</v>
+        <v>350287000</v>
       </c>
       <c r="F61" s="3">
-        <v>248289000</v>
+        <v>261436000</v>
       </c>
       <c r="G61" s="3">
-        <v>246081000</v>
+        <v>249102000</v>
       </c>
       <c r="H61" s="3">
-        <v>198523000</v>
+        <v>246887000</v>
       </c>
       <c r="I61" s="3">
-        <v>201592000</v>
+        <v>199173000</v>
       </c>
       <c r="J61" s="3">
+        <v>202253000</v>
+      </c>
+      <c r="K61" s="3">
         <v>164827000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>153373000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>113841000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11012200</v>
+        <v>13029000</v>
       </c>
       <c r="E62" s="3">
-        <v>11932700</v>
+        <v>11048200</v>
       </c>
       <c r="F62" s="3">
-        <v>12795700</v>
+        <v>11971800</v>
       </c>
       <c r="G62" s="3">
-        <v>12327200</v>
+        <v>12837600</v>
       </c>
       <c r="H62" s="3">
-        <v>11800300</v>
+        <v>12367500</v>
       </c>
       <c r="I62" s="3">
-        <v>12955600</v>
+        <v>11839000</v>
       </c>
       <c r="J62" s="3">
+        <v>12998000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7251400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6642600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>370800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2936520000</v>
+        <v>3149150000</v>
       </c>
       <c r="E66" s="3">
-        <v>2701830000</v>
+        <v>2946130000</v>
       </c>
       <c r="F66" s="3">
-        <v>2664760000</v>
+        <v>2710680000</v>
       </c>
       <c r="G66" s="3">
-        <v>2638230000</v>
+        <v>2673490000</v>
       </c>
       <c r="H66" s="3">
-        <v>2590780000</v>
+        <v>2646870000</v>
       </c>
       <c r="I66" s="3">
-        <v>2480740000</v>
+        <v>2599270000</v>
       </c>
       <c r="J66" s="3">
+        <v>2488870000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2244820000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2024830000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1867840000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2573,17 +2740,20 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>3572400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3545100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3996600</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>99439700</v>
+        <v>102929000</v>
       </c>
       <c r="E72" s="3">
-        <v>97470400</v>
+        <v>99765300</v>
       </c>
       <c r="F72" s="3">
-        <v>92194700</v>
+        <v>97789600</v>
       </c>
       <c r="G72" s="3">
-        <v>84995200</v>
+        <v>92496600</v>
       </c>
       <c r="H72" s="3">
-        <v>78737900</v>
+        <v>85273600</v>
       </c>
       <c r="I72" s="3">
-        <v>72077100</v>
+        <v>78995800</v>
       </c>
       <c r="J72" s="3">
+        <v>72313200</v>
+      </c>
+      <c r="K72" s="3">
         <v>64503400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>57056700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6527800</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>146477000</v>
+        <v>154416000</v>
       </c>
       <c r="E76" s="3">
-        <v>148204000</v>
+        <v>146956000</v>
       </c>
       <c r="F76" s="3">
-        <v>146788000</v>
+        <v>148690000</v>
       </c>
       <c r="G76" s="3">
-        <v>139971000</v>
+        <v>147269000</v>
       </c>
       <c r="H76" s="3">
-        <v>141671000</v>
+        <v>140429000</v>
       </c>
       <c r="I76" s="3">
-        <v>140388000</v>
+        <v>142135000</v>
       </c>
       <c r="J76" s="3">
+        <v>140848000</v>
+      </c>
+      <c r="K76" s="3">
         <v>116101000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>103222000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73595100</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43555</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42825</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42094</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41729</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41364</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40999</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>4837900</v>
+        <v>7140800</v>
       </c>
       <c r="E81" s="3">
-        <v>7993800</v>
+        <v>4853700</v>
       </c>
       <c r="F81" s="3">
-        <v>9065300</v>
+        <v>8020000</v>
       </c>
       <c r="G81" s="3">
-        <v>8486200</v>
+        <v>9095000</v>
       </c>
       <c r="H81" s="3">
-        <v>8714800</v>
+        <v>8514000</v>
       </c>
       <c r="I81" s="3">
-        <v>9469200</v>
+        <v>8743400</v>
       </c>
       <c r="J81" s="3">
+        <v>9500200</v>
+      </c>
+      <c r="K81" s="3">
         <v>8856800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7587300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3600600</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6442100</v>
+        <v>3266600</v>
       </c>
       <c r="E83" s="3">
-        <v>3116200</v>
+        <v>6463200</v>
       </c>
       <c r="F83" s="3">
-        <v>3103500</v>
+        <v>3126400</v>
       </c>
       <c r="G83" s="3">
-        <v>3051600</v>
+        <v>3113700</v>
       </c>
       <c r="H83" s="3">
-        <v>2889600</v>
+        <v>3061600</v>
       </c>
       <c r="I83" s="3">
-        <v>2912400</v>
+        <v>2899100</v>
       </c>
       <c r="J83" s="3">
+        <v>2922000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2664400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2496400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2775300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>73837300</v>
+        <v>320776500</v>
       </c>
       <c r="E89" s="3">
-        <v>51381200</v>
+        <v>74079100</v>
       </c>
       <c r="F89" s="3">
-        <v>112766700</v>
+        <v>51549500</v>
       </c>
       <c r="G89" s="3">
-        <v>64239700</v>
+        <v>113136000</v>
       </c>
       <c r="H89" s="3">
-        <v>61870600</v>
+        <v>64450100</v>
       </c>
       <c r="I89" s="3">
-        <v>-19197100</v>
+        <v>62073200</v>
       </c>
       <c r="J89" s="3">
+        <v>-19259900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-37426700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2260500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5359600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1164900</v>
+        <v>-1228400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1304300</v>
+        <v>-1168700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1463900</v>
+        <v>-1308600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1115100</v>
+        <v>-1468700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1071100</v>
+        <v>-1118700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1615500</v>
+        <v>-1074600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1620800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1386500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1192600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1185900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30854900</v>
+        <v>-93189800</v>
       </c>
       <c r="E94" s="3">
-        <v>-51548300</v>
+        <v>-30956000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5183400</v>
+        <v>-51717100</v>
       </c>
       <c r="G94" s="3">
-        <v>81593100</v>
+        <v>-5200400</v>
       </c>
       <c r="H94" s="3">
-        <v>20520300</v>
+        <v>81860400</v>
       </c>
       <c r="I94" s="3">
-        <v>59555500</v>
+        <v>20587500</v>
       </c>
       <c r="J94" s="3">
+        <v>59750500</v>
+      </c>
+      <c r="K94" s="3">
         <v>54972800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>17139100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93692800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2789500</v>
+        <v>-2957100</v>
       </c>
       <c r="E96" s="3">
-        <v>-2530700</v>
+        <v>-2798700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2208200</v>
+        <v>-2539000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2258500</v>
+        <v>-2215400</v>
       </c>
       <c r="H96" s="3">
-        <v>-2303700</v>
+        <v>-2265900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2418000</v>
+        <v>-2311300</v>
       </c>
       <c r="J96" s="3">
+        <v>-2426000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1979500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1705500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1844200</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2305200</v>
+        <v>-4007500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4436700</v>
+        <v>-2312800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2661300</v>
+        <v>-4451300</v>
       </c>
       <c r="G100" s="3">
-        <v>-6142600</v>
+        <v>-2670000</v>
       </c>
       <c r="H100" s="3">
-        <v>-967300</v>
+        <v>-6162700</v>
       </c>
       <c r="I100" s="3">
-        <v>-10594600</v>
+        <v>-970500</v>
       </c>
       <c r="J100" s="3">
+        <v>-10629300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9224900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9365400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>88482200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2857800</v>
+        <v>2909000</v>
       </c>
       <c r="E101" s="3">
-        <v>-38400</v>
+        <v>-2867200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2442200</v>
+        <v>-38500</v>
       </c>
       <c r="G101" s="3">
-        <v>-416700</v>
+        <v>-2450200</v>
       </c>
       <c r="H101" s="3">
-        <v>-1055400</v>
+        <v>-418000</v>
       </c>
       <c r="I101" s="3">
-        <v>2315600</v>
+        <v>-1058800</v>
       </c>
       <c r="J101" s="3">
+        <v>2323200</v>
+      </c>
+      <c r="K101" s="3">
         <v>2733800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1706900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-152600</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37819200</v>
+        <v>226488200</v>
       </c>
       <c r="E102" s="3">
-        <v>-4642200</v>
+        <v>37943100</v>
       </c>
       <c r="F102" s="3">
-        <v>102479800</v>
+        <v>-4657400</v>
       </c>
       <c r="G102" s="3">
-        <v>139273500</v>
+        <v>102815400</v>
       </c>
       <c r="H102" s="3">
-        <v>80368200</v>
+        <v>139729700</v>
       </c>
       <c r="I102" s="3">
-        <v>32079400</v>
+        <v>80631400</v>
       </c>
       <c r="J102" s="3">
+        <v>32184500</v>
+      </c>
+      <c r="K102" s="3">
         <v>11055000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7220100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24617200</v>
+        <v>24402900</v>
       </c>
       <c r="E8" s="3">
-        <v>35301600</v>
+        <v>34994300</v>
       </c>
       <c r="F8" s="3">
-        <v>34299000</v>
+        <v>34000400</v>
       </c>
       <c r="G8" s="3">
-        <v>28443000</v>
+        <v>28195400</v>
       </c>
       <c r="H8" s="3">
-        <v>26542000</v>
+        <v>26310900</v>
       </c>
       <c r="I8" s="3">
-        <v>25449400</v>
+        <v>25227900</v>
       </c>
       <c r="J8" s="3">
-        <v>25789300</v>
+        <v>25564800</v>
       </c>
       <c r="K8" s="3">
         <v>21715200</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-3155600</v>
+        <v>-3128100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9958800</v>
+        <v>11592500</v>
       </c>
       <c r="E17" s="3">
-        <v>19873600</v>
+        <v>19700600</v>
       </c>
       <c r="F17" s="3">
-        <v>17299300</v>
+        <v>17148700</v>
       </c>
       <c r="G17" s="3">
-        <v>11123000</v>
+        <v>11026200</v>
       </c>
       <c r="H17" s="3">
-        <v>8877100</v>
+        <v>8799900</v>
       </c>
       <c r="I17" s="3">
-        <v>8011200</v>
+        <v>7941400</v>
       </c>
       <c r="J17" s="3">
-        <v>7047500</v>
+        <v>6986100</v>
       </c>
       <c r="K17" s="3">
         <v>4326800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>14658400</v>
+        <v>12810400</v>
       </c>
       <c r="E18" s="3">
-        <v>15428000</v>
+        <v>15293700</v>
       </c>
       <c r="F18" s="3">
-        <v>16999700</v>
+        <v>16851700</v>
       </c>
       <c r="G18" s="3">
-        <v>17320000</v>
+        <v>17169200</v>
       </c>
       <c r="H18" s="3">
-        <v>17664900</v>
+        <v>17511100</v>
       </c>
       <c r="I18" s="3">
-        <v>17438200</v>
+        <v>17286400</v>
       </c>
       <c r="J18" s="3">
-        <v>18741900</v>
+        <v>18578700</v>
       </c>
       <c r="K18" s="3">
         <v>17388300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5082100</v>
+        <v>-3317400</v>
       </c>
       <c r="E20" s="3">
-        <v>-7805400</v>
+        <v>-7737500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6474100</v>
+        <v>-6417700</v>
       </c>
       <c r="G20" s="3">
-        <v>-4367800</v>
+        <v>-4329800</v>
       </c>
       <c r="H20" s="3">
-        <v>-5688200</v>
+        <v>-5638700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3664600</v>
+        <v>-3632700</v>
       </c>
       <c r="J20" s="3">
-        <v>-3902200</v>
+        <v>-3868300</v>
       </c>
       <c r="K20" s="3">
         <v>-3254200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12846500</v>
+        <v>12731100</v>
       </c>
       <c r="E21" s="3">
-        <v>14092900</v>
+        <v>13963200</v>
       </c>
       <c r="F21" s="3">
-        <v>13655400</v>
+        <v>13533200</v>
       </c>
       <c r="G21" s="3">
-        <v>16069200</v>
+        <v>15926000</v>
       </c>
       <c r="H21" s="3">
-        <v>15041600</v>
+        <v>14907400</v>
       </c>
       <c r="I21" s="3">
-        <v>16675900</v>
+        <v>16527600</v>
       </c>
       <c r="J21" s="3">
-        <v>17764800</v>
+        <v>17607000</v>
       </c>
       <c r="K21" s="3">
         <v>16810200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9576300</v>
+        <v>9492900</v>
       </c>
       <c r="E23" s="3">
-        <v>7622600</v>
+        <v>7556200</v>
       </c>
       <c r="F23" s="3">
-        <v>10525600</v>
+        <v>10433900</v>
       </c>
       <c r="G23" s="3">
-        <v>12952200</v>
+        <v>12839400</v>
       </c>
       <c r="H23" s="3">
-        <v>11976700</v>
+        <v>11872400</v>
       </c>
       <c r="I23" s="3">
-        <v>13773700</v>
+        <v>13653800</v>
       </c>
       <c r="J23" s="3">
-        <v>14839600</v>
+        <v>14710400</v>
       </c>
       <c r="K23" s="3">
         <v>14134200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1700800</v>
+        <v>1686000</v>
       </c>
       <c r="E24" s="3">
-        <v>2030100</v>
+        <v>2012400</v>
       </c>
       <c r="F24" s="3">
-        <v>1797300</v>
+        <v>1781600</v>
       </c>
       <c r="G24" s="3">
-        <v>2880500</v>
+        <v>2855400</v>
       </c>
       <c r="H24" s="3">
-        <v>3144600</v>
+        <v>3117200</v>
       </c>
       <c r="I24" s="3">
-        <v>4229300</v>
+        <v>4192500</v>
       </c>
       <c r="J24" s="3">
-        <v>4299000</v>
+        <v>4261500</v>
       </c>
       <c r="K24" s="3">
         <v>4030300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7875500</v>
+        <v>7807000</v>
       </c>
       <c r="E26" s="3">
-        <v>5592500</v>
+        <v>5543800</v>
       </c>
       <c r="F26" s="3">
-        <v>8728300</v>
+        <v>8652300</v>
       </c>
       <c r="G26" s="3">
-        <v>10071700</v>
+        <v>9984000</v>
       </c>
       <c r="H26" s="3">
-        <v>8832100</v>
+        <v>8755200</v>
       </c>
       <c r="I26" s="3">
-        <v>9544400</v>
+        <v>9461300</v>
       </c>
       <c r="J26" s="3">
-        <v>10540700</v>
+        <v>10448900</v>
       </c>
       <c r="K26" s="3">
         <v>10103900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7140800</v>
+        <v>7078600</v>
       </c>
       <c r="E27" s="3">
-        <v>4853700</v>
+        <v>4811500</v>
       </c>
       <c r="F27" s="3">
-        <v>8020000</v>
+        <v>7950200</v>
       </c>
       <c r="G27" s="3">
-        <v>9095000</v>
+        <v>9015800</v>
       </c>
       <c r="H27" s="3">
-        <v>8514000</v>
+        <v>8439900</v>
       </c>
       <c r="I27" s="3">
-        <v>8743400</v>
+        <v>8667300</v>
       </c>
       <c r="J27" s="3">
-        <v>9500200</v>
+        <v>9417500</v>
       </c>
       <c r="K27" s="3">
         <v>8856800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5082100</v>
+        <v>3317400</v>
       </c>
       <c r="E32" s="3">
-        <v>7805400</v>
+        <v>7737500</v>
       </c>
       <c r="F32" s="3">
-        <v>6474100</v>
+        <v>6417700</v>
       </c>
       <c r="G32" s="3">
-        <v>4367800</v>
+        <v>4329800</v>
       </c>
       <c r="H32" s="3">
-        <v>5688200</v>
+        <v>5638700</v>
       </c>
       <c r="I32" s="3">
-        <v>3664600</v>
+        <v>3632700</v>
       </c>
       <c r="J32" s="3">
-        <v>3902200</v>
+        <v>3868300</v>
       </c>
       <c r="K32" s="3">
         <v>3254200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7140800</v>
+        <v>7078600</v>
       </c>
       <c r="E33" s="3">
-        <v>4853700</v>
+        <v>4811500</v>
       </c>
       <c r="F33" s="3">
-        <v>8020000</v>
+        <v>7950200</v>
       </c>
       <c r="G33" s="3">
-        <v>9095000</v>
+        <v>9015800</v>
       </c>
       <c r="H33" s="3">
-        <v>8514000</v>
+        <v>8439900</v>
       </c>
       <c r="I33" s="3">
-        <v>8743400</v>
+        <v>8667300</v>
       </c>
       <c r="J33" s="3">
-        <v>9500200</v>
+        <v>9417500</v>
       </c>
       <c r="K33" s="3">
         <v>8856800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7140800</v>
+        <v>7078600</v>
       </c>
       <c r="E35" s="3">
-        <v>4853700</v>
+        <v>4811500</v>
       </c>
       <c r="F35" s="3">
-        <v>8020000</v>
+        <v>7950200</v>
       </c>
       <c r="G35" s="3">
-        <v>9095000</v>
+        <v>9015800</v>
       </c>
       <c r="H35" s="3">
-        <v>8514000</v>
+        <v>8439900</v>
       </c>
       <c r="I35" s="3">
-        <v>8743400</v>
+        <v>8667300</v>
       </c>
       <c r="J35" s="3">
-        <v>9500200</v>
+        <v>9417500</v>
       </c>
       <c r="K35" s="3">
         <v>8856800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>946393000</v>
+        <v>938154000</v>
       </c>
       <c r="E41" s="3">
-        <v>719905000</v>
+        <v>713638000</v>
       </c>
       <c r="F41" s="3">
-        <v>681961000</v>
+        <v>676025000</v>
       </c>
       <c r="G41" s="3">
-        <v>686619000</v>
+        <v>680642000</v>
       </c>
       <c r="H41" s="3">
-        <v>583803000</v>
+        <v>578721000</v>
       </c>
       <c r="I41" s="3">
-        <v>451765000</v>
+        <v>447832000</v>
       </c>
       <c r="J41" s="3">
-        <v>372088000</v>
+        <v>368849000</v>
       </c>
       <c r="K41" s="3">
         <v>219564000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>427501000</v>
+        <v>423779000</v>
       </c>
       <c r="E42" s="3">
-        <v>522650000</v>
+        <v>518100000</v>
       </c>
       <c r="F42" s="3">
-        <v>363694000</v>
+        <v>360528000</v>
       </c>
       <c r="G42" s="3">
-        <v>362219000</v>
+        <v>359066000</v>
       </c>
       <c r="H42" s="3">
-        <v>437045000</v>
+        <v>433241000</v>
       </c>
       <c r="I42" s="3">
-        <v>378222000</v>
+        <v>374929000</v>
       </c>
       <c r="J42" s="3">
-        <v>368971000</v>
+        <v>365759000</v>
       </c>
       <c r="K42" s="3">
         <v>341792000</v>
@@ -1953,26 +1953,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>25174600</v>
       </c>
       <c r="E47" s="3">
-        <v>24819100</v>
+        <v>24603100</v>
       </c>
       <c r="F47" s="3">
-        <v>27224400</v>
+        <v>26987400</v>
       </c>
       <c r="G47" s="3">
-        <v>25456900</v>
+        <v>25235300</v>
       </c>
       <c r="H47" s="3">
-        <v>25321000</v>
+        <v>25100600</v>
       </c>
       <c r="I47" s="3">
-        <v>23795600</v>
+        <v>23588400</v>
       </c>
       <c r="J47" s="3">
-        <v>22255700</v>
+        <v>22062000</v>
       </c>
       <c r="K47" s="3">
         <v>19602600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11913900</v>
+        <v>11810200</v>
       </c>
       <c r="E48" s="3">
-        <v>12128900</v>
+        <v>12023300</v>
       </c>
       <c r="F48" s="3">
-        <v>12277600</v>
+        <v>12170700</v>
       </c>
       <c r="G48" s="3">
-        <v>12590100</v>
+        <v>12480500</v>
       </c>
       <c r="H48" s="3">
-        <v>12488300</v>
+        <v>12379600</v>
       </c>
       <c r="I48" s="3">
-        <v>12517200</v>
+        <v>12408200</v>
       </c>
       <c r="J48" s="3">
-        <v>12431600</v>
+        <v>12323300</v>
       </c>
       <c r="K48" s="3">
         <v>14106700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13197700</v>
+        <v>13082900</v>
       </c>
       <c r="E49" s="3">
-        <v>13770400</v>
+        <v>13650500</v>
       </c>
       <c r="F49" s="3">
-        <v>10444700</v>
+        <v>10353800</v>
       </c>
       <c r="G49" s="3">
-        <v>11457000</v>
+        <v>11357200</v>
       </c>
       <c r="H49" s="3">
-        <v>11559900</v>
+        <v>11459300</v>
       </c>
       <c r="I49" s="3">
-        <v>11530900</v>
+        <v>11430600</v>
       </c>
       <c r="J49" s="3">
-        <v>11922000</v>
+        <v>11818200</v>
       </c>
       <c r="K49" s="3">
         <v>13587500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12393300</v>
+        <v>12285400</v>
       </c>
       <c r="E52" s="3">
-        <v>7717000</v>
+        <v>7649900</v>
       </c>
       <c r="F52" s="3">
-        <v>8532500</v>
+        <v>8458300</v>
       </c>
       <c r="G52" s="3">
-        <v>8852500</v>
+        <v>8775500</v>
       </c>
       <c r="H52" s="3">
-        <v>6686700</v>
+        <v>6628500</v>
       </c>
       <c r="I52" s="3">
-        <v>4628900</v>
+        <v>4588700</v>
       </c>
       <c r="J52" s="3">
-        <v>5694900</v>
+        <v>5645300</v>
       </c>
       <c r="K52" s="3">
         <v>5418000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3303560000</v>
+        <v>3274800000</v>
       </c>
       <c r="E54" s="3">
-        <v>3093090000</v>
+        <v>3066170000</v>
       </c>
       <c r="F54" s="3">
-        <v>2859370000</v>
+        <v>2834480000</v>
       </c>
       <c r="G54" s="3">
-        <v>2820750000</v>
+        <v>2796200000</v>
       </c>
       <c r="H54" s="3">
-        <v>2787300000</v>
+        <v>2763040000</v>
       </c>
       <c r="I54" s="3">
-        <v>2741400000</v>
+        <v>2717540000</v>
       </c>
       <c r="J54" s="3">
-        <v>2629720000</v>
+        <v>2606820000</v>
       </c>
       <c r="K54" s="3">
         <v>2364490000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1104400</v>
+        <v>1094800</v>
       </c>
       <c r="E59" s="3">
-        <v>1033000</v>
+        <v>1024100</v>
       </c>
       <c r="F59" s="3">
-        <v>734500</v>
+        <v>728100</v>
       </c>
       <c r="G59" s="3">
-        <v>801400</v>
+        <v>794400</v>
       </c>
       <c r="H59" s="3">
-        <v>750000</v>
+        <v>743500</v>
       </c>
       <c r="I59" s="3">
-        <v>832800</v>
+        <v>825500</v>
       </c>
       <c r="J59" s="3">
-        <v>834600</v>
+        <v>827300</v>
       </c>
       <c r="K59" s="3">
         <v>729300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>404534000</v>
+        <v>401013000</v>
       </c>
       <c r="E61" s="3">
-        <v>350287000</v>
+        <v>347237000</v>
       </c>
       <c r="F61" s="3">
-        <v>261436000</v>
+        <v>259160000</v>
       </c>
       <c r="G61" s="3">
-        <v>249102000</v>
+        <v>246933000</v>
       </c>
       <c r="H61" s="3">
-        <v>246887000</v>
+        <v>244738000</v>
       </c>
       <c r="I61" s="3">
-        <v>199173000</v>
+        <v>197439000</v>
       </c>
       <c r="J61" s="3">
-        <v>202253000</v>
+        <v>200492000</v>
       </c>
       <c r="K61" s="3">
         <v>164827000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13029000</v>
+        <v>12915600</v>
       </c>
       <c r="E62" s="3">
-        <v>11048200</v>
+        <v>10952000</v>
       </c>
       <c r="F62" s="3">
-        <v>11971800</v>
+        <v>11867600</v>
       </c>
       <c r="G62" s="3">
-        <v>12837600</v>
+        <v>12725800</v>
       </c>
       <c r="H62" s="3">
-        <v>12367500</v>
+        <v>12259900</v>
       </c>
       <c r="I62" s="3">
-        <v>11839000</v>
+        <v>11735900</v>
       </c>
       <c r="J62" s="3">
-        <v>12998000</v>
+        <v>12884800</v>
       </c>
       <c r="K62" s="3">
         <v>7251400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3149150000</v>
+        <v>3121730000</v>
       </c>
       <c r="E66" s="3">
-        <v>2946130000</v>
+        <v>2920490000</v>
       </c>
       <c r="F66" s="3">
-        <v>2710680000</v>
+        <v>2687080000</v>
       </c>
       <c r="G66" s="3">
-        <v>2673490000</v>
+        <v>2650210000</v>
       </c>
       <c r="H66" s="3">
-        <v>2646870000</v>
+        <v>2623830000</v>
       </c>
       <c r="I66" s="3">
-        <v>2599270000</v>
+        <v>2576640000</v>
       </c>
       <c r="J66" s="3">
-        <v>2488870000</v>
+        <v>2467200000</v>
       </c>
       <c r="K66" s="3">
         <v>2244820000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>102929000</v>
+        <v>102033000</v>
       </c>
       <c r="E72" s="3">
-        <v>99765300</v>
+        <v>98896900</v>
       </c>
       <c r="F72" s="3">
-        <v>97789600</v>
+        <v>96938300</v>
       </c>
       <c r="G72" s="3">
-        <v>92496600</v>
+        <v>91691400</v>
       </c>
       <c r="H72" s="3">
-        <v>85273600</v>
+        <v>84531300</v>
       </c>
       <c r="I72" s="3">
-        <v>78995800</v>
+        <v>78308100</v>
       </c>
       <c r="J72" s="3">
-        <v>72313200</v>
+        <v>71683700</v>
       </c>
       <c r="K72" s="3">
         <v>64503400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>154416000</v>
+        <v>153071000</v>
       </c>
       <c r="E76" s="3">
-        <v>146956000</v>
+        <v>145677000</v>
       </c>
       <c r="F76" s="3">
-        <v>148690000</v>
+        <v>147395000</v>
       </c>
       <c r="G76" s="3">
-        <v>147269000</v>
+        <v>145987000</v>
       </c>
       <c r="H76" s="3">
-        <v>140429000</v>
+        <v>139207000</v>
       </c>
       <c r="I76" s="3">
-        <v>142135000</v>
+        <v>140897000</v>
       </c>
       <c r="J76" s="3">
-        <v>140848000</v>
+        <v>139622000</v>
       </c>
       <c r="K76" s="3">
         <v>116101000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7140800</v>
+        <v>7078600</v>
       </c>
       <c r="E81" s="3">
-        <v>4853700</v>
+        <v>4811500</v>
       </c>
       <c r="F81" s="3">
-        <v>8020000</v>
+        <v>7950200</v>
       </c>
       <c r="G81" s="3">
-        <v>9095000</v>
+        <v>9015800</v>
       </c>
       <c r="H81" s="3">
-        <v>8514000</v>
+        <v>8439900</v>
       </c>
       <c r="I81" s="3">
-        <v>8743400</v>
+        <v>8667300</v>
       </c>
       <c r="J81" s="3">
-        <v>9500200</v>
+        <v>9417500</v>
       </c>
       <c r="K81" s="3">
         <v>8856800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3266600</v>
+        <v>3238100</v>
       </c>
       <c r="E83" s="3">
-        <v>6463200</v>
+        <v>6407000</v>
       </c>
       <c r="F83" s="3">
-        <v>3126400</v>
+        <v>3099200</v>
       </c>
       <c r="G83" s="3">
-        <v>3113700</v>
+        <v>3086600</v>
       </c>
       <c r="H83" s="3">
-        <v>3061600</v>
+        <v>3035000</v>
       </c>
       <c r="I83" s="3">
-        <v>2899100</v>
+        <v>2873800</v>
       </c>
       <c r="J83" s="3">
-        <v>2922000</v>
+        <v>2896500</v>
       </c>
       <c r="K83" s="3">
         <v>2664400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>320776500</v>
+        <v>317984100</v>
       </c>
       <c r="E89" s="3">
-        <v>74079100</v>
+        <v>73434200</v>
       </c>
       <c r="F89" s="3">
-        <v>51549500</v>
+        <v>51100800</v>
       </c>
       <c r="G89" s="3">
-        <v>113136000</v>
+        <v>112151200</v>
       </c>
       <c r="H89" s="3">
-        <v>64450100</v>
+        <v>63889000</v>
       </c>
       <c r="I89" s="3">
-        <v>62073200</v>
+        <v>61532800</v>
       </c>
       <c r="J89" s="3">
-        <v>-19259900</v>
+        <v>-19092300</v>
       </c>
       <c r="K89" s="3">
         <v>-37426700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1228400</v>
+        <v>-1217700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1168700</v>
+        <v>-1158600</v>
       </c>
       <c r="F91" s="3">
-        <v>-1308600</v>
+        <v>-1297200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1468700</v>
+        <v>-1455900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1118700</v>
+        <v>-1109000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1074600</v>
+        <v>-1065200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1620800</v>
+        <v>-1606700</v>
       </c>
       <c r="K91" s="3">
         <v>-1386500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-93189800</v>
+        <v>-92378500</v>
       </c>
       <c r="E94" s="3">
-        <v>-30956000</v>
+        <v>-30686500</v>
       </c>
       <c r="F94" s="3">
-        <v>-51717100</v>
+        <v>-51266900</v>
       </c>
       <c r="G94" s="3">
-        <v>-5200400</v>
+        <v>-5155100</v>
       </c>
       <c r="H94" s="3">
-        <v>81860400</v>
+        <v>81147800</v>
       </c>
       <c r="I94" s="3">
-        <v>20587500</v>
+        <v>20408300</v>
       </c>
       <c r="J94" s="3">
-        <v>59750500</v>
+        <v>59230400</v>
       </c>
       <c r="K94" s="3">
         <v>54972800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2957100</v>
+        <v>-2931300</v>
       </c>
       <c r="E96" s="3">
-        <v>-2798700</v>
+        <v>-2774300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2539000</v>
+        <v>-2516900</v>
       </c>
       <c r="G96" s="3">
-        <v>-2215400</v>
+        <v>-2196100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2265900</v>
+        <v>-2246200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2311300</v>
+        <v>-2291100</v>
       </c>
       <c r="J96" s="3">
-        <v>-2426000</v>
+        <v>-2404800</v>
       </c>
       <c r="K96" s="3">
         <v>-1979500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4007500</v>
+        <v>-3972600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2312800</v>
+        <v>-2292700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4451300</v>
+        <v>-4412500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2670000</v>
+        <v>-2646800</v>
       </c>
       <c r="H100" s="3">
-        <v>-6162700</v>
+        <v>-6109100</v>
       </c>
       <c r="I100" s="3">
-        <v>-970500</v>
+        <v>-962000</v>
       </c>
       <c r="J100" s="3">
-        <v>-10629300</v>
+        <v>-10536800</v>
       </c>
       <c r="K100" s="3">
         <v>-9224900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2909000</v>
+        <v>2883700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2867200</v>
+        <v>-2842200</v>
       </c>
       <c r="F101" s="3">
-        <v>-38500</v>
+        <v>-38200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2450200</v>
+        <v>-2428900</v>
       </c>
       <c r="H101" s="3">
-        <v>-418000</v>
+        <v>-414400</v>
       </c>
       <c r="I101" s="3">
-        <v>-1058800</v>
+        <v>-1049600</v>
       </c>
       <c r="J101" s="3">
-        <v>2323200</v>
+        <v>2303000</v>
       </c>
       <c r="K101" s="3">
         <v>2733800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>226488200</v>
+        <v>224516600</v>
       </c>
       <c r="E102" s="3">
-        <v>37943100</v>
+        <v>37612800</v>
       </c>
       <c r="F102" s="3">
-        <v>-4657400</v>
+        <v>-4616900</v>
       </c>
       <c r="G102" s="3">
-        <v>102815400</v>
+        <v>101920400</v>
       </c>
       <c r="H102" s="3">
-        <v>139729700</v>
+        <v>138513300</v>
       </c>
       <c r="I102" s="3">
-        <v>80631400</v>
+        <v>79929500</v>
       </c>
       <c r="J102" s="3">
-        <v>32184500</v>
+        <v>31904300</v>
       </c>
       <c r="K102" s="3">
         <v>11055000</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24402900</v>
+        <v>23599300</v>
       </c>
       <c r="E8" s="3">
-        <v>34994300</v>
+        <v>33841900</v>
       </c>
       <c r="F8" s="3">
-        <v>34000400</v>
+        <v>32880700</v>
       </c>
       <c r="G8" s="3">
-        <v>28195400</v>
+        <v>27266900</v>
       </c>
       <c r="H8" s="3">
-        <v>26310900</v>
+        <v>25444500</v>
       </c>
       <c r="I8" s="3">
-        <v>25227900</v>
+        <v>24397100</v>
       </c>
       <c r="J8" s="3">
-        <v>25564800</v>
+        <v>24723000</v>
       </c>
       <c r="K8" s="3">
         <v>21715200</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-3128100</v>
+        <v>-3025100</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11592500</v>
+        <v>11210800</v>
       </c>
       <c r="E17" s="3">
-        <v>19700600</v>
+        <v>19051800</v>
       </c>
       <c r="F17" s="3">
-        <v>17148700</v>
+        <v>16584000</v>
       </c>
       <c r="G17" s="3">
-        <v>11026200</v>
+        <v>10663100</v>
       </c>
       <c r="H17" s="3">
-        <v>8799900</v>
+        <v>8510100</v>
       </c>
       <c r="I17" s="3">
-        <v>7941400</v>
+        <v>7679900</v>
       </c>
       <c r="J17" s="3">
-        <v>6986100</v>
+        <v>6756100</v>
       </c>
       <c r="K17" s="3">
         <v>4326800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12810400</v>
+        <v>12388500</v>
       </c>
       <c r="E18" s="3">
-        <v>15293700</v>
+        <v>14790100</v>
       </c>
       <c r="F18" s="3">
-        <v>16851700</v>
+        <v>16296700</v>
       </c>
       <c r="G18" s="3">
-        <v>17169200</v>
+        <v>16603800</v>
       </c>
       <c r="H18" s="3">
-        <v>17511100</v>
+        <v>16934400</v>
       </c>
       <c r="I18" s="3">
-        <v>17286400</v>
+        <v>16717200</v>
       </c>
       <c r="J18" s="3">
-        <v>18578700</v>
+        <v>17966900</v>
       </c>
       <c r="K18" s="3">
         <v>17388300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3317400</v>
+        <v>-3208200</v>
       </c>
       <c r="E20" s="3">
-        <v>-7737500</v>
+        <v>-7482700</v>
       </c>
       <c r="F20" s="3">
-        <v>-6417700</v>
+        <v>-6206400</v>
       </c>
       <c r="G20" s="3">
-        <v>-4329800</v>
+        <v>-4187200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5638700</v>
+        <v>-5453000</v>
       </c>
       <c r="I20" s="3">
-        <v>-3632700</v>
+        <v>-3513000</v>
       </c>
       <c r="J20" s="3">
-        <v>-3868300</v>
+        <v>-3740900</v>
       </c>
       <c r="K20" s="3">
         <v>-3254200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12731100</v>
+        <v>12319000</v>
       </c>
       <c r="E21" s="3">
-        <v>13963200</v>
+        <v>13517500</v>
       </c>
       <c r="F21" s="3">
-        <v>13533200</v>
+        <v>13094300</v>
       </c>
       <c r="G21" s="3">
-        <v>15926000</v>
+        <v>15408300</v>
       </c>
       <c r="H21" s="3">
-        <v>14907400</v>
+        <v>14423100</v>
       </c>
       <c r="I21" s="3">
-        <v>16527600</v>
+        <v>15989600</v>
       </c>
       <c r="J21" s="3">
-        <v>17607000</v>
+        <v>17033500</v>
       </c>
       <c r="K21" s="3">
         <v>16810200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9492900</v>
+        <v>9180300</v>
       </c>
       <c r="E23" s="3">
-        <v>7556200</v>
+        <v>7307400</v>
       </c>
       <c r="F23" s="3">
-        <v>10433900</v>
+        <v>10090300</v>
       </c>
       <c r="G23" s="3">
-        <v>12839400</v>
+        <v>12416600</v>
       </c>
       <c r="H23" s="3">
-        <v>11872400</v>
+        <v>11481400</v>
       </c>
       <c r="I23" s="3">
-        <v>13653800</v>
+        <v>13204200</v>
       </c>
       <c r="J23" s="3">
-        <v>14710400</v>
+        <v>14226000</v>
       </c>
       <c r="K23" s="3">
         <v>14134200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1686000</v>
+        <v>1630400</v>
       </c>
       <c r="E24" s="3">
-        <v>2012400</v>
+        <v>1946100</v>
       </c>
       <c r="F24" s="3">
-        <v>1781600</v>
+        <v>1723000</v>
       </c>
       <c r="G24" s="3">
-        <v>2855400</v>
+        <v>2761400</v>
       </c>
       <c r="H24" s="3">
-        <v>3117200</v>
+        <v>3014600</v>
       </c>
       <c r="I24" s="3">
-        <v>4192500</v>
+        <v>4054400</v>
       </c>
       <c r="J24" s="3">
-        <v>4261500</v>
+        <v>4121200</v>
       </c>
       <c r="K24" s="3">
         <v>4030300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7807000</v>
+        <v>7549900</v>
       </c>
       <c r="E26" s="3">
-        <v>5543800</v>
+        <v>5361300</v>
       </c>
       <c r="F26" s="3">
-        <v>8652300</v>
+        <v>8367400</v>
       </c>
       <c r="G26" s="3">
-        <v>9984000</v>
+        <v>9655200</v>
       </c>
       <c r="H26" s="3">
-        <v>8755200</v>
+        <v>8466900</v>
       </c>
       <c r="I26" s="3">
-        <v>9461300</v>
+        <v>9149800</v>
       </c>
       <c r="J26" s="3">
-        <v>10448900</v>
+        <v>10104800</v>
       </c>
       <c r="K26" s="3">
         <v>10103900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7078600</v>
+        <v>6845500</v>
       </c>
       <c r="E27" s="3">
-        <v>4811500</v>
+        <v>4653000</v>
       </c>
       <c r="F27" s="3">
-        <v>7950200</v>
+        <v>7688400</v>
       </c>
       <c r="G27" s="3">
-        <v>9015800</v>
+        <v>8718900</v>
       </c>
       <c r="H27" s="3">
-        <v>8439900</v>
+        <v>8161900</v>
       </c>
       <c r="I27" s="3">
-        <v>8667300</v>
+        <v>8381900</v>
       </c>
       <c r="J27" s="3">
-        <v>9417500</v>
+        <v>9107400</v>
       </c>
       <c r="K27" s="3">
         <v>8856800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3317400</v>
+        <v>3208200</v>
       </c>
       <c r="E32" s="3">
-        <v>7737500</v>
+        <v>7482700</v>
       </c>
       <c r="F32" s="3">
-        <v>6417700</v>
+        <v>6206400</v>
       </c>
       <c r="G32" s="3">
-        <v>4329800</v>
+        <v>4187200</v>
       </c>
       <c r="H32" s="3">
-        <v>5638700</v>
+        <v>5453000</v>
       </c>
       <c r="I32" s="3">
-        <v>3632700</v>
+        <v>3513000</v>
       </c>
       <c r="J32" s="3">
-        <v>3868300</v>
+        <v>3740900</v>
       </c>
       <c r="K32" s="3">
         <v>3254200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7078600</v>
+        <v>6845500</v>
       </c>
       <c r="E33" s="3">
-        <v>4811500</v>
+        <v>4653000</v>
       </c>
       <c r="F33" s="3">
-        <v>7950200</v>
+        <v>7688400</v>
       </c>
       <c r="G33" s="3">
-        <v>9015800</v>
+        <v>8718900</v>
       </c>
       <c r="H33" s="3">
-        <v>8439900</v>
+        <v>8161900</v>
       </c>
       <c r="I33" s="3">
-        <v>8667300</v>
+        <v>8381900</v>
       </c>
       <c r="J33" s="3">
-        <v>9417500</v>
+        <v>9107400</v>
       </c>
       <c r="K33" s="3">
         <v>8856800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7078600</v>
+        <v>6845500</v>
       </c>
       <c r="E35" s="3">
-        <v>4811500</v>
+        <v>4653000</v>
       </c>
       <c r="F35" s="3">
-        <v>7950200</v>
+        <v>7688400</v>
       </c>
       <c r="G35" s="3">
-        <v>9015800</v>
+        <v>8718900</v>
       </c>
       <c r="H35" s="3">
-        <v>8439900</v>
+        <v>8161900</v>
       </c>
       <c r="I35" s="3">
-        <v>8667300</v>
+        <v>8381900</v>
       </c>
       <c r="J35" s="3">
-        <v>9417500</v>
+        <v>9107400</v>
       </c>
       <c r="K35" s="3">
         <v>8856800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>938154000</v>
+        <v>907260000</v>
       </c>
       <c r="E41" s="3">
-        <v>713638000</v>
+        <v>690137000</v>
       </c>
       <c r="F41" s="3">
-        <v>676025000</v>
+        <v>653763000</v>
       </c>
       <c r="G41" s="3">
-        <v>680642000</v>
+        <v>658228000</v>
       </c>
       <c r="H41" s="3">
-        <v>578721000</v>
+        <v>559664000</v>
       </c>
       <c r="I41" s="3">
-        <v>447832000</v>
+        <v>433085000</v>
       </c>
       <c r="J41" s="3">
-        <v>368849000</v>
+        <v>356702000</v>
       </c>
       <c r="K41" s="3">
         <v>219564000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>423779000</v>
+        <v>409824000</v>
       </c>
       <c r="E42" s="3">
-        <v>518100000</v>
+        <v>501038000</v>
       </c>
       <c r="F42" s="3">
-        <v>360528000</v>
+        <v>348655000</v>
       </c>
       <c r="G42" s="3">
-        <v>359066000</v>
+        <v>347241000</v>
       </c>
       <c r="H42" s="3">
-        <v>433241000</v>
+        <v>418974000</v>
       </c>
       <c r="I42" s="3">
-        <v>374929000</v>
+        <v>362582000</v>
       </c>
       <c r="J42" s="3">
-        <v>365759000</v>
+        <v>353714000</v>
       </c>
       <c r="K42" s="3">
         <v>341792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25174600</v>
+        <v>24345600</v>
       </c>
       <c r="E47" s="3">
-        <v>24603100</v>
+        <v>23792900</v>
       </c>
       <c r="F47" s="3">
-        <v>26987400</v>
+        <v>26098700</v>
       </c>
       <c r="G47" s="3">
-        <v>25235300</v>
+        <v>24404300</v>
       </c>
       <c r="H47" s="3">
-        <v>25100600</v>
+        <v>24274000</v>
       </c>
       <c r="I47" s="3">
-        <v>23588400</v>
+        <v>22811600</v>
       </c>
       <c r="J47" s="3">
-        <v>22062000</v>
+        <v>21335500</v>
       </c>
       <c r="K47" s="3">
         <v>19602600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11810200</v>
+        <v>11421300</v>
       </c>
       <c r="E48" s="3">
-        <v>12023300</v>
+        <v>11627300</v>
       </c>
       <c r="F48" s="3">
-        <v>12170700</v>
+        <v>11769900</v>
       </c>
       <c r="G48" s="3">
-        <v>12480500</v>
+        <v>12069500</v>
       </c>
       <c r="H48" s="3">
-        <v>12379600</v>
+        <v>11972000</v>
       </c>
       <c r="I48" s="3">
-        <v>12408200</v>
+        <v>11999600</v>
       </c>
       <c r="J48" s="3">
-        <v>12323300</v>
+        <v>11917500</v>
       </c>
       <c r="K48" s="3">
         <v>14106700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13082900</v>
+        <v>12652000</v>
       </c>
       <c r="E49" s="3">
-        <v>13650500</v>
+        <v>13201000</v>
       </c>
       <c r="F49" s="3">
-        <v>10353800</v>
+        <v>10012800</v>
       </c>
       <c r="G49" s="3">
-        <v>11357200</v>
+        <v>10983200</v>
       </c>
       <c r="H49" s="3">
-        <v>11459300</v>
+        <v>11081900</v>
       </c>
       <c r="I49" s="3">
-        <v>11430600</v>
+        <v>11054100</v>
       </c>
       <c r="J49" s="3">
-        <v>11818200</v>
+        <v>11429000</v>
       </c>
       <c r="K49" s="3">
         <v>13587500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12285400</v>
+        <v>11880900</v>
       </c>
       <c r="E52" s="3">
-        <v>7649900</v>
+        <v>7398000</v>
       </c>
       <c r="F52" s="3">
-        <v>8458300</v>
+        <v>8179700</v>
       </c>
       <c r="G52" s="3">
-        <v>8775500</v>
+        <v>8486500</v>
       </c>
       <c r="H52" s="3">
-        <v>6628500</v>
+        <v>6410200</v>
       </c>
       <c r="I52" s="3">
-        <v>4588700</v>
+        <v>4437500</v>
       </c>
       <c r="J52" s="3">
-        <v>5645300</v>
+        <v>5459400</v>
       </c>
       <c r="K52" s="3">
         <v>5418000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3274800000</v>
+        <v>3166960000</v>
       </c>
       <c r="E54" s="3">
-        <v>3066170000</v>
+        <v>2965190000</v>
       </c>
       <c r="F54" s="3">
-        <v>2834480000</v>
+        <v>2741130000</v>
       </c>
       <c r="G54" s="3">
-        <v>2796200000</v>
+        <v>2704120000</v>
       </c>
       <c r="H54" s="3">
-        <v>2763040000</v>
+        <v>2672050000</v>
       </c>
       <c r="I54" s="3">
-        <v>2717540000</v>
+        <v>2628050000</v>
       </c>
       <c r="J54" s="3">
-        <v>2606820000</v>
+        <v>2520980000</v>
       </c>
       <c r="K54" s="3">
         <v>2364490000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1094800</v>
+        <v>1058700</v>
       </c>
       <c r="E59" s="3">
-        <v>1024100</v>
+        <v>990300</v>
       </c>
       <c r="F59" s="3">
-        <v>728100</v>
+        <v>704100</v>
       </c>
       <c r="G59" s="3">
-        <v>794400</v>
+        <v>768200</v>
       </c>
       <c r="H59" s="3">
-        <v>743500</v>
+        <v>719000</v>
       </c>
       <c r="I59" s="3">
-        <v>825500</v>
+        <v>798300</v>
       </c>
       <c r="J59" s="3">
-        <v>827300</v>
+        <v>800100</v>
       </c>
       <c r="K59" s="3">
         <v>729300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>401013000</v>
+        <v>387807000</v>
       </c>
       <c r="E61" s="3">
-        <v>347237000</v>
+        <v>335802000</v>
       </c>
       <c r="F61" s="3">
-        <v>259160000</v>
+        <v>250626000</v>
       </c>
       <c r="G61" s="3">
-        <v>246933000</v>
+        <v>238802000</v>
       </c>
       <c r="H61" s="3">
-        <v>244738000</v>
+        <v>236679000</v>
       </c>
       <c r="I61" s="3">
-        <v>197439000</v>
+        <v>190938000</v>
       </c>
       <c r="J61" s="3">
-        <v>200492000</v>
+        <v>193890000</v>
       </c>
       <c r="K61" s="3">
         <v>164827000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12915600</v>
+        <v>12490300</v>
       </c>
       <c r="E62" s="3">
-        <v>10952000</v>
+        <v>10591400</v>
       </c>
       <c r="F62" s="3">
-        <v>11867600</v>
+        <v>11476800</v>
       </c>
       <c r="G62" s="3">
-        <v>12725800</v>
+        <v>12306800</v>
       </c>
       <c r="H62" s="3">
-        <v>12259900</v>
+        <v>11856200</v>
       </c>
       <c r="I62" s="3">
-        <v>11735900</v>
+        <v>11349400</v>
       </c>
       <c r="J62" s="3">
-        <v>12884800</v>
+        <v>12460500</v>
       </c>
       <c r="K62" s="3">
         <v>7251400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3121730000</v>
+        <v>3018930000</v>
       </c>
       <c r="E66" s="3">
-        <v>2920490000</v>
+        <v>2824310000</v>
       </c>
       <c r="F66" s="3">
-        <v>2687080000</v>
+        <v>2598590000</v>
       </c>
       <c r="G66" s="3">
-        <v>2650210000</v>
+        <v>2562940000</v>
       </c>
       <c r="H66" s="3">
-        <v>2623830000</v>
+        <v>2537430000</v>
       </c>
       <c r="I66" s="3">
-        <v>2576640000</v>
+        <v>2491790000</v>
       </c>
       <c r="J66" s="3">
-        <v>2467200000</v>
+        <v>2385960000</v>
       </c>
       <c r="K66" s="3">
         <v>2244820000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>102033000</v>
+        <v>98672800</v>
       </c>
       <c r="E72" s="3">
-        <v>98896900</v>
+        <v>95640100</v>
       </c>
       <c r="F72" s="3">
-        <v>96938300</v>
+        <v>93746100</v>
       </c>
       <c r="G72" s="3">
-        <v>91691400</v>
+        <v>88672000</v>
       </c>
       <c r="H72" s="3">
-        <v>84531300</v>
+        <v>81747600</v>
       </c>
       <c r="I72" s="3">
-        <v>78308100</v>
+        <v>75729300</v>
       </c>
       <c r="J72" s="3">
-        <v>71683700</v>
+        <v>69323100</v>
       </c>
       <c r="K72" s="3">
         <v>64503400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>153071000</v>
+        <v>148031000</v>
       </c>
       <c r="E76" s="3">
-        <v>145677000</v>
+        <v>140880000</v>
       </c>
       <c r="F76" s="3">
-        <v>147395000</v>
+        <v>142541000</v>
       </c>
       <c r="G76" s="3">
-        <v>145987000</v>
+        <v>141180000</v>
       </c>
       <c r="H76" s="3">
-        <v>139207000</v>
+        <v>134623000</v>
       </c>
       <c r="I76" s="3">
-        <v>140897000</v>
+        <v>136258000</v>
       </c>
       <c r="J76" s="3">
-        <v>139622000</v>
+        <v>135024000</v>
       </c>
       <c r="K76" s="3">
         <v>116101000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7078600</v>
+        <v>6845500</v>
       </c>
       <c r="E81" s="3">
-        <v>4811500</v>
+        <v>4653000</v>
       </c>
       <c r="F81" s="3">
-        <v>7950200</v>
+        <v>7688400</v>
       </c>
       <c r="G81" s="3">
-        <v>9015800</v>
+        <v>8718900</v>
       </c>
       <c r="H81" s="3">
-        <v>8439900</v>
+        <v>8161900</v>
       </c>
       <c r="I81" s="3">
-        <v>8667300</v>
+        <v>8381900</v>
       </c>
       <c r="J81" s="3">
-        <v>9417500</v>
+        <v>9107400</v>
       </c>
       <c r="K81" s="3">
         <v>8856800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3238100</v>
+        <v>3131500</v>
       </c>
       <c r="E83" s="3">
-        <v>6407000</v>
+        <v>6196000</v>
       </c>
       <c r="F83" s="3">
-        <v>3099200</v>
+        <v>2997200</v>
       </c>
       <c r="G83" s="3">
-        <v>3086600</v>
+        <v>2984900</v>
       </c>
       <c r="H83" s="3">
-        <v>3035000</v>
+        <v>2935000</v>
       </c>
       <c r="I83" s="3">
-        <v>2873800</v>
+        <v>2779200</v>
       </c>
       <c r="J83" s="3">
-        <v>2896500</v>
+        <v>2801100</v>
       </c>
       <c r="K83" s="3">
         <v>2664400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>317984100</v>
+        <v>307512600</v>
       </c>
       <c r="E89" s="3">
-        <v>73434200</v>
+        <v>71016000</v>
       </c>
       <c r="F89" s="3">
-        <v>51100800</v>
+        <v>49418000</v>
       </c>
       <c r="G89" s="3">
-        <v>112151200</v>
+        <v>108457900</v>
       </c>
       <c r="H89" s="3">
-        <v>63889000</v>
+        <v>61785100</v>
       </c>
       <c r="I89" s="3">
-        <v>61532800</v>
+        <v>59506500</v>
       </c>
       <c r="J89" s="3">
-        <v>-19092300</v>
+        <v>-18463500</v>
       </c>
       <c r="K89" s="3">
         <v>-37426700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1217700</v>
+        <v>-1177600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1158600</v>
+        <v>-1120400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1297200</v>
+        <v>-1254500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1455900</v>
+        <v>-1408000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1109000</v>
+        <v>-1072500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1065200</v>
+        <v>-1030200</v>
       </c>
       <c r="J91" s="3">
-        <v>-1606700</v>
+        <v>-1553800</v>
       </c>
       <c r="K91" s="3">
         <v>-1386500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-92378500</v>
+        <v>-89336400</v>
       </c>
       <c r="E94" s="3">
-        <v>-30686500</v>
+        <v>-29676000</v>
       </c>
       <c r="F94" s="3">
-        <v>-51266900</v>
+        <v>-49578700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5155100</v>
+        <v>-4985400</v>
       </c>
       <c r="H94" s="3">
-        <v>81147800</v>
+        <v>78475500</v>
       </c>
       <c r="I94" s="3">
-        <v>20408300</v>
+        <v>19736200</v>
       </c>
       <c r="J94" s="3">
-        <v>59230400</v>
+        <v>57279900</v>
       </c>
       <c r="K94" s="3">
         <v>54972800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2931300</v>
+        <v>-2834800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2774300</v>
+        <v>-2683000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2516900</v>
+        <v>-2434000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2196100</v>
+        <v>-2123800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2246200</v>
+        <v>-2172200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2291100</v>
+        <v>-2215700</v>
       </c>
       <c r="J96" s="3">
-        <v>-2404800</v>
+        <v>-2325600</v>
       </c>
       <c r="K96" s="3">
         <v>-1979500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3972600</v>
+        <v>-3841800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2292700</v>
+        <v>-2217200</v>
       </c>
       <c r="F100" s="3">
-        <v>-4412500</v>
+        <v>-4267200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2646800</v>
+        <v>-2559600</v>
       </c>
       <c r="H100" s="3">
-        <v>-6109100</v>
+        <v>-5907900</v>
       </c>
       <c r="I100" s="3">
-        <v>-962000</v>
+        <v>-930400</v>
       </c>
       <c r="J100" s="3">
-        <v>-10536800</v>
+        <v>-10189800</v>
       </c>
       <c r="K100" s="3">
         <v>-9224900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2883700</v>
+        <v>2788800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2842200</v>
+        <v>-2748600</v>
       </c>
       <c r="F101" s="3">
-        <v>-38200</v>
+        <v>-36900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2428900</v>
+        <v>-2348900</v>
       </c>
       <c r="H101" s="3">
-        <v>-414400</v>
+        <v>-400700</v>
       </c>
       <c r="I101" s="3">
-        <v>-1049600</v>
+        <v>-1015000</v>
       </c>
       <c r="J101" s="3">
-        <v>2303000</v>
+        <v>2227100</v>
       </c>
       <c r="K101" s="3">
         <v>2733800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>224516600</v>
+        <v>217123100</v>
       </c>
       <c r="E102" s="3">
-        <v>37612800</v>
+        <v>36374200</v>
       </c>
       <c r="F102" s="3">
-        <v>-4616900</v>
+        <v>-4464800</v>
       </c>
       <c r="G102" s="3">
-        <v>101920400</v>
+        <v>98564100</v>
       </c>
       <c r="H102" s="3">
-        <v>138513300</v>
+        <v>133952000</v>
       </c>
       <c r="I102" s="3">
-        <v>79929500</v>
+        <v>77297400</v>
       </c>
       <c r="J102" s="3">
-        <v>31904300</v>
+        <v>30853700</v>
       </c>
       <c r="K102" s="3">
         <v>11055000</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23599300</v>
+        <v>22849200</v>
       </c>
       <c r="E8" s="3">
-        <v>33841900</v>
+        <v>32766300</v>
       </c>
       <c r="F8" s="3">
-        <v>32880700</v>
+        <v>31835700</v>
       </c>
       <c r="G8" s="3">
-        <v>27266900</v>
+        <v>26400300</v>
       </c>
       <c r="H8" s="3">
-        <v>25444500</v>
+        <v>24635800</v>
       </c>
       <c r="I8" s="3">
-        <v>24397100</v>
+        <v>23621700</v>
       </c>
       <c r="J8" s="3">
-        <v>24723000</v>
+        <v>23937200</v>
       </c>
       <c r="K8" s="3">
         <v>21715200</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-3025100</v>
+        <v>-2928900</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11210800</v>
+        <v>10854500</v>
       </c>
       <c r="E17" s="3">
-        <v>19051800</v>
+        <v>18446300</v>
       </c>
       <c r="F17" s="3">
-        <v>16584000</v>
+        <v>16056900</v>
       </c>
       <c r="G17" s="3">
-        <v>10663100</v>
+        <v>10324200</v>
       </c>
       <c r="H17" s="3">
-        <v>8510100</v>
+        <v>8239600</v>
       </c>
       <c r="I17" s="3">
-        <v>7679900</v>
+        <v>7435800</v>
       </c>
       <c r="J17" s="3">
-        <v>6756100</v>
+        <v>6541400</v>
       </c>
       <c r="K17" s="3">
         <v>4326800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12388500</v>
+        <v>11994800</v>
       </c>
       <c r="E18" s="3">
-        <v>14790100</v>
+        <v>14320000</v>
       </c>
       <c r="F18" s="3">
-        <v>16296700</v>
+        <v>15778800</v>
       </c>
       <c r="G18" s="3">
-        <v>16603800</v>
+        <v>16076100</v>
       </c>
       <c r="H18" s="3">
-        <v>16934400</v>
+        <v>16396200</v>
       </c>
       <c r="I18" s="3">
-        <v>16717200</v>
+        <v>16185900</v>
       </c>
       <c r="J18" s="3">
-        <v>17966900</v>
+        <v>17395900</v>
       </c>
       <c r="K18" s="3">
         <v>17388300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3208200</v>
+        <v>-3106200</v>
       </c>
       <c r="E20" s="3">
-        <v>-7482700</v>
+        <v>-7244900</v>
       </c>
       <c r="F20" s="3">
-        <v>-6206400</v>
+        <v>-6009100</v>
       </c>
       <c r="G20" s="3">
-        <v>-4187200</v>
+        <v>-4054100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5453000</v>
+        <v>-5279700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3513000</v>
+        <v>-3401400</v>
       </c>
       <c r="J20" s="3">
-        <v>-3740900</v>
+        <v>-3622000</v>
       </c>
       <c r="K20" s="3">
         <v>-3254200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12319000</v>
+        <v>11956100</v>
       </c>
       <c r="E21" s="3">
-        <v>13517500</v>
+        <v>13144600</v>
       </c>
       <c r="F21" s="3">
-        <v>13094300</v>
+        <v>12705600</v>
       </c>
       <c r="G21" s="3">
-        <v>15408300</v>
+        <v>14945900</v>
       </c>
       <c r="H21" s="3">
-        <v>14423100</v>
+        <v>13991600</v>
       </c>
       <c r="I21" s="3">
-        <v>15989600</v>
+        <v>15506900</v>
       </c>
       <c r="J21" s="3">
-        <v>17033500</v>
+        <v>16517800</v>
       </c>
       <c r="K21" s="3">
         <v>16810200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>9180300</v>
+        <v>8888600</v>
       </c>
       <c r="E23" s="3">
-        <v>7307400</v>
+        <v>7075100</v>
       </c>
       <c r="F23" s="3">
-        <v>10090300</v>
+        <v>9769600</v>
       </c>
       <c r="G23" s="3">
-        <v>12416600</v>
+        <v>12022000</v>
       </c>
       <c r="H23" s="3">
-        <v>11481400</v>
+        <v>11116500</v>
       </c>
       <c r="I23" s="3">
-        <v>13204200</v>
+        <v>12784500</v>
       </c>
       <c r="J23" s="3">
-        <v>14226000</v>
+        <v>13773900</v>
       </c>
       <c r="K23" s="3">
         <v>14134200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1630400</v>
+        <v>1578600</v>
       </c>
       <c r="E24" s="3">
-        <v>1946100</v>
+        <v>1884300</v>
       </c>
       <c r="F24" s="3">
-        <v>1723000</v>
+        <v>1668200</v>
       </c>
       <c r="G24" s="3">
-        <v>2761400</v>
+        <v>2673600</v>
       </c>
       <c r="H24" s="3">
-        <v>3014600</v>
+        <v>2918800</v>
       </c>
       <c r="I24" s="3">
-        <v>4054400</v>
+        <v>3925500</v>
       </c>
       <c r="J24" s="3">
-        <v>4121200</v>
+        <v>3990200</v>
       </c>
       <c r="K24" s="3">
         <v>4030300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7549900</v>
+        <v>7309900</v>
       </c>
       <c r="E26" s="3">
-        <v>5361300</v>
+        <v>5190900</v>
       </c>
       <c r="F26" s="3">
-        <v>8367400</v>
+        <v>8101400</v>
       </c>
       <c r="G26" s="3">
-        <v>9655200</v>
+        <v>9348400</v>
       </c>
       <c r="H26" s="3">
-        <v>8466900</v>
+        <v>8197800</v>
       </c>
       <c r="I26" s="3">
-        <v>9149800</v>
+        <v>8859000</v>
       </c>
       <c r="J26" s="3">
-        <v>10104800</v>
+        <v>9783700</v>
       </c>
       <c r="K26" s="3">
         <v>10103900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6845500</v>
+        <v>6628000</v>
       </c>
       <c r="E27" s="3">
-        <v>4653000</v>
+        <v>4505100</v>
       </c>
       <c r="F27" s="3">
-        <v>7688400</v>
+        <v>7444000</v>
       </c>
       <c r="G27" s="3">
-        <v>8718900</v>
+        <v>8441800</v>
       </c>
       <c r="H27" s="3">
-        <v>8161900</v>
+        <v>7902500</v>
       </c>
       <c r="I27" s="3">
-        <v>8381900</v>
+        <v>8115500</v>
       </c>
       <c r="J27" s="3">
-        <v>9107400</v>
+        <v>8818000</v>
       </c>
       <c r="K27" s="3">
         <v>8856800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3208200</v>
+        <v>3106200</v>
       </c>
       <c r="E32" s="3">
-        <v>7482700</v>
+        <v>7244900</v>
       </c>
       <c r="F32" s="3">
-        <v>6206400</v>
+        <v>6009100</v>
       </c>
       <c r="G32" s="3">
-        <v>4187200</v>
+        <v>4054100</v>
       </c>
       <c r="H32" s="3">
-        <v>5453000</v>
+        <v>5279700</v>
       </c>
       <c r="I32" s="3">
-        <v>3513000</v>
+        <v>3401400</v>
       </c>
       <c r="J32" s="3">
-        <v>3740900</v>
+        <v>3622000</v>
       </c>
       <c r="K32" s="3">
         <v>3254200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6845500</v>
+        <v>6628000</v>
       </c>
       <c r="E33" s="3">
-        <v>4653000</v>
+        <v>4505100</v>
       </c>
       <c r="F33" s="3">
-        <v>7688400</v>
+        <v>7444000</v>
       </c>
       <c r="G33" s="3">
-        <v>8718900</v>
+        <v>8441800</v>
       </c>
       <c r="H33" s="3">
-        <v>8161900</v>
+        <v>7902500</v>
       </c>
       <c r="I33" s="3">
-        <v>8381900</v>
+        <v>8115500</v>
       </c>
       <c r="J33" s="3">
-        <v>9107400</v>
+        <v>8818000</v>
       </c>
       <c r="K33" s="3">
         <v>8856800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6845500</v>
+        <v>6628000</v>
       </c>
       <c r="E35" s="3">
-        <v>4653000</v>
+        <v>4505100</v>
       </c>
       <c r="F35" s="3">
-        <v>7688400</v>
+        <v>7444000</v>
       </c>
       <c r="G35" s="3">
-        <v>8718900</v>
+        <v>8441800</v>
       </c>
       <c r="H35" s="3">
-        <v>8161900</v>
+        <v>7902500</v>
       </c>
       <c r="I35" s="3">
-        <v>8381900</v>
+        <v>8115500</v>
       </c>
       <c r="J35" s="3">
-        <v>9107400</v>
+        <v>8818000</v>
       </c>
       <c r="K35" s="3">
         <v>8856800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>907260000</v>
+        <v>878426000</v>
       </c>
       <c r="E41" s="3">
-        <v>690137000</v>
+        <v>668203000</v>
       </c>
       <c r="F41" s="3">
-        <v>653763000</v>
+        <v>632985000</v>
       </c>
       <c r="G41" s="3">
-        <v>658228000</v>
+        <v>637308000</v>
       </c>
       <c r="H41" s="3">
-        <v>559664000</v>
+        <v>541876000</v>
       </c>
       <c r="I41" s="3">
-        <v>433085000</v>
+        <v>419320000</v>
       </c>
       <c r="J41" s="3">
-        <v>356702000</v>
+        <v>345365000</v>
       </c>
       <c r="K41" s="3">
         <v>219564000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>409824000</v>
+        <v>396799000</v>
       </c>
       <c r="E42" s="3">
-        <v>501038000</v>
+        <v>485114000</v>
       </c>
       <c r="F42" s="3">
-        <v>348655000</v>
+        <v>337574000</v>
       </c>
       <c r="G42" s="3">
-        <v>347241000</v>
+        <v>336205000</v>
       </c>
       <c r="H42" s="3">
-        <v>418974000</v>
+        <v>405658000</v>
       </c>
       <c r="I42" s="3">
-        <v>362582000</v>
+        <v>351059000</v>
       </c>
       <c r="J42" s="3">
-        <v>353714000</v>
+        <v>342472000</v>
       </c>
       <c r="K42" s="3">
         <v>341792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24345600</v>
+        <v>23571800</v>
       </c>
       <c r="E47" s="3">
-        <v>23792900</v>
+        <v>23036700</v>
       </c>
       <c r="F47" s="3">
-        <v>26098700</v>
+        <v>25269200</v>
       </c>
       <c r="G47" s="3">
-        <v>24404300</v>
+        <v>23628700</v>
       </c>
       <c r="H47" s="3">
-        <v>24274000</v>
+        <v>23502500</v>
       </c>
       <c r="I47" s="3">
-        <v>22811600</v>
+        <v>22086600</v>
       </c>
       <c r="J47" s="3">
-        <v>21335500</v>
+        <v>20657400</v>
       </c>
       <c r="K47" s="3">
         <v>19602600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11421300</v>
+        <v>11058300</v>
       </c>
       <c r="E48" s="3">
-        <v>11627300</v>
+        <v>11257800</v>
       </c>
       <c r="F48" s="3">
-        <v>11769900</v>
+        <v>11395800</v>
       </c>
       <c r="G48" s="3">
-        <v>12069500</v>
+        <v>11685900</v>
       </c>
       <c r="H48" s="3">
-        <v>11972000</v>
+        <v>11591500</v>
       </c>
       <c r="I48" s="3">
-        <v>11999600</v>
+        <v>11618200</v>
       </c>
       <c r="J48" s="3">
-        <v>11917500</v>
+        <v>11538800</v>
       </c>
       <c r="K48" s="3">
         <v>14106700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12652000</v>
+        <v>12249900</v>
       </c>
       <c r="E49" s="3">
-        <v>13201000</v>
+        <v>12781400</v>
       </c>
       <c r="F49" s="3">
-        <v>10012800</v>
+        <v>9694600</v>
       </c>
       <c r="G49" s="3">
-        <v>10983200</v>
+        <v>10634100</v>
       </c>
       <c r="H49" s="3">
-        <v>11081900</v>
+        <v>10729700</v>
       </c>
       <c r="I49" s="3">
-        <v>11054100</v>
+        <v>10702800</v>
       </c>
       <c r="J49" s="3">
-        <v>11429000</v>
+        <v>11065800</v>
       </c>
       <c r="K49" s="3">
         <v>13587500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11880900</v>
+        <v>11503300</v>
       </c>
       <c r="E52" s="3">
-        <v>7398000</v>
+        <v>7162800</v>
       </c>
       <c r="F52" s="3">
-        <v>8179700</v>
+        <v>7919700</v>
       </c>
       <c r="G52" s="3">
-        <v>8486500</v>
+        <v>8216800</v>
       </c>
       <c r="H52" s="3">
-        <v>6410200</v>
+        <v>6206500</v>
       </c>
       <c r="I52" s="3">
-        <v>4437500</v>
+        <v>4296500</v>
       </c>
       <c r="J52" s="3">
-        <v>5459400</v>
+        <v>5285900</v>
       </c>
       <c r="K52" s="3">
         <v>5418000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3166960000</v>
+        <v>3066310000</v>
       </c>
       <c r="E54" s="3">
-        <v>2965190000</v>
+        <v>2870950000</v>
       </c>
       <c r="F54" s="3">
-        <v>2741130000</v>
+        <v>2654010000</v>
       </c>
       <c r="G54" s="3">
-        <v>2704120000</v>
+        <v>2618180000</v>
       </c>
       <c r="H54" s="3">
-        <v>2672050000</v>
+        <v>2587130000</v>
       </c>
       <c r="I54" s="3">
-        <v>2628050000</v>
+        <v>2544520000</v>
       </c>
       <c r="J54" s="3">
-        <v>2520980000</v>
+        <v>2440860000</v>
       </c>
       <c r="K54" s="3">
         <v>2364490000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1058700</v>
+        <v>1025100</v>
       </c>
       <c r="E59" s="3">
-        <v>990300</v>
+        <v>958900</v>
       </c>
       <c r="F59" s="3">
-        <v>704100</v>
+        <v>681800</v>
       </c>
       <c r="G59" s="3">
-        <v>768200</v>
+        <v>743800</v>
       </c>
       <c r="H59" s="3">
-        <v>719000</v>
+        <v>696100</v>
       </c>
       <c r="I59" s="3">
-        <v>798300</v>
+        <v>772900</v>
       </c>
       <c r="J59" s="3">
-        <v>800100</v>
+        <v>774600</v>
       </c>
       <c r="K59" s="3">
         <v>729300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>387807000</v>
+        <v>375482000</v>
       </c>
       <c r="E61" s="3">
-        <v>335802000</v>
+        <v>325130000</v>
       </c>
       <c r="F61" s="3">
-        <v>250626000</v>
+        <v>242660000</v>
       </c>
       <c r="G61" s="3">
-        <v>238802000</v>
+        <v>231212000</v>
       </c>
       <c r="H61" s="3">
-        <v>236679000</v>
+        <v>229157000</v>
       </c>
       <c r="I61" s="3">
-        <v>190938000</v>
+        <v>184869000</v>
       </c>
       <c r="J61" s="3">
-        <v>193890000</v>
+        <v>187728000</v>
       </c>
       <c r="K61" s="3">
         <v>164827000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12490300</v>
+        <v>12093300</v>
       </c>
       <c r="E62" s="3">
-        <v>10591400</v>
+        <v>10254800</v>
       </c>
       <c r="F62" s="3">
-        <v>11476800</v>
+        <v>11112000</v>
       </c>
       <c r="G62" s="3">
-        <v>12306800</v>
+        <v>11915600</v>
       </c>
       <c r="H62" s="3">
-        <v>11856200</v>
+        <v>11479300</v>
       </c>
       <c r="I62" s="3">
-        <v>11349400</v>
+        <v>10988700</v>
       </c>
       <c r="J62" s="3">
-        <v>12460500</v>
+        <v>12064500</v>
       </c>
       <c r="K62" s="3">
         <v>7251400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3018930000</v>
+        <v>2922980000</v>
       </c>
       <c r="E66" s="3">
-        <v>2824310000</v>
+        <v>2734550000</v>
       </c>
       <c r="F66" s="3">
-        <v>2598590000</v>
+        <v>2516000000</v>
       </c>
       <c r="G66" s="3">
-        <v>2562940000</v>
+        <v>2481480000</v>
       </c>
       <c r="H66" s="3">
-        <v>2537430000</v>
+        <v>2456780000</v>
       </c>
       <c r="I66" s="3">
-        <v>2491790000</v>
+        <v>2412600000</v>
       </c>
       <c r="J66" s="3">
-        <v>2385960000</v>
+        <v>2310120000</v>
       </c>
       <c r="K66" s="3">
         <v>2244820000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>98672800</v>
+        <v>95536700</v>
       </c>
       <c r="E72" s="3">
-        <v>95640100</v>
+        <v>92600500</v>
       </c>
       <c r="F72" s="3">
-        <v>93746100</v>
+        <v>90766600</v>
       </c>
       <c r="G72" s="3">
-        <v>88672000</v>
+        <v>85853800</v>
       </c>
       <c r="H72" s="3">
-        <v>81747600</v>
+        <v>79149500</v>
       </c>
       <c r="I72" s="3">
-        <v>75729300</v>
+        <v>73322500</v>
       </c>
       <c r="J72" s="3">
-        <v>69323100</v>
+        <v>67119800</v>
       </c>
       <c r="K72" s="3">
         <v>64503400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>148031000</v>
+        <v>143326000</v>
       </c>
       <c r="E76" s="3">
-        <v>140880000</v>
+        <v>136402000</v>
       </c>
       <c r="F76" s="3">
-        <v>142541000</v>
+        <v>138011000</v>
       </c>
       <c r="G76" s="3">
-        <v>141180000</v>
+        <v>136693000</v>
       </c>
       <c r="H76" s="3">
-        <v>134623000</v>
+        <v>130344000</v>
       </c>
       <c r="I76" s="3">
-        <v>136258000</v>
+        <v>131927000</v>
       </c>
       <c r="J76" s="3">
-        <v>135024000</v>
+        <v>130733000</v>
       </c>
       <c r="K76" s="3">
         <v>116101000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6845500</v>
+        <v>6628000</v>
       </c>
       <c r="E81" s="3">
-        <v>4653000</v>
+        <v>4505100</v>
       </c>
       <c r="F81" s="3">
-        <v>7688400</v>
+        <v>7444000</v>
       </c>
       <c r="G81" s="3">
-        <v>8718900</v>
+        <v>8441800</v>
       </c>
       <c r="H81" s="3">
-        <v>8161900</v>
+        <v>7902500</v>
       </c>
       <c r="I81" s="3">
-        <v>8381900</v>
+        <v>8115500</v>
       </c>
       <c r="J81" s="3">
-        <v>9107400</v>
+        <v>8818000</v>
       </c>
       <c r="K81" s="3">
         <v>8856800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3131500</v>
+        <v>3032000</v>
       </c>
       <c r="E83" s="3">
-        <v>6196000</v>
+        <v>5999100</v>
       </c>
       <c r="F83" s="3">
-        <v>2997200</v>
+        <v>2901900</v>
       </c>
       <c r="G83" s="3">
-        <v>2984900</v>
+        <v>2890000</v>
       </c>
       <c r="H83" s="3">
-        <v>2935000</v>
+        <v>2841800</v>
       </c>
       <c r="I83" s="3">
-        <v>2779200</v>
+        <v>2690900</v>
       </c>
       <c r="J83" s="3">
-        <v>2801100</v>
+        <v>2712100</v>
       </c>
       <c r="K83" s="3">
         <v>2664400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>307512600</v>
+        <v>297739200</v>
       </c>
       <c r="E89" s="3">
-        <v>71016000</v>
+        <v>68759000</v>
       </c>
       <c r="F89" s="3">
-        <v>49418000</v>
+        <v>47847400</v>
       </c>
       <c r="G89" s="3">
-        <v>108457900</v>
+        <v>105010900</v>
       </c>
       <c r="H89" s="3">
-        <v>61785100</v>
+        <v>59821400</v>
       </c>
       <c r="I89" s="3">
-        <v>59506500</v>
+        <v>57615300</v>
       </c>
       <c r="J89" s="3">
-        <v>-18463500</v>
+        <v>-17876700</v>
       </c>
       <c r="K89" s="3">
         <v>-37426700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1177600</v>
+        <v>-1140200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1120400</v>
+        <v>-1084800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1254500</v>
+        <v>-1214600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1408000</v>
+        <v>-1363200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1072500</v>
+        <v>-1038400</v>
       </c>
       <c r="I91" s="3">
-        <v>-1030200</v>
+        <v>-997400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1553800</v>
+        <v>-1504400</v>
       </c>
       <c r="K91" s="3">
         <v>-1386500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-89336400</v>
+        <v>-86497100</v>
       </c>
       <c r="E94" s="3">
-        <v>-29676000</v>
+        <v>-28732800</v>
       </c>
       <c r="F94" s="3">
-        <v>-49578700</v>
+        <v>-48003000</v>
       </c>
       <c r="G94" s="3">
-        <v>-4985400</v>
+        <v>-4826900</v>
       </c>
       <c r="H94" s="3">
-        <v>78475500</v>
+        <v>75981400</v>
       </c>
       <c r="I94" s="3">
-        <v>19736200</v>
+        <v>19109000</v>
       </c>
       <c r="J94" s="3">
-        <v>57279900</v>
+        <v>55459400</v>
       </c>
       <c r="K94" s="3">
         <v>54972800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2834800</v>
+        <v>-2744700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2683000</v>
+        <v>-2597700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2434000</v>
+        <v>-2356700</v>
       </c>
       <c r="G96" s="3">
-        <v>-2123800</v>
+        <v>-2056300</v>
       </c>
       <c r="H96" s="3">
-        <v>-2172200</v>
+        <v>-2103200</v>
       </c>
       <c r="I96" s="3">
-        <v>-2215700</v>
+        <v>-2145300</v>
       </c>
       <c r="J96" s="3">
-        <v>-2325600</v>
+        <v>-2251700</v>
       </c>
       <c r="K96" s="3">
         <v>-1979500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3841800</v>
+        <v>-3719700</v>
       </c>
       <c r="E100" s="3">
-        <v>-2217200</v>
+        <v>-2146700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4267200</v>
+        <v>-4131600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2559600</v>
+        <v>-2478300</v>
       </c>
       <c r="H100" s="3">
-        <v>-5907900</v>
+        <v>-5720100</v>
       </c>
       <c r="I100" s="3">
-        <v>-930400</v>
+        <v>-900800</v>
       </c>
       <c r="J100" s="3">
-        <v>-10189800</v>
+        <v>-9866000</v>
       </c>
       <c r="K100" s="3">
         <v>-9224900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2788800</v>
+        <v>2700100</v>
       </c>
       <c r="E101" s="3">
-        <v>-2748600</v>
+        <v>-2661300</v>
       </c>
       <c r="F101" s="3">
-        <v>-36900</v>
+        <v>-35800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2348900</v>
+        <v>-2274200</v>
       </c>
       <c r="H101" s="3">
-        <v>-400700</v>
+        <v>-388000</v>
       </c>
       <c r="I101" s="3">
-        <v>-1015000</v>
+        <v>-982800</v>
       </c>
       <c r="J101" s="3">
-        <v>2227100</v>
+        <v>2156400</v>
       </c>
       <c r="K101" s="3">
         <v>2733800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>217123100</v>
+        <v>210222500</v>
       </c>
       <c r="E102" s="3">
-        <v>36374200</v>
+        <v>35218100</v>
       </c>
       <c r="F102" s="3">
-        <v>-4464800</v>
+        <v>-4322900</v>
       </c>
       <c r="G102" s="3">
-        <v>98564100</v>
+        <v>95431500</v>
       </c>
       <c r="H102" s="3">
-        <v>133952000</v>
+        <v>129694700</v>
       </c>
       <c r="I102" s="3">
-        <v>77297400</v>
+        <v>74840700</v>
       </c>
       <c r="J102" s="3">
-        <v>30853700</v>
+        <v>29873100</v>
       </c>
       <c r="K102" s="3">
         <v>11055000</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22849200</v>
+        <v>20867000</v>
       </c>
       <c r="E8" s="3">
-        <v>32766300</v>
+        <v>29923800</v>
       </c>
       <c r="F8" s="3">
-        <v>31835700</v>
+        <v>29073900</v>
       </c>
       <c r="G8" s="3">
-        <v>26400300</v>
+        <v>24110000</v>
       </c>
       <c r="H8" s="3">
-        <v>24635800</v>
+        <v>22498600</v>
       </c>
       <c r="I8" s="3">
-        <v>23621700</v>
+        <v>21572500</v>
       </c>
       <c r="J8" s="3">
-        <v>23937200</v>
+        <v>21860600</v>
       </c>
       <c r="K8" s="3">
         <v>21715200</v>
@@ -955,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
-        <v>-2928900</v>
+        <v>-2674800</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10854500</v>
+        <v>9912800</v>
       </c>
       <c r="E17" s="3">
-        <v>18446300</v>
+        <v>16846100</v>
       </c>
       <c r="F17" s="3">
-        <v>16056900</v>
+        <v>14663900</v>
       </c>
       <c r="G17" s="3">
-        <v>10324200</v>
+        <v>9428500</v>
       </c>
       <c r="H17" s="3">
-        <v>8239600</v>
+        <v>7524800</v>
       </c>
       <c r="I17" s="3">
-        <v>7435800</v>
+        <v>6790800</v>
       </c>
       <c r="J17" s="3">
-        <v>6541400</v>
+        <v>5973900</v>
       </c>
       <c r="K17" s="3">
         <v>4326800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11994800</v>
+        <v>10954200</v>
       </c>
       <c r="E18" s="3">
-        <v>14320000</v>
+        <v>13077700</v>
       </c>
       <c r="F18" s="3">
-        <v>15778800</v>
+        <v>14409900</v>
       </c>
       <c r="G18" s="3">
-        <v>16076100</v>
+        <v>14681500</v>
       </c>
       <c r="H18" s="3">
-        <v>16396200</v>
+        <v>14973800</v>
       </c>
       <c r="I18" s="3">
-        <v>16185900</v>
+        <v>14781700</v>
       </c>
       <c r="J18" s="3">
-        <v>17395900</v>
+        <v>15886700</v>
       </c>
       <c r="K18" s="3">
         <v>17388300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-3106200</v>
+        <v>-2836700</v>
       </c>
       <c r="E20" s="3">
-        <v>-7244900</v>
+        <v>-6616300</v>
       </c>
       <c r="F20" s="3">
-        <v>-6009100</v>
+        <v>-5487800</v>
       </c>
       <c r="G20" s="3">
-        <v>-4054100</v>
+        <v>-3702400</v>
       </c>
       <c r="H20" s="3">
-        <v>-5279700</v>
+        <v>-4821700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3401400</v>
+        <v>-3106300</v>
       </c>
       <c r="J20" s="3">
-        <v>-3622000</v>
+        <v>-3307800</v>
       </c>
       <c r="K20" s="3">
         <v>-3254200</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>11956100</v>
+        <v>10850900</v>
       </c>
       <c r="E21" s="3">
-        <v>13144600</v>
+        <v>11869700</v>
       </c>
       <c r="F21" s="3">
-        <v>12705600</v>
+        <v>11538200</v>
       </c>
       <c r="G21" s="3">
-        <v>14945900</v>
+        <v>13584500</v>
       </c>
       <c r="H21" s="3">
-        <v>13991600</v>
+        <v>12714100</v>
       </c>
       <c r="I21" s="3">
-        <v>15506900</v>
+        <v>14101300</v>
       </c>
       <c r="J21" s="3">
-        <v>16517800</v>
+        <v>15024000</v>
       </c>
       <c r="K21" s="3">
         <v>16810200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8888600</v>
+        <v>8117500</v>
       </c>
       <c r="E23" s="3">
-        <v>7075100</v>
+        <v>6461400</v>
       </c>
       <c r="F23" s="3">
-        <v>9769600</v>
+        <v>8922100</v>
       </c>
       <c r="G23" s="3">
-        <v>12022000</v>
+        <v>10979000</v>
       </c>
       <c r="H23" s="3">
-        <v>11116500</v>
+        <v>10152100</v>
       </c>
       <c r="I23" s="3">
-        <v>12784500</v>
+        <v>11675400</v>
       </c>
       <c r="J23" s="3">
-        <v>13773900</v>
+        <v>12579000</v>
       </c>
       <c r="K23" s="3">
         <v>14134200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1578600</v>
+        <v>1441700</v>
       </c>
       <c r="E24" s="3">
-        <v>1884300</v>
+        <v>1720800</v>
       </c>
       <c r="F24" s="3">
-        <v>1668200</v>
+        <v>1523500</v>
       </c>
       <c r="G24" s="3">
-        <v>2673600</v>
+        <v>2441700</v>
       </c>
       <c r="H24" s="3">
-        <v>2918800</v>
+        <v>2665600</v>
       </c>
       <c r="I24" s="3">
-        <v>3925500</v>
+        <v>3585000</v>
       </c>
       <c r="J24" s="3">
-        <v>3990200</v>
+        <v>3644100</v>
       </c>
       <c r="K24" s="3">
         <v>4030300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7309900</v>
+        <v>6675800</v>
       </c>
       <c r="E26" s="3">
-        <v>5190900</v>
+        <v>4740600</v>
       </c>
       <c r="F26" s="3">
-        <v>8101400</v>
+        <v>7398600</v>
       </c>
       <c r="G26" s="3">
-        <v>9348400</v>
+        <v>8537400</v>
       </c>
       <c r="H26" s="3">
-        <v>8197800</v>
+        <v>7486600</v>
       </c>
       <c r="I26" s="3">
-        <v>8859000</v>
+        <v>8090400</v>
       </c>
       <c r="J26" s="3">
-        <v>9783700</v>
+        <v>8934900</v>
       </c>
       <c r="K26" s="3">
         <v>10103900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6628000</v>
+        <v>6053000</v>
       </c>
       <c r="E27" s="3">
-        <v>4505100</v>
+        <v>4114300</v>
       </c>
       <c r="F27" s="3">
-        <v>7444000</v>
+        <v>6798200</v>
       </c>
       <c r="G27" s="3">
-        <v>8441800</v>
+        <v>7709500</v>
       </c>
       <c r="H27" s="3">
-        <v>7902500</v>
+        <v>7217000</v>
       </c>
       <c r="I27" s="3">
-        <v>8115500</v>
+        <v>7411400</v>
       </c>
       <c r="J27" s="3">
-        <v>8818000</v>
+        <v>8053000</v>
       </c>
       <c r="K27" s="3">
         <v>8856800</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>3106200</v>
+        <v>2836700</v>
       </c>
       <c r="E32" s="3">
-        <v>7244900</v>
+        <v>6616300</v>
       </c>
       <c r="F32" s="3">
-        <v>6009100</v>
+        <v>5487800</v>
       </c>
       <c r="G32" s="3">
-        <v>4054100</v>
+        <v>3702400</v>
       </c>
       <c r="H32" s="3">
-        <v>5279700</v>
+        <v>4821700</v>
       </c>
       <c r="I32" s="3">
-        <v>3401400</v>
+        <v>3106300</v>
       </c>
       <c r="J32" s="3">
-        <v>3622000</v>
+        <v>3307800</v>
       </c>
       <c r="K32" s="3">
         <v>3254200</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6628000</v>
+        <v>6053000</v>
       </c>
       <c r="E33" s="3">
-        <v>4505100</v>
+        <v>4114300</v>
       </c>
       <c r="F33" s="3">
-        <v>7444000</v>
+        <v>6798200</v>
       </c>
       <c r="G33" s="3">
-        <v>8441800</v>
+        <v>7709500</v>
       </c>
       <c r="H33" s="3">
-        <v>7902500</v>
+        <v>7217000</v>
       </c>
       <c r="I33" s="3">
-        <v>8115500</v>
+        <v>7411400</v>
       </c>
       <c r="J33" s="3">
-        <v>8818000</v>
+        <v>8053000</v>
       </c>
       <c r="K33" s="3">
         <v>8856800</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6628000</v>
+        <v>6053000</v>
       </c>
       <c r="E35" s="3">
-        <v>4505100</v>
+        <v>4114300</v>
       </c>
       <c r="F35" s="3">
-        <v>7444000</v>
+        <v>6798200</v>
       </c>
       <c r="G35" s="3">
-        <v>8441800</v>
+        <v>7709500</v>
       </c>
       <c r="H35" s="3">
-        <v>7902500</v>
+        <v>7217000</v>
       </c>
       <c r="I35" s="3">
-        <v>8115500</v>
+        <v>7411400</v>
       </c>
       <c r="J35" s="3">
-        <v>8818000</v>
+        <v>8053000</v>
       </c>
       <c r="K35" s="3">
         <v>8856800</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>878426000</v>
+        <v>802220000</v>
       </c>
       <c r="E41" s="3">
-        <v>668203000</v>
+        <v>610235000</v>
       </c>
       <c r="F41" s="3">
-        <v>632985000</v>
+        <v>578072000</v>
       </c>
       <c r="G41" s="3">
-        <v>637308000</v>
+        <v>582020000</v>
       </c>
       <c r="H41" s="3">
-        <v>541876000</v>
+        <v>494867000</v>
       </c>
       <c r="I41" s="3">
-        <v>419320000</v>
+        <v>382943000</v>
       </c>
       <c r="J41" s="3">
-        <v>345365000</v>
+        <v>315404000</v>
       </c>
       <c r="K41" s="3">
         <v>219564000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>396799000</v>
+        <v>362376000</v>
       </c>
       <c r="E42" s="3">
-        <v>485114000</v>
+        <v>443030000</v>
       </c>
       <c r="F42" s="3">
-        <v>337574000</v>
+        <v>308289000</v>
       </c>
       <c r="G42" s="3">
-        <v>336205000</v>
+        <v>307038000</v>
       </c>
       <c r="H42" s="3">
-        <v>405658000</v>
+        <v>370466000</v>
       </c>
       <c r="I42" s="3">
-        <v>351059000</v>
+        <v>320604000</v>
       </c>
       <c r="J42" s="3">
-        <v>342472000</v>
+        <v>312762000</v>
       </c>
       <c r="K42" s="3">
         <v>341792000</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23571800</v>
+        <v>21526900</v>
       </c>
       <c r="E47" s="3">
-        <v>23036700</v>
+        <v>21038200</v>
       </c>
       <c r="F47" s="3">
-        <v>25269200</v>
+        <v>23077000</v>
       </c>
       <c r="G47" s="3">
-        <v>23628700</v>
+        <v>21578800</v>
       </c>
       <c r="H47" s="3">
-        <v>23502500</v>
+        <v>21463600</v>
       </c>
       <c r="I47" s="3">
-        <v>22086600</v>
+        <v>20170600</v>
       </c>
       <c r="J47" s="3">
-        <v>20657400</v>
+        <v>18865300</v>
       </c>
       <c r="K47" s="3">
         <v>19602600</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11058300</v>
+        <v>10099000</v>
       </c>
       <c r="E48" s="3">
-        <v>11257800</v>
+        <v>10281200</v>
       </c>
       <c r="F48" s="3">
-        <v>11395800</v>
+        <v>10407200</v>
       </c>
       <c r="G48" s="3">
-        <v>11685900</v>
+        <v>10672100</v>
       </c>
       <c r="H48" s="3">
-        <v>11591500</v>
+        <v>10585900</v>
       </c>
       <c r="I48" s="3">
-        <v>11618200</v>
+        <v>10610300</v>
       </c>
       <c r="J48" s="3">
-        <v>11538800</v>
+        <v>10537700</v>
       </c>
       <c r="K48" s="3">
         <v>14106700</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12249900</v>
+        <v>11187200</v>
       </c>
       <c r="E49" s="3">
-        <v>12781400</v>
+        <v>11672600</v>
       </c>
       <c r="F49" s="3">
-        <v>9694600</v>
+        <v>8853600</v>
       </c>
       <c r="G49" s="3">
-        <v>10634100</v>
+        <v>9711600</v>
       </c>
       <c r="H49" s="3">
-        <v>10729700</v>
+        <v>9798900</v>
       </c>
       <c r="I49" s="3">
-        <v>10702800</v>
+        <v>9774300</v>
       </c>
       <c r="J49" s="3">
-        <v>11065800</v>
+        <v>10105800</v>
       </c>
       <c r="K49" s="3">
         <v>13587500</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11503300</v>
+        <v>10505300</v>
       </c>
       <c r="E52" s="3">
-        <v>7162800</v>
+        <v>6541400</v>
       </c>
       <c r="F52" s="3">
-        <v>7919700</v>
+        <v>7232700</v>
       </c>
       <c r="G52" s="3">
-        <v>8216800</v>
+        <v>7503900</v>
       </c>
       <c r="H52" s="3">
-        <v>6206500</v>
+        <v>5668100</v>
       </c>
       <c r="I52" s="3">
-        <v>4296500</v>
+        <v>3923800</v>
       </c>
       <c r="J52" s="3">
-        <v>5285900</v>
+        <v>4827300</v>
       </c>
       <c r="K52" s="3">
         <v>5418000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3066310000</v>
+        <v>2800300000</v>
       </c>
       <c r="E54" s="3">
-        <v>2870950000</v>
+        <v>2621890000</v>
       </c>
       <c r="F54" s="3">
-        <v>2654010000</v>
+        <v>2423770000</v>
       </c>
       <c r="G54" s="3">
-        <v>2618180000</v>
+        <v>2391040000</v>
       </c>
       <c r="H54" s="3">
-        <v>2587130000</v>
+        <v>2362690000</v>
       </c>
       <c r="I54" s="3">
-        <v>2544520000</v>
+        <v>2323780000</v>
       </c>
       <c r="J54" s="3">
-        <v>2440860000</v>
+        <v>2229110000</v>
       </c>
       <c r="K54" s="3">
         <v>2364490000</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1025100</v>
+        <v>936200</v>
       </c>
       <c r="E59" s="3">
-        <v>958900</v>
+        <v>875700</v>
       </c>
       <c r="F59" s="3">
-        <v>681800</v>
+        <v>622600</v>
       </c>
       <c r="G59" s="3">
-        <v>743800</v>
+        <v>679300</v>
       </c>
       <c r="H59" s="3">
-        <v>696100</v>
+        <v>635700</v>
       </c>
       <c r="I59" s="3">
-        <v>772900</v>
+        <v>705900</v>
       </c>
       <c r="J59" s="3">
-        <v>774600</v>
+        <v>707400</v>
       </c>
       <c r="K59" s="3">
         <v>729300</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>375482000</v>
+        <v>342908000</v>
       </c>
       <c r="E61" s="3">
-        <v>325130000</v>
+        <v>296924000</v>
       </c>
       <c r="F61" s="3">
-        <v>242660000</v>
+        <v>221609000</v>
       </c>
       <c r="G61" s="3">
-        <v>231212000</v>
+        <v>211154000</v>
       </c>
       <c r="H61" s="3">
-        <v>229157000</v>
+        <v>209277000</v>
       </c>
       <c r="I61" s="3">
-        <v>184869000</v>
+        <v>168831000</v>
       </c>
       <c r="J61" s="3">
-        <v>187728000</v>
+        <v>171442000</v>
       </c>
       <c r="K61" s="3">
         <v>164827000</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12093300</v>
+        <v>11044200</v>
       </c>
       <c r="E62" s="3">
-        <v>10254800</v>
+        <v>9365100</v>
       </c>
       <c r="F62" s="3">
-        <v>11112000</v>
+        <v>10148000</v>
       </c>
       <c r="G62" s="3">
-        <v>11915600</v>
+        <v>10881900</v>
       </c>
       <c r="H62" s="3">
-        <v>11479300</v>
+        <v>10483500</v>
       </c>
       <c r="I62" s="3">
-        <v>10988700</v>
+        <v>10035400</v>
       </c>
       <c r="J62" s="3">
-        <v>12064500</v>
+        <v>11017900</v>
       </c>
       <c r="K62" s="3">
         <v>7251400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2922980000</v>
+        <v>2669410000</v>
       </c>
       <c r="E66" s="3">
-        <v>2734550000</v>
+        <v>2497320000</v>
       </c>
       <c r="F66" s="3">
-        <v>2516000000</v>
+        <v>2297730000</v>
       </c>
       <c r="G66" s="3">
-        <v>2481480000</v>
+        <v>2266210000</v>
       </c>
       <c r="H66" s="3">
-        <v>2456780000</v>
+        <v>2243650000</v>
       </c>
       <c r="I66" s="3">
-        <v>2412600000</v>
+        <v>2203300000</v>
       </c>
       <c r="J66" s="3">
-        <v>2310120000</v>
+        <v>2109720000</v>
       </c>
       <c r="K66" s="3">
         <v>2244820000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>95536700</v>
+        <v>87248700</v>
       </c>
       <c r="E72" s="3">
-        <v>92600500</v>
+        <v>84567100</v>
       </c>
       <c r="F72" s="3">
-        <v>90766600</v>
+        <v>82892400</v>
       </c>
       <c r="G72" s="3">
-        <v>85853800</v>
+        <v>78405800</v>
       </c>
       <c r="H72" s="3">
-        <v>79149500</v>
+        <v>72283000</v>
       </c>
       <c r="I72" s="3">
-        <v>73322500</v>
+        <v>66961600</v>
       </c>
       <c r="J72" s="3">
-        <v>67119800</v>
+        <v>61297000</v>
       </c>
       <c r="K72" s="3">
         <v>64503400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>143326000</v>
+        <v>130892000</v>
       </c>
       <c r="E76" s="3">
-        <v>136402000</v>
+        <v>124569000</v>
       </c>
       <c r="F76" s="3">
-        <v>138011000</v>
+        <v>126038000</v>
       </c>
       <c r="G76" s="3">
-        <v>136693000</v>
+        <v>124834000</v>
       </c>
       <c r="H76" s="3">
-        <v>130344000</v>
+        <v>119037000</v>
       </c>
       <c r="I76" s="3">
-        <v>131927000</v>
+        <v>120482000</v>
       </c>
       <c r="J76" s="3">
-        <v>130733000</v>
+        <v>119391000</v>
       </c>
       <c r="K76" s="3">
         <v>116101000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6628000</v>
+        <v>6053000</v>
       </c>
       <c r="E81" s="3">
-        <v>4505100</v>
+        <v>4114300</v>
       </c>
       <c r="F81" s="3">
-        <v>7444000</v>
+        <v>6798200</v>
       </c>
       <c r="G81" s="3">
-        <v>8441800</v>
+        <v>7709500</v>
       </c>
       <c r="H81" s="3">
-        <v>7902500</v>
+        <v>7217000</v>
       </c>
       <c r="I81" s="3">
-        <v>8115500</v>
+        <v>7411400</v>
       </c>
       <c r="J81" s="3">
-        <v>8818000</v>
+        <v>8053000</v>
       </c>
       <c r="K81" s="3">
         <v>8856800</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3032000</v>
+        <v>2769000</v>
       </c>
       <c r="E83" s="3">
-        <v>5999100</v>
+        <v>5478600</v>
       </c>
       <c r="F83" s="3">
-        <v>2901900</v>
+        <v>2650200</v>
       </c>
       <c r="G83" s="3">
-        <v>2890000</v>
+        <v>2639300</v>
       </c>
       <c r="H83" s="3">
-        <v>2841800</v>
+        <v>2595200</v>
       </c>
       <c r="I83" s="3">
-        <v>2690900</v>
+        <v>2457400</v>
       </c>
       <c r="J83" s="3">
-        <v>2712100</v>
+        <v>2476800</v>
       </c>
       <c r="K83" s="3">
         <v>2664400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>297739200</v>
+        <v>271909500</v>
       </c>
       <c r="E89" s="3">
-        <v>68759000</v>
+        <v>62793900</v>
       </c>
       <c r="F89" s="3">
-        <v>47847400</v>
+        <v>43696500</v>
       </c>
       <c r="G89" s="3">
-        <v>105010900</v>
+        <v>95901000</v>
       </c>
       <c r="H89" s="3">
-        <v>59821400</v>
+        <v>54631800</v>
       </c>
       <c r="I89" s="3">
-        <v>57615300</v>
+        <v>52617000</v>
       </c>
       <c r="J89" s="3">
-        <v>-17876700</v>
+        <v>-16325900</v>
       </c>
       <c r="K89" s="3">
         <v>-37426700</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1140200</v>
+        <v>-1041300</v>
       </c>
       <c r="E91" s="3">
-        <v>-1084800</v>
+        <v>-990700</v>
       </c>
       <c r="F91" s="3">
-        <v>-1214600</v>
+        <v>-1109200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1363200</v>
+        <v>-1245000</v>
       </c>
       <c r="H91" s="3">
-        <v>-1038400</v>
+        <v>-948300</v>
       </c>
       <c r="I91" s="3">
-        <v>-997400</v>
+        <v>-910900</v>
       </c>
       <c r="J91" s="3">
-        <v>-1504400</v>
+        <v>-1373900</v>
       </c>
       <c r="K91" s="3">
         <v>-1386500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-86497100</v>
+        <v>-78993300</v>
       </c>
       <c r="E94" s="3">
-        <v>-28732800</v>
+        <v>-26240200</v>
       </c>
       <c r="F94" s="3">
-        <v>-48003000</v>
+        <v>-43838600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4826900</v>
+        <v>-4408200</v>
       </c>
       <c r="H94" s="3">
-        <v>75981400</v>
+        <v>69389800</v>
       </c>
       <c r="I94" s="3">
-        <v>19109000</v>
+        <v>17451200</v>
       </c>
       <c r="J94" s="3">
-        <v>55459400</v>
+        <v>50648200</v>
       </c>
       <c r="K94" s="3">
         <v>54972800</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2744700</v>
+        <v>-2506600</v>
       </c>
       <c r="E96" s="3">
-        <v>-2597700</v>
+        <v>-2372300</v>
       </c>
       <c r="F96" s="3">
-        <v>-2356700</v>
+        <v>-2152200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2056300</v>
+        <v>-1877900</v>
       </c>
       <c r="H96" s="3">
-        <v>-2103200</v>
+        <v>-1920700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2145300</v>
+        <v>-1959200</v>
       </c>
       <c r="J96" s="3">
-        <v>-2251700</v>
+        <v>-2056400</v>
       </c>
       <c r="K96" s="3">
         <v>-1979500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3719700</v>
+        <v>-3397000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2146700</v>
+        <v>-1960500</v>
       </c>
       <c r="F100" s="3">
-        <v>-4131600</v>
+        <v>-3773200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2478300</v>
+        <v>-2263300</v>
       </c>
       <c r="H100" s="3">
-        <v>-5720100</v>
+        <v>-5223900</v>
       </c>
       <c r="I100" s="3">
-        <v>-900800</v>
+        <v>-822600</v>
       </c>
       <c r="J100" s="3">
-        <v>-9866000</v>
+        <v>-9010100</v>
       </c>
       <c r="K100" s="3">
         <v>-9224900</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2700100</v>
+        <v>2465900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2661300</v>
+        <v>-2430400</v>
       </c>
       <c r="F101" s="3">
-        <v>-35800</v>
+        <v>-32700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2274200</v>
+        <v>-2076900</v>
       </c>
       <c r="H101" s="3">
-        <v>-388000</v>
+        <v>-354300</v>
       </c>
       <c r="I101" s="3">
-        <v>-982800</v>
+        <v>-897500</v>
       </c>
       <c r="J101" s="3">
-        <v>2156400</v>
+        <v>1969300</v>
       </c>
       <c r="K101" s="3">
         <v>2733800</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>210222500</v>
+        <v>191985100</v>
       </c>
       <c r="E102" s="3">
-        <v>35218100</v>
+        <v>32162900</v>
       </c>
       <c r="F102" s="3">
-        <v>-4322900</v>
+        <v>-3947900</v>
       </c>
       <c r="G102" s="3">
-        <v>95431500</v>
+        <v>87152600</v>
       </c>
       <c r="H102" s="3">
-        <v>129694700</v>
+        <v>118443300</v>
       </c>
       <c r="I102" s="3">
-        <v>74840700</v>
+        <v>68348100</v>
       </c>
       <c r="J102" s="3">
-        <v>29873100</v>
+        <v>27281500</v>
       </c>
       <c r="K102" s="3">
         <v>11055000</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42825</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41729</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41364</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40999</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20867000</v>
+        <v>18966000</v>
       </c>
       <c r="E8" s="3">
-        <v>29923800</v>
+        <v>19634800</v>
       </c>
       <c r="F8" s="3">
-        <v>29073900</v>
+        <v>28156800</v>
       </c>
       <c r="G8" s="3">
-        <v>24110000</v>
+        <v>27357100</v>
       </c>
       <c r="H8" s="3">
-        <v>22498600</v>
+        <v>22686300</v>
       </c>
       <c r="I8" s="3">
-        <v>21572500</v>
+        <v>21170000</v>
       </c>
       <c r="J8" s="3">
+        <v>20298600</v>
+      </c>
+      <c r="K8" s="3">
         <v>21860600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21715200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21242900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23467400</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,20 +964,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <v>-2674800</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>-2516900</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -975,15 +997,18 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>-2775300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9912800</v>
+        <v>6148700</v>
       </c>
       <c r="E17" s="3">
-        <v>16846100</v>
+        <v>9327500</v>
       </c>
       <c r="F17" s="3">
-        <v>14663900</v>
+        <v>15851300</v>
       </c>
       <c r="G17" s="3">
-        <v>9428500</v>
+        <v>13798000</v>
       </c>
       <c r="H17" s="3">
-        <v>7524800</v>
+        <v>8871800</v>
       </c>
       <c r="I17" s="3">
-        <v>6790800</v>
+        <v>7080500</v>
       </c>
       <c r="J17" s="3">
+        <v>6389800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5973900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4326800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5693900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7810100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>10954200</v>
+        <v>12817300</v>
       </c>
       <c r="E18" s="3">
-        <v>13077700</v>
+        <v>10307300</v>
       </c>
       <c r="F18" s="3">
-        <v>14409900</v>
+        <v>12305500</v>
       </c>
       <c r="G18" s="3">
-        <v>14681500</v>
+        <v>13559000</v>
       </c>
       <c r="H18" s="3">
-        <v>14973800</v>
+        <v>13814500</v>
       </c>
       <c r="I18" s="3">
-        <v>14781700</v>
+        <v>14089600</v>
       </c>
       <c r="J18" s="3">
+        <v>13908900</v>
+      </c>
+      <c r="K18" s="3">
         <v>15886700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17388300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15549100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15657400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2836700</v>
+        <v>-1896600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6616300</v>
+        <v>-2669200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5487800</v>
+        <v>-6225600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3702400</v>
+        <v>-5163800</v>
       </c>
       <c r="H20" s="3">
-        <v>-4821700</v>
+        <v>-3483800</v>
       </c>
       <c r="I20" s="3">
-        <v>-3106300</v>
+        <v>-4536900</v>
       </c>
       <c r="J20" s="3">
+        <v>-2922900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3307800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3254200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3243100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7973900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>10850900</v>
+        <v>13568700</v>
       </c>
       <c r="E21" s="3">
-        <v>11869700</v>
+        <v>10229400</v>
       </c>
       <c r="F21" s="3">
-        <v>11538200</v>
+        <v>11206800</v>
       </c>
       <c r="G21" s="3">
-        <v>13584500</v>
+        <v>10875300</v>
       </c>
       <c r="H21" s="3">
-        <v>12714100</v>
+        <v>12800700</v>
       </c>
       <c r="I21" s="3">
-        <v>14101300</v>
+        <v>11981300</v>
       </c>
       <c r="J21" s="3">
+        <v>13285700</v>
+      </c>
+      <c r="K21" s="3">
         <v>15024000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16810200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14807800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10461900</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>8117500</v>
+        <v>10920700</v>
       </c>
       <c r="E23" s="3">
-        <v>6461400</v>
+        <v>7638100</v>
       </c>
       <c r="F23" s="3">
-        <v>8922100</v>
+        <v>6079800</v>
       </c>
       <c r="G23" s="3">
-        <v>10979000</v>
+        <v>8395200</v>
       </c>
       <c r="H23" s="3">
-        <v>10152100</v>
+        <v>10330700</v>
       </c>
       <c r="I23" s="3">
-        <v>11675400</v>
+        <v>9552700</v>
       </c>
       <c r="J23" s="3">
+        <v>10986000</v>
+      </c>
+      <c r="K23" s="3">
         <v>12579000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14134200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12305900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7683500</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1441700</v>
+        <v>2077400</v>
       </c>
       <c r="E24" s="3">
-        <v>1720800</v>
+        <v>1356500</v>
       </c>
       <c r="F24" s="3">
-        <v>1523500</v>
+        <v>1619200</v>
       </c>
       <c r="G24" s="3">
-        <v>2441700</v>
+        <v>1433500</v>
       </c>
       <c r="H24" s="3">
-        <v>2665600</v>
+        <v>2297500</v>
       </c>
       <c r="I24" s="3">
-        <v>3585000</v>
+        <v>2508200</v>
       </c>
       <c r="J24" s="3">
+        <v>3373300</v>
+      </c>
+      <c r="K24" s="3">
         <v>3644100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4030300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3597700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3879900</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6675800</v>
+        <v>8843300</v>
       </c>
       <c r="E26" s="3">
-        <v>4740600</v>
+        <v>6281600</v>
       </c>
       <c r="F26" s="3">
-        <v>7398600</v>
+        <v>4460600</v>
       </c>
       <c r="G26" s="3">
-        <v>8537400</v>
+        <v>6961700</v>
       </c>
       <c r="H26" s="3">
-        <v>7486600</v>
+        <v>8033200</v>
       </c>
       <c r="I26" s="3">
-        <v>8090400</v>
+        <v>7044500</v>
       </c>
       <c r="J26" s="3">
+        <v>7612700</v>
+      </c>
+      <c r="K26" s="3">
         <v>8934900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10103900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8708200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3803600</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6053000</v>
+        <v>8289100</v>
       </c>
       <c r="E27" s="3">
-        <v>4114300</v>
+        <v>5695500</v>
       </c>
       <c r="F27" s="3">
-        <v>6798200</v>
+        <v>3871300</v>
       </c>
       <c r="G27" s="3">
-        <v>7709500</v>
+        <v>6396800</v>
       </c>
       <c r="H27" s="3">
-        <v>7217000</v>
+        <v>7254200</v>
       </c>
       <c r="I27" s="3">
-        <v>7411400</v>
+        <v>6790800</v>
       </c>
       <c r="J27" s="3">
+        <v>6973800</v>
+      </c>
+      <c r="K27" s="3">
         <v>8053000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8856800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7587300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3600600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2836700</v>
+        <v>1896600</v>
       </c>
       <c r="E32" s="3">
-        <v>6616300</v>
+        <v>2669200</v>
       </c>
       <c r="F32" s="3">
-        <v>5487800</v>
+        <v>6225600</v>
       </c>
       <c r="G32" s="3">
-        <v>3702400</v>
+        <v>5163800</v>
       </c>
       <c r="H32" s="3">
-        <v>4821700</v>
+        <v>3483800</v>
       </c>
       <c r="I32" s="3">
-        <v>3106300</v>
+        <v>4536900</v>
       </c>
       <c r="J32" s="3">
+        <v>2922900</v>
+      </c>
+      <c r="K32" s="3">
         <v>3307800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3254200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3243100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7973900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6053000</v>
+        <v>8289100</v>
       </c>
       <c r="E33" s="3">
-        <v>4114300</v>
+        <v>5695500</v>
       </c>
       <c r="F33" s="3">
-        <v>6798200</v>
+        <v>3871300</v>
       </c>
       <c r="G33" s="3">
-        <v>7709500</v>
+        <v>6396800</v>
       </c>
       <c r="H33" s="3">
-        <v>7217000</v>
+        <v>7254200</v>
       </c>
       <c r="I33" s="3">
-        <v>7411400</v>
+        <v>6790800</v>
       </c>
       <c r="J33" s="3">
+        <v>6973800</v>
+      </c>
+      <c r="K33" s="3">
         <v>8053000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8856800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7587300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3600600</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6053000</v>
+        <v>8289100</v>
       </c>
       <c r="E35" s="3">
-        <v>4114300</v>
+        <v>5695500</v>
       </c>
       <c r="F35" s="3">
-        <v>6798200</v>
+        <v>3871300</v>
       </c>
       <c r="G35" s="3">
-        <v>7709500</v>
+        <v>6396800</v>
       </c>
       <c r="H35" s="3">
-        <v>7217000</v>
+        <v>7254200</v>
       </c>
       <c r="I35" s="3">
-        <v>7411400</v>
+        <v>6790800</v>
       </c>
       <c r="J35" s="3">
+        <v>6973800</v>
+      </c>
+      <c r="K35" s="3">
         <v>8053000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8856800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7587300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3600600</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42825</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41729</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41364</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40999</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>802220000</v>
+        <v>811894000</v>
       </c>
       <c r="E41" s="3">
-        <v>610235000</v>
+        <v>754849000</v>
       </c>
       <c r="F41" s="3">
-        <v>578072000</v>
+        <v>574200000</v>
       </c>
       <c r="G41" s="3">
-        <v>582020000</v>
+        <v>543937000</v>
       </c>
       <c r="H41" s="3">
-        <v>494867000</v>
+        <v>547651000</v>
       </c>
       <c r="I41" s="3">
-        <v>382943000</v>
+        <v>465645000</v>
       </c>
       <c r="J41" s="3">
+        <v>360330000</v>
+      </c>
+      <c r="K41" s="3">
         <v>315404000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>219564000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>104153000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>82518400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>362376000</v>
+        <v>323771000</v>
       </c>
       <c r="E42" s="3">
-        <v>443030000</v>
+        <v>340977000</v>
       </c>
       <c r="F42" s="3">
-        <v>308289000</v>
+        <v>416869000</v>
       </c>
       <c r="G42" s="3">
-        <v>307038000</v>
+        <v>290084000</v>
       </c>
       <c r="H42" s="3">
-        <v>370466000</v>
+        <v>288908000</v>
       </c>
       <c r="I42" s="3">
-        <v>320604000</v>
+        <v>348590000</v>
       </c>
       <c r="J42" s="3">
+        <v>301672000</v>
+      </c>
+      <c r="K42" s="3">
         <v>312762000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>341792000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>311254000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>398474000</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>21526900</v>
+        <v>24132600</v>
       </c>
       <c r="E47" s="3">
-        <v>21038200</v>
+        <v>20255800</v>
       </c>
       <c r="F47" s="3">
-        <v>23077000</v>
+        <v>19795900</v>
       </c>
       <c r="G47" s="3">
-        <v>21578800</v>
+        <v>21714300</v>
       </c>
       <c r="H47" s="3">
-        <v>21463600</v>
+        <v>20304600</v>
       </c>
       <c r="I47" s="3">
-        <v>20170600</v>
+        <v>20196200</v>
       </c>
       <c r="J47" s="3">
+        <v>18979500</v>
+      </c>
+      <c r="K47" s="3">
         <v>18865300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19602600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16095600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>10221000</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10099000</v>
+        <v>9060000</v>
       </c>
       <c r="E48" s="3">
-        <v>10281200</v>
+        <v>9502600</v>
       </c>
       <c r="F48" s="3">
-        <v>10407200</v>
+        <v>9674100</v>
       </c>
       <c r="G48" s="3">
-        <v>10672100</v>
+        <v>9792700</v>
       </c>
       <c r="H48" s="3">
-        <v>10585900</v>
+        <v>10041900</v>
       </c>
       <c r="I48" s="3">
-        <v>10610300</v>
+        <v>9960800</v>
       </c>
       <c r="J48" s="3">
+        <v>9983800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10537700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14106700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12768600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8926800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11187200</v>
+        <v>9853200</v>
       </c>
       <c r="E49" s="3">
-        <v>11672600</v>
+        <v>10526600</v>
       </c>
       <c r="F49" s="3">
-        <v>8853600</v>
+        <v>10983300</v>
       </c>
       <c r="G49" s="3">
-        <v>9711600</v>
+        <v>8330800</v>
       </c>
       <c r="H49" s="3">
-        <v>9798900</v>
+        <v>9138100</v>
       </c>
       <c r="I49" s="3">
-        <v>9774300</v>
+        <v>9220200</v>
       </c>
       <c r="J49" s="3">
+        <v>9197100</v>
+      </c>
+      <c r="K49" s="3">
         <v>10105800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13587500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9920800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>11306900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10505300</v>
+        <v>11643900</v>
       </c>
       <c r="E52" s="3">
-        <v>6541400</v>
+        <v>9885000</v>
       </c>
       <c r="F52" s="3">
-        <v>7232700</v>
+        <v>6155200</v>
       </c>
       <c r="G52" s="3">
-        <v>7503900</v>
+        <v>6805600</v>
       </c>
       <c r="H52" s="3">
-        <v>5668100</v>
+        <v>7060800</v>
       </c>
       <c r="I52" s="3">
-        <v>3923800</v>
+        <v>5333400</v>
       </c>
       <c r="J52" s="3">
+        <v>3692100</v>
+      </c>
+      <c r="K52" s="3">
         <v>4827300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5418000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>870900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>9184500</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2800300000</v>
+        <v>2739450000</v>
       </c>
       <c r="E54" s="3">
-        <v>2621890000</v>
+        <v>2634940000</v>
       </c>
       <c r="F54" s="3">
-        <v>2423770000</v>
+        <v>2467070000</v>
       </c>
       <c r="G54" s="3">
-        <v>2391040000</v>
+        <v>2280650000</v>
       </c>
       <c r="H54" s="3">
-        <v>2362690000</v>
+        <v>2249850000</v>
       </c>
       <c r="I54" s="3">
-        <v>2323780000</v>
+        <v>2223170000</v>
       </c>
       <c r="J54" s="3">
+        <v>2186560000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2229110000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2364490000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2131590000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1945430000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,8 +2397,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2301,11 +2431,14 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>18539300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,45 +2472,51 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>936200</v>
+        <v>1015900</v>
       </c>
       <c r="E59" s="3">
-        <v>875700</v>
+        <v>880900</v>
       </c>
       <c r="F59" s="3">
-        <v>622600</v>
+        <v>824000</v>
       </c>
       <c r="G59" s="3">
-        <v>679300</v>
+        <v>585900</v>
       </c>
       <c r="H59" s="3">
-        <v>635700</v>
+        <v>639200</v>
       </c>
       <c r="I59" s="3">
-        <v>705900</v>
+        <v>598200</v>
       </c>
       <c r="J59" s="3">
+        <v>664200</v>
+      </c>
+      <c r="K59" s="3">
         <v>707400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>729300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>578100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19594900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>342908000</v>
+        <v>330002000</v>
       </c>
       <c r="E61" s="3">
-        <v>296924000</v>
+        <v>322659000</v>
       </c>
       <c r="F61" s="3">
-        <v>221609000</v>
+        <v>279391000</v>
       </c>
       <c r="G61" s="3">
-        <v>211154000</v>
+        <v>208523000</v>
       </c>
       <c r="H61" s="3">
-        <v>209277000</v>
+        <v>198685000</v>
       </c>
       <c r="I61" s="3">
-        <v>168831000</v>
+        <v>196919000</v>
       </c>
       <c r="J61" s="3">
+        <v>158862000</v>
+      </c>
+      <c r="K61" s="3">
         <v>171442000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>164827000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>153373000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>113841000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11044200</v>
+        <v>6864800</v>
       </c>
       <c r="E62" s="3">
-        <v>9365100</v>
+        <v>10392000</v>
       </c>
       <c r="F62" s="3">
-        <v>10148000</v>
+        <v>8812100</v>
       </c>
       <c r="G62" s="3">
-        <v>10881900</v>
+        <v>9548800</v>
       </c>
       <c r="H62" s="3">
-        <v>10483500</v>
+        <v>10239300</v>
       </c>
       <c r="I62" s="3">
-        <v>10035400</v>
+        <v>9864400</v>
       </c>
       <c r="J62" s="3">
+        <v>9442800</v>
+      </c>
+      <c r="K62" s="3">
         <v>11017900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7251400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6642600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>370800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2669410000</v>
+        <v>2614670000</v>
       </c>
       <c r="E66" s="3">
-        <v>2497320000</v>
+        <v>2511780000</v>
       </c>
       <c r="F66" s="3">
-        <v>2297730000</v>
+        <v>2349860000</v>
       </c>
       <c r="G66" s="3">
-        <v>2266210000</v>
+        <v>2162050000</v>
       </c>
       <c r="H66" s="3">
-        <v>2243650000</v>
+        <v>2132390000</v>
       </c>
       <c r="I66" s="3">
-        <v>2203300000</v>
+        <v>2111160000</v>
       </c>
       <c r="J66" s="3">
+        <v>2073190000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2109720000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2244820000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2024830000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1867840000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2743,17 +2910,20 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>3572400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>3545100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3996600</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87248700</v>
+        <v>87946500</v>
       </c>
       <c r="E72" s="3">
-        <v>84567100</v>
+        <v>82096600</v>
       </c>
       <c r="F72" s="3">
-        <v>82892400</v>
+        <v>79573400</v>
       </c>
       <c r="G72" s="3">
-        <v>78405800</v>
+        <v>77997600</v>
       </c>
       <c r="H72" s="3">
-        <v>72283000</v>
+        <v>73775900</v>
       </c>
       <c r="I72" s="3">
-        <v>66961600</v>
+        <v>68014700</v>
       </c>
       <c r="J72" s="3">
+        <v>63007500</v>
+      </c>
+      <c r="K72" s="3">
         <v>61297000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>64503400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>57056700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6527800</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130892000</v>
+        <v>124784000</v>
       </c>
       <c r="E76" s="3">
-        <v>124569000</v>
+        <v>123163000</v>
       </c>
       <c r="F76" s="3">
-        <v>126038000</v>
+        <v>117213000</v>
       </c>
       <c r="G76" s="3">
-        <v>124834000</v>
+        <v>118596000</v>
       </c>
       <c r="H76" s="3">
-        <v>119037000</v>
+        <v>117463000</v>
       </c>
       <c r="I76" s="3">
-        <v>120482000</v>
+        <v>112007000</v>
       </c>
       <c r="J76" s="3">
+        <v>113368000</v>
+      </c>
+      <c r="K76" s="3">
         <v>119391000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>116101000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>103222000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73595100</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42825</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41729</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41364</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40999</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6053000</v>
+        <v>8289100</v>
       </c>
       <c r="E81" s="3">
-        <v>4114300</v>
+        <v>5695500</v>
       </c>
       <c r="F81" s="3">
-        <v>6798200</v>
+        <v>3871300</v>
       </c>
       <c r="G81" s="3">
-        <v>7709500</v>
+        <v>6396800</v>
       </c>
       <c r="H81" s="3">
-        <v>7217000</v>
+        <v>7254200</v>
       </c>
       <c r="I81" s="3">
-        <v>7411400</v>
+        <v>6790800</v>
       </c>
       <c r="J81" s="3">
+        <v>6973800</v>
+      </c>
+      <c r="K81" s="3">
         <v>8053000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8856800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7587300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3600600</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2769000</v>
+        <v>2662600</v>
       </c>
       <c r="E83" s="3">
-        <v>5478600</v>
+        <v>2605400</v>
       </c>
       <c r="F83" s="3">
-        <v>2650200</v>
+        <v>5155100</v>
       </c>
       <c r="G83" s="3">
-        <v>2639300</v>
+        <v>2493700</v>
       </c>
       <c r="H83" s="3">
-        <v>2595200</v>
+        <v>2483500</v>
       </c>
       <c r="I83" s="3">
-        <v>2457400</v>
+        <v>2442000</v>
       </c>
       <c r="J83" s="3">
+        <v>2312300</v>
+      </c>
+      <c r="K83" s="3">
         <v>2476800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2664400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2496400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2775300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>271909500</v>
+        <v>72103500</v>
       </c>
       <c r="E89" s="3">
-        <v>62793900</v>
+        <v>255853300</v>
       </c>
       <c r="F89" s="3">
-        <v>43696500</v>
+        <v>59085900</v>
       </c>
       <c r="G89" s="3">
-        <v>95901000</v>
+        <v>41116200</v>
       </c>
       <c r="H89" s="3">
-        <v>54631800</v>
+        <v>90238000</v>
       </c>
       <c r="I89" s="3">
-        <v>52617000</v>
+        <v>51405800</v>
       </c>
       <c r="J89" s="3">
+        <v>49509900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-16325900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-37426700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2260500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5359600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1041300</v>
+        <v>-742300</v>
       </c>
       <c r="E91" s="3">
-        <v>-990700</v>
+        <v>-979800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1109200</v>
+        <v>-932200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1245000</v>
+        <v>-1043700</v>
       </c>
       <c r="H91" s="3">
-        <v>-948300</v>
+        <v>-1171400</v>
       </c>
       <c r="I91" s="3">
-        <v>-910900</v>
+        <v>-892300</v>
       </c>
       <c r="J91" s="3">
+        <v>-857100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1373900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1386500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1192600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1185900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78993300</v>
+        <v>-16146000</v>
       </c>
       <c r="E94" s="3">
-        <v>-26240200</v>
+        <v>-74328700</v>
       </c>
       <c r="F94" s="3">
-        <v>-43838600</v>
+        <v>-24690700</v>
       </c>
       <c r="G94" s="3">
-        <v>-4408200</v>
+        <v>-41249900</v>
       </c>
       <c r="H94" s="3">
-        <v>69389800</v>
+        <v>-4147900</v>
       </c>
       <c r="I94" s="3">
-        <v>17451200</v>
+        <v>65292300</v>
       </c>
       <c r="J94" s="3">
+        <v>16420700</v>
+      </c>
+      <c r="K94" s="3">
         <v>50648200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>54972800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>17139100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93692800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2506600</v>
+        <v>-2452800</v>
       </c>
       <c r="E96" s="3">
-        <v>-2372300</v>
+        <v>-2358600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2152200</v>
+        <v>-2232200</v>
       </c>
       <c r="G96" s="3">
-        <v>-1877900</v>
+        <v>-2025100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1920700</v>
+        <v>-1767000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1959200</v>
+        <v>-1807300</v>
       </c>
       <c r="J96" s="3">
+        <v>-1843500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2056400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1979500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1705500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1844200</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3397000</v>
+        <v>-7919500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1960500</v>
+        <v>-3196400</v>
       </c>
       <c r="F100" s="3">
-        <v>-3773200</v>
+        <v>-1844700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2263300</v>
+        <v>-3550400</v>
       </c>
       <c r="H100" s="3">
-        <v>-5223900</v>
+        <v>-2129600</v>
       </c>
       <c r="I100" s="3">
-        <v>-822600</v>
+        <v>-4915400</v>
       </c>
       <c r="J100" s="3">
+        <v>-774100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-9010100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9224900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9365400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>88482200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2465900</v>
+        <v>9007800</v>
       </c>
       <c r="E101" s="3">
-        <v>-2430400</v>
+        <v>2320300</v>
       </c>
       <c r="F101" s="3">
-        <v>-32700</v>
+        <v>-2286900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2076900</v>
+        <v>-30700</v>
       </c>
       <c r="H101" s="3">
-        <v>-354300</v>
+        <v>-1954300</v>
       </c>
       <c r="I101" s="3">
-        <v>-897500</v>
+        <v>-333400</v>
       </c>
       <c r="J101" s="3">
+        <v>-844500</v>
+      </c>
+      <c r="K101" s="3">
         <v>1969300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2733800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1706900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-152600</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>191985100</v>
+        <v>57045700</v>
       </c>
       <c r="E102" s="3">
-        <v>32162900</v>
+        <v>180648400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3947900</v>
+        <v>30263700</v>
       </c>
       <c r="G102" s="3">
-        <v>87152600</v>
+        <v>-3714800</v>
       </c>
       <c r="H102" s="3">
-        <v>118443300</v>
+        <v>82006200</v>
       </c>
       <c r="I102" s="3">
-        <v>68348100</v>
+        <v>111449200</v>
       </c>
       <c r="J102" s="3">
+        <v>64312100</v>
+      </c>
+      <c r="K102" s="3">
         <v>27281500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>11055000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7220100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18966000</v>
+        <v>18345000</v>
       </c>
       <c r="E8" s="3">
-        <v>19634800</v>
+        <v>18991900</v>
       </c>
       <c r="F8" s="3">
-        <v>28156800</v>
+        <v>27234800</v>
       </c>
       <c r="G8" s="3">
-        <v>27357100</v>
+        <v>26461300</v>
       </c>
       <c r="H8" s="3">
-        <v>22686300</v>
+        <v>21943500</v>
       </c>
       <c r="I8" s="3">
-        <v>21170000</v>
+        <v>20476900</v>
       </c>
       <c r="J8" s="3">
-        <v>20298600</v>
+        <v>19634000</v>
       </c>
       <c r="K8" s="3">
         <v>21860600</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>-2516900</v>
+        <v>-2434500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6148700</v>
+        <v>5947400</v>
       </c>
       <c r="E17" s="3">
-        <v>9327500</v>
+        <v>9022100</v>
       </c>
       <c r="F17" s="3">
-        <v>15851300</v>
+        <v>15332300</v>
       </c>
       <c r="G17" s="3">
-        <v>13798000</v>
+        <v>13346300</v>
       </c>
       <c r="H17" s="3">
-        <v>8871800</v>
+        <v>8581300</v>
       </c>
       <c r="I17" s="3">
-        <v>7080500</v>
+        <v>6848600</v>
       </c>
       <c r="J17" s="3">
-        <v>6389800</v>
+        <v>6180500</v>
       </c>
       <c r="K17" s="3">
         <v>5973900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12817300</v>
+        <v>12397600</v>
       </c>
       <c r="E18" s="3">
-        <v>10307300</v>
+        <v>9969900</v>
       </c>
       <c r="F18" s="3">
-        <v>12305500</v>
+        <v>11902600</v>
       </c>
       <c r="G18" s="3">
-        <v>13559000</v>
+        <v>13115100</v>
       </c>
       <c r="H18" s="3">
-        <v>13814500</v>
+        <v>13362200</v>
       </c>
       <c r="I18" s="3">
-        <v>14089600</v>
+        <v>13628300</v>
       </c>
       <c r="J18" s="3">
-        <v>13908900</v>
+        <v>13453400</v>
       </c>
       <c r="K18" s="3">
         <v>15886700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1896600</v>
+        <v>-1834500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2669200</v>
+        <v>-2581800</v>
       </c>
       <c r="F20" s="3">
-        <v>-6225600</v>
+        <v>-6021800</v>
       </c>
       <c r="G20" s="3">
-        <v>-5163800</v>
+        <v>-4994700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3483800</v>
+        <v>-3369700</v>
       </c>
       <c r="I20" s="3">
-        <v>-4536900</v>
+        <v>-4388400</v>
       </c>
       <c r="J20" s="3">
-        <v>-2922900</v>
+        <v>-2827200</v>
       </c>
       <c r="K20" s="3">
         <v>-3307800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13568700</v>
+        <v>13044100</v>
       </c>
       <c r="E21" s="3">
-        <v>10229400</v>
+        <v>9815800</v>
       </c>
       <c r="F21" s="3">
-        <v>11206800</v>
+        <v>10684200</v>
       </c>
       <c r="G21" s="3">
-        <v>10875300</v>
+        <v>10443900</v>
       </c>
       <c r="H21" s="3">
-        <v>12800700</v>
+        <v>12306600</v>
       </c>
       <c r="I21" s="3">
-        <v>11981300</v>
+        <v>11515300</v>
       </c>
       <c r="J21" s="3">
-        <v>13285700</v>
+        <v>12780900</v>
       </c>
       <c r="K21" s="3">
         <v>15024000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10920700</v>
+        <v>10563100</v>
       </c>
       <c r="E23" s="3">
-        <v>7638100</v>
+        <v>7388000</v>
       </c>
       <c r="F23" s="3">
-        <v>6079800</v>
+        <v>5880800</v>
       </c>
       <c r="G23" s="3">
-        <v>8395200</v>
+        <v>8120400</v>
       </c>
       <c r="H23" s="3">
-        <v>10330700</v>
+        <v>9992500</v>
       </c>
       <c r="I23" s="3">
-        <v>9552700</v>
+        <v>9239900</v>
       </c>
       <c r="J23" s="3">
-        <v>10986000</v>
+        <v>10626300</v>
       </c>
       <c r="K23" s="3">
         <v>12579000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2077400</v>
+        <v>2009400</v>
       </c>
       <c r="E24" s="3">
-        <v>1356500</v>
+        <v>1312100</v>
       </c>
       <c r="F24" s="3">
-        <v>1619200</v>
+        <v>1566200</v>
       </c>
       <c r="G24" s="3">
-        <v>1433500</v>
+        <v>1386600</v>
       </c>
       <c r="H24" s="3">
-        <v>2297500</v>
+        <v>2222300</v>
       </c>
       <c r="I24" s="3">
-        <v>2508200</v>
+        <v>2426000</v>
       </c>
       <c r="J24" s="3">
-        <v>3373300</v>
+        <v>3262800</v>
       </c>
       <c r="K24" s="3">
         <v>3644100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8843300</v>
+        <v>8553700</v>
       </c>
       <c r="E26" s="3">
-        <v>6281600</v>
+        <v>6075900</v>
       </c>
       <c r="F26" s="3">
-        <v>4460600</v>
+        <v>4314600</v>
       </c>
       <c r="G26" s="3">
-        <v>6961700</v>
+        <v>6733800</v>
       </c>
       <c r="H26" s="3">
-        <v>8033200</v>
+        <v>7770200</v>
       </c>
       <c r="I26" s="3">
-        <v>7044500</v>
+        <v>6813900</v>
       </c>
       <c r="J26" s="3">
-        <v>7612700</v>
+        <v>7363400</v>
       </c>
       <c r="K26" s="3">
         <v>8934900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8289100</v>
+        <v>8017700</v>
       </c>
       <c r="E27" s="3">
-        <v>5695500</v>
+        <v>5509100</v>
       </c>
       <c r="F27" s="3">
-        <v>3871300</v>
+        <v>3744600</v>
       </c>
       <c r="G27" s="3">
-        <v>6396800</v>
+        <v>6187400</v>
       </c>
       <c r="H27" s="3">
-        <v>7254200</v>
+        <v>7016700</v>
       </c>
       <c r="I27" s="3">
-        <v>6790800</v>
+        <v>6568500</v>
       </c>
       <c r="J27" s="3">
-        <v>6973800</v>
+        <v>6745400</v>
       </c>
       <c r="K27" s="3">
         <v>8053000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1896600</v>
+        <v>1834500</v>
       </c>
       <c r="E32" s="3">
-        <v>2669200</v>
+        <v>2581800</v>
       </c>
       <c r="F32" s="3">
-        <v>6225600</v>
+        <v>6021800</v>
       </c>
       <c r="G32" s="3">
-        <v>5163800</v>
+        <v>4994700</v>
       </c>
       <c r="H32" s="3">
-        <v>3483800</v>
+        <v>3369700</v>
       </c>
       <c r="I32" s="3">
-        <v>4536900</v>
+        <v>4388400</v>
       </c>
       <c r="J32" s="3">
-        <v>2922900</v>
+        <v>2827200</v>
       </c>
       <c r="K32" s="3">
         <v>3307800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8289100</v>
+        <v>8017700</v>
       </c>
       <c r="E33" s="3">
-        <v>5695500</v>
+        <v>5509100</v>
       </c>
       <c r="F33" s="3">
-        <v>3871300</v>
+        <v>3744600</v>
       </c>
       <c r="G33" s="3">
-        <v>6396800</v>
+        <v>6187400</v>
       </c>
       <c r="H33" s="3">
-        <v>7254200</v>
+        <v>7016700</v>
       </c>
       <c r="I33" s="3">
-        <v>6790800</v>
+        <v>6568500</v>
       </c>
       <c r="J33" s="3">
-        <v>6973800</v>
+        <v>6745400</v>
       </c>
       <c r="K33" s="3">
         <v>8053000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8289100</v>
+        <v>8017700</v>
       </c>
       <c r="E35" s="3">
-        <v>5695500</v>
+        <v>5509100</v>
       </c>
       <c r="F35" s="3">
-        <v>3871300</v>
+        <v>3744600</v>
       </c>
       <c r="G35" s="3">
-        <v>6396800</v>
+        <v>6187400</v>
       </c>
       <c r="H35" s="3">
-        <v>7254200</v>
+        <v>7016700</v>
       </c>
       <c r="I35" s="3">
-        <v>6790800</v>
+        <v>6568500</v>
       </c>
       <c r="J35" s="3">
-        <v>6973800</v>
+        <v>6745400</v>
       </c>
       <c r="K35" s="3">
         <v>8053000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>811894000</v>
+        <v>785311000</v>
       </c>
       <c r="E41" s="3">
-        <v>754849000</v>
+        <v>730133000</v>
       </c>
       <c r="F41" s="3">
-        <v>574200000</v>
+        <v>555400000</v>
       </c>
       <c r="G41" s="3">
-        <v>543937000</v>
+        <v>526127000</v>
       </c>
       <c r="H41" s="3">
-        <v>547651000</v>
+        <v>529720000</v>
       </c>
       <c r="I41" s="3">
-        <v>465645000</v>
+        <v>450399000</v>
       </c>
       <c r="J41" s="3">
-        <v>360330000</v>
+        <v>348532000</v>
       </c>
       <c r="K41" s="3">
         <v>315404000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>323771000</v>
+        <v>313170000</v>
       </c>
       <c r="E42" s="3">
-        <v>340977000</v>
+        <v>329813000</v>
       </c>
       <c r="F42" s="3">
-        <v>416869000</v>
+        <v>403219000</v>
       </c>
       <c r="G42" s="3">
-        <v>290084000</v>
+        <v>280586000</v>
       </c>
       <c r="H42" s="3">
-        <v>288908000</v>
+        <v>279448000</v>
       </c>
       <c r="I42" s="3">
-        <v>348590000</v>
+        <v>337176000</v>
       </c>
       <c r="J42" s="3">
-        <v>301672000</v>
+        <v>291794000</v>
       </c>
       <c r="K42" s="3">
         <v>312762000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>24132600</v>
+        <v>23342400</v>
       </c>
       <c r="E47" s="3">
-        <v>20255800</v>
+        <v>19592500</v>
       </c>
       <c r="F47" s="3">
-        <v>19795900</v>
+        <v>19147700</v>
       </c>
       <c r="G47" s="3">
-        <v>21714300</v>
+        <v>21003400</v>
       </c>
       <c r="H47" s="3">
-        <v>20304600</v>
+        <v>19639800</v>
       </c>
       <c r="I47" s="3">
-        <v>20196200</v>
+        <v>19534900</v>
       </c>
       <c r="J47" s="3">
-        <v>18979500</v>
+        <v>18358100</v>
       </c>
       <c r="K47" s="3">
         <v>18865300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9060000</v>
+        <v>8763300</v>
       </c>
       <c r="E48" s="3">
-        <v>9502600</v>
+        <v>9191500</v>
       </c>
       <c r="F48" s="3">
-        <v>9674100</v>
+        <v>9357300</v>
       </c>
       <c r="G48" s="3">
-        <v>9792700</v>
+        <v>9472000</v>
       </c>
       <c r="H48" s="3">
-        <v>10041900</v>
+        <v>9713100</v>
       </c>
       <c r="I48" s="3">
-        <v>9960800</v>
+        <v>9634600</v>
       </c>
       <c r="J48" s="3">
-        <v>9983800</v>
+        <v>9656900</v>
       </c>
       <c r="K48" s="3">
         <v>10537700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9853200</v>
+        <v>9530600</v>
       </c>
       <c r="E49" s="3">
-        <v>10526600</v>
+        <v>10181900</v>
       </c>
       <c r="F49" s="3">
-        <v>10983300</v>
+        <v>10623700</v>
       </c>
       <c r="G49" s="3">
-        <v>8330800</v>
+        <v>8058000</v>
       </c>
       <c r="H49" s="3">
-        <v>9138100</v>
+        <v>8838900</v>
       </c>
       <c r="I49" s="3">
-        <v>9220200</v>
+        <v>8918300</v>
       </c>
       <c r="J49" s="3">
-        <v>9197100</v>
+        <v>8896000</v>
       </c>
       <c r="K49" s="3">
         <v>10105800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11643900</v>
+        <v>11262700</v>
       </c>
       <c r="E52" s="3">
-        <v>9885000</v>
+        <v>9561300</v>
       </c>
       <c r="F52" s="3">
-        <v>6155200</v>
+        <v>5953600</v>
       </c>
       <c r="G52" s="3">
-        <v>6805600</v>
+        <v>6582800</v>
       </c>
       <c r="H52" s="3">
-        <v>7060800</v>
+        <v>6829600</v>
       </c>
       <c r="I52" s="3">
-        <v>5333400</v>
+        <v>5158700</v>
       </c>
       <c r="J52" s="3">
-        <v>3692100</v>
+        <v>3571200</v>
       </c>
       <c r="K52" s="3">
         <v>4827300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2739450000</v>
+        <v>2649760000</v>
       </c>
       <c r="E54" s="3">
-        <v>2634940000</v>
+        <v>2548670000</v>
       </c>
       <c r="F54" s="3">
-        <v>2467070000</v>
+        <v>2386290000</v>
       </c>
       <c r="G54" s="3">
-        <v>2280650000</v>
+        <v>2205970000</v>
       </c>
       <c r="H54" s="3">
-        <v>2249850000</v>
+        <v>2176190000</v>
       </c>
       <c r="I54" s="3">
-        <v>2223170000</v>
+        <v>2150380000</v>
       </c>
       <c r="J54" s="3">
-        <v>2186560000</v>
+        <v>2114970000</v>
       </c>
       <c r="K54" s="3">
         <v>2229110000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1015900</v>
+        <v>982600</v>
       </c>
       <c r="E59" s="3">
-        <v>880900</v>
+        <v>852000</v>
       </c>
       <c r="F59" s="3">
-        <v>824000</v>
+        <v>797000</v>
       </c>
       <c r="G59" s="3">
-        <v>585900</v>
+        <v>566700</v>
       </c>
       <c r="H59" s="3">
-        <v>639200</v>
+        <v>618300</v>
       </c>
       <c r="I59" s="3">
-        <v>598200</v>
+        <v>578600</v>
       </c>
       <c r="J59" s="3">
-        <v>664200</v>
+        <v>642500</v>
       </c>
       <c r="K59" s="3">
         <v>707400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>330002000</v>
+        <v>319197000</v>
       </c>
       <c r="E61" s="3">
-        <v>322659000</v>
+        <v>312095000</v>
       </c>
       <c r="F61" s="3">
-        <v>279391000</v>
+        <v>270243000</v>
       </c>
       <c r="G61" s="3">
-        <v>208523000</v>
+        <v>201695000</v>
       </c>
       <c r="H61" s="3">
-        <v>198685000</v>
+        <v>192180000</v>
       </c>
       <c r="I61" s="3">
-        <v>196919000</v>
+        <v>190471000</v>
       </c>
       <c r="J61" s="3">
-        <v>158862000</v>
+        <v>153660000</v>
       </c>
       <c r="K61" s="3">
         <v>171442000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6864800</v>
+        <v>6640000</v>
       </c>
       <c r="E62" s="3">
-        <v>10392000</v>
+        <v>10051800</v>
       </c>
       <c r="F62" s="3">
-        <v>8812100</v>
+        <v>8523600</v>
       </c>
       <c r="G62" s="3">
-        <v>9548800</v>
+        <v>9236100</v>
       </c>
       <c r="H62" s="3">
-        <v>10239300</v>
+        <v>9904100</v>
       </c>
       <c r="I62" s="3">
-        <v>9864400</v>
+        <v>9541400</v>
       </c>
       <c r="J62" s="3">
-        <v>9442800</v>
+        <v>9133700</v>
       </c>
       <c r="K62" s="3">
         <v>11017900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2614670000</v>
+        <v>2529060000</v>
       </c>
       <c r="E66" s="3">
-        <v>2511780000</v>
+        <v>2429540000</v>
       </c>
       <c r="F66" s="3">
-        <v>2349860000</v>
+        <v>2272920000</v>
       </c>
       <c r="G66" s="3">
-        <v>2162050000</v>
+        <v>2091260000</v>
       </c>
       <c r="H66" s="3">
-        <v>2132390000</v>
+        <v>2062570000</v>
       </c>
       <c r="I66" s="3">
-        <v>2111160000</v>
+        <v>2042040000</v>
       </c>
       <c r="J66" s="3">
-        <v>2073190000</v>
+        <v>2005310000</v>
       </c>
       <c r="K66" s="3">
         <v>2109720000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87946500</v>
+        <v>85066900</v>
       </c>
       <c r="E72" s="3">
-        <v>82096600</v>
+        <v>79408600</v>
       </c>
       <c r="F72" s="3">
-        <v>79573400</v>
+        <v>76968000</v>
       </c>
       <c r="G72" s="3">
-        <v>77997600</v>
+        <v>75443800</v>
       </c>
       <c r="H72" s="3">
-        <v>73775900</v>
+        <v>71360300</v>
       </c>
       <c r="I72" s="3">
-        <v>68014700</v>
+        <v>65787800</v>
       </c>
       <c r="J72" s="3">
-        <v>63007500</v>
+        <v>60944500</v>
       </c>
       <c r="K72" s="3">
         <v>61297000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>124784000</v>
+        <v>120699000</v>
       </c>
       <c r="E76" s="3">
-        <v>123163000</v>
+        <v>119130000</v>
       </c>
       <c r="F76" s="3">
-        <v>117213000</v>
+        <v>113375000</v>
       </c>
       <c r="G76" s="3">
-        <v>118596000</v>
+        <v>114713000</v>
       </c>
       <c r="H76" s="3">
-        <v>117463000</v>
+        <v>113617000</v>
       </c>
       <c r="I76" s="3">
-        <v>112007000</v>
+        <v>108340000</v>
       </c>
       <c r="J76" s="3">
-        <v>113368000</v>
+        <v>109656000</v>
       </c>
       <c r="K76" s="3">
         <v>119391000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8289100</v>
+        <v>8017700</v>
       </c>
       <c r="E81" s="3">
-        <v>5695500</v>
+        <v>5509100</v>
       </c>
       <c r="F81" s="3">
-        <v>3871300</v>
+        <v>3744600</v>
       </c>
       <c r="G81" s="3">
-        <v>6396800</v>
+        <v>6187400</v>
       </c>
       <c r="H81" s="3">
-        <v>7254200</v>
+        <v>7016700</v>
       </c>
       <c r="I81" s="3">
-        <v>6790800</v>
+        <v>6568500</v>
       </c>
       <c r="J81" s="3">
-        <v>6973800</v>
+        <v>6745400</v>
       </c>
       <c r="K81" s="3">
         <v>8053000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2662600</v>
+        <v>2575400</v>
       </c>
       <c r="E83" s="3">
-        <v>2605400</v>
+        <v>2520100</v>
       </c>
       <c r="F83" s="3">
-        <v>5155100</v>
+        <v>4986300</v>
       </c>
       <c r="G83" s="3">
-        <v>2493700</v>
+        <v>2412000</v>
       </c>
       <c r="H83" s="3">
-        <v>2483500</v>
+        <v>2402200</v>
       </c>
       <c r="I83" s="3">
-        <v>2442000</v>
+        <v>2362000</v>
       </c>
       <c r="J83" s="3">
-        <v>2312300</v>
+        <v>2236600</v>
       </c>
       <c r="K83" s="3">
         <v>2476800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72103500</v>
+        <v>69742600</v>
       </c>
       <c r="E89" s="3">
-        <v>255853300</v>
+        <v>247476100</v>
       </c>
       <c r="F89" s="3">
-        <v>59085900</v>
+        <v>57151300</v>
       </c>
       <c r="G89" s="3">
-        <v>41116200</v>
+        <v>39770000</v>
       </c>
       <c r="H89" s="3">
-        <v>90238000</v>
+        <v>87283400</v>
       </c>
       <c r="I89" s="3">
-        <v>51405800</v>
+        <v>49722600</v>
       </c>
       <c r="J89" s="3">
-        <v>49509900</v>
+        <v>47888900</v>
       </c>
       <c r="K89" s="3">
         <v>-16325900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-742300</v>
+        <v>-718000</v>
       </c>
       <c r="E91" s="3">
-        <v>-979800</v>
+        <v>-947700</v>
       </c>
       <c r="F91" s="3">
-        <v>-932200</v>
+        <v>-901700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1043700</v>
+        <v>-1009600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1171400</v>
+        <v>-1133100</v>
       </c>
       <c r="I91" s="3">
-        <v>-892300</v>
+        <v>-863100</v>
       </c>
       <c r="J91" s="3">
-        <v>-857100</v>
+        <v>-829000</v>
       </c>
       <c r="K91" s="3">
         <v>-1373900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16146000</v>
+        <v>-15617300</v>
       </c>
       <c r="E94" s="3">
-        <v>-74328700</v>
+        <v>-71895000</v>
       </c>
       <c r="F94" s="3">
-        <v>-24690700</v>
+        <v>-23882300</v>
       </c>
       <c r="G94" s="3">
-        <v>-41249900</v>
+        <v>-39899300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4147900</v>
+        <v>-4012100</v>
       </c>
       <c r="I94" s="3">
-        <v>65292300</v>
+        <v>63154500</v>
       </c>
       <c r="J94" s="3">
-        <v>16420700</v>
+        <v>15883100</v>
       </c>
       <c r="K94" s="3">
         <v>50648200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2452800</v>
+        <v>-2372400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2358600</v>
+        <v>-2281400</v>
       </c>
       <c r="F96" s="3">
-        <v>-2232200</v>
+        <v>-2159200</v>
       </c>
       <c r="G96" s="3">
-        <v>-2025100</v>
+        <v>-1958800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1767000</v>
+        <v>-1709200</v>
       </c>
       <c r="I96" s="3">
-        <v>-1807300</v>
+        <v>-1748100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1843500</v>
+        <v>-1783100</v>
       </c>
       <c r="K96" s="3">
         <v>-2056400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7919500</v>
+        <v>-7660200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3196400</v>
+        <v>-3091700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1844700</v>
+        <v>-1784300</v>
       </c>
       <c r="G100" s="3">
-        <v>-3550400</v>
+        <v>-3434100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2129600</v>
+        <v>-2059900</v>
       </c>
       <c r="I100" s="3">
-        <v>-4915400</v>
+        <v>-4754500</v>
       </c>
       <c r="J100" s="3">
-        <v>-774100</v>
+        <v>-748700</v>
       </c>
       <c r="K100" s="3">
         <v>-9010100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9007800</v>
+        <v>8712800</v>
       </c>
       <c r="E101" s="3">
-        <v>2320300</v>
+        <v>2244300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2286900</v>
+        <v>-2212000</v>
       </c>
       <c r="G101" s="3">
-        <v>-30700</v>
+        <v>-29700</v>
       </c>
       <c r="H101" s="3">
-        <v>-1954300</v>
+        <v>-1890300</v>
       </c>
       <c r="I101" s="3">
-        <v>-333400</v>
+        <v>-322500</v>
       </c>
       <c r="J101" s="3">
-        <v>-844500</v>
+        <v>-816900</v>
       </c>
       <c r="K101" s="3">
         <v>1969300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57045700</v>
+        <v>55177900</v>
       </c>
       <c r="E102" s="3">
-        <v>180648400</v>
+        <v>174733600</v>
       </c>
       <c r="F102" s="3">
-        <v>30263700</v>
+        <v>29272800</v>
       </c>
       <c r="G102" s="3">
-        <v>-3714800</v>
+        <v>-3593200</v>
       </c>
       <c r="H102" s="3">
-        <v>82006200</v>
+        <v>79321100</v>
       </c>
       <c r="I102" s="3">
-        <v>111449200</v>
+        <v>107800200</v>
       </c>
       <c r="J102" s="3">
-        <v>64312100</v>
+        <v>62206400</v>
       </c>
       <c r="K102" s="3">
         <v>27281500</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18345000</v>
+        <v>19017700</v>
       </c>
       <c r="E8" s="3">
-        <v>18991900</v>
+        <v>19688400</v>
       </c>
       <c r="F8" s="3">
-        <v>27234800</v>
+        <v>28233600</v>
       </c>
       <c r="G8" s="3">
-        <v>26461300</v>
+        <v>27431700</v>
       </c>
       <c r="H8" s="3">
-        <v>21943500</v>
+        <v>22748200</v>
       </c>
       <c r="I8" s="3">
-        <v>20476900</v>
+        <v>21227800</v>
       </c>
       <c r="J8" s="3">
-        <v>19634000</v>
+        <v>20354000</v>
       </c>
       <c r="K8" s="3">
         <v>21860600</v>
@@ -980,7 +980,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="3">
-        <v>-2434500</v>
+        <v>-2523800</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5947400</v>
+        <v>6165500</v>
       </c>
       <c r="E17" s="3">
-        <v>9022100</v>
+        <v>9352900</v>
       </c>
       <c r="F17" s="3">
-        <v>15332300</v>
+        <v>15894500</v>
       </c>
       <c r="G17" s="3">
-        <v>13346300</v>
+        <v>13835700</v>
       </c>
       <c r="H17" s="3">
-        <v>8581300</v>
+        <v>8896000</v>
       </c>
       <c r="I17" s="3">
-        <v>6848600</v>
+        <v>7099800</v>
       </c>
       <c r="J17" s="3">
-        <v>6180500</v>
+        <v>6407200</v>
       </c>
       <c r="K17" s="3">
         <v>5973900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12397600</v>
+        <v>12852200</v>
       </c>
       <c r="E18" s="3">
-        <v>9969900</v>
+        <v>10335500</v>
       </c>
       <c r="F18" s="3">
-        <v>11902600</v>
+        <v>12339000</v>
       </c>
       <c r="G18" s="3">
-        <v>13115100</v>
+        <v>13596000</v>
       </c>
       <c r="H18" s="3">
-        <v>13362200</v>
+        <v>13852200</v>
       </c>
       <c r="I18" s="3">
-        <v>13628300</v>
+        <v>14128000</v>
       </c>
       <c r="J18" s="3">
-        <v>13453400</v>
+        <v>13946800</v>
       </c>
       <c r="K18" s="3">
         <v>15886700</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1834500</v>
+        <v>-1901800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2581800</v>
+        <v>-2676500</v>
       </c>
       <c r="F20" s="3">
-        <v>-6021800</v>
+        <v>-6242600</v>
       </c>
       <c r="G20" s="3">
-        <v>-4994700</v>
+        <v>-5177900</v>
       </c>
       <c r="H20" s="3">
-        <v>-3369700</v>
+        <v>-3493300</v>
       </c>
       <c r="I20" s="3">
-        <v>-4388400</v>
+        <v>-4549300</v>
       </c>
       <c r="J20" s="3">
-        <v>-2827200</v>
+        <v>-2930800</v>
       </c>
       <c r="K20" s="3">
         <v>-3307800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13044100</v>
+        <v>13594900</v>
       </c>
       <c r="E21" s="3">
-        <v>9815800</v>
+        <v>10246600</v>
       </c>
       <c r="F21" s="3">
-        <v>10684200</v>
+        <v>11216400</v>
       </c>
       <c r="G21" s="3">
-        <v>10443900</v>
+        <v>10894800</v>
       </c>
       <c r="H21" s="3">
-        <v>12306600</v>
+        <v>12825500</v>
       </c>
       <c r="I21" s="3">
-        <v>11515300</v>
+        <v>12004000</v>
       </c>
       <c r="J21" s="3">
-        <v>12780900</v>
+        <v>13312500</v>
       </c>
       <c r="K21" s="3">
         <v>15024000</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10563100</v>
+        <v>10950400</v>
       </c>
       <c r="E23" s="3">
-        <v>7388000</v>
+        <v>7659000</v>
       </c>
       <c r="F23" s="3">
-        <v>5880800</v>
+        <v>6096400</v>
       </c>
       <c r="G23" s="3">
-        <v>8120400</v>
+        <v>8418200</v>
       </c>
       <c r="H23" s="3">
-        <v>9992500</v>
+        <v>10358900</v>
       </c>
       <c r="I23" s="3">
-        <v>9239900</v>
+        <v>9578700</v>
       </c>
       <c r="J23" s="3">
-        <v>10626300</v>
+        <v>11016000</v>
       </c>
       <c r="K23" s="3">
         <v>12579000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2009400</v>
+        <v>2083100</v>
       </c>
       <c r="E24" s="3">
-        <v>1312100</v>
+        <v>1360200</v>
       </c>
       <c r="F24" s="3">
-        <v>1566200</v>
+        <v>1623600</v>
       </c>
       <c r="G24" s="3">
-        <v>1386600</v>
+        <v>1437400</v>
       </c>
       <c r="H24" s="3">
-        <v>2222300</v>
+        <v>2303800</v>
       </c>
       <c r="I24" s="3">
-        <v>2426000</v>
+        <v>2515000</v>
       </c>
       <c r="J24" s="3">
-        <v>3262800</v>
+        <v>3382500</v>
       </c>
       <c r="K24" s="3">
         <v>3644100</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8553700</v>
+        <v>8867400</v>
       </c>
       <c r="E26" s="3">
-        <v>6075900</v>
+        <v>6298700</v>
       </c>
       <c r="F26" s="3">
-        <v>4314600</v>
+        <v>4472800</v>
       </c>
       <c r="G26" s="3">
-        <v>6733800</v>
+        <v>6980700</v>
       </c>
       <c r="H26" s="3">
-        <v>7770200</v>
+        <v>8055200</v>
       </c>
       <c r="I26" s="3">
-        <v>6813900</v>
+        <v>7063700</v>
       </c>
       <c r="J26" s="3">
-        <v>7363400</v>
+        <v>7633500</v>
       </c>
       <c r="K26" s="3">
         <v>8934900</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8017700</v>
+        <v>8311700</v>
       </c>
       <c r="E27" s="3">
-        <v>5509100</v>
+        <v>5711100</v>
       </c>
       <c r="F27" s="3">
-        <v>3744600</v>
+        <v>3881900</v>
       </c>
       <c r="G27" s="3">
-        <v>6187400</v>
+        <v>6414300</v>
       </c>
       <c r="H27" s="3">
-        <v>7016700</v>
+        <v>7274000</v>
       </c>
       <c r="I27" s="3">
-        <v>6568500</v>
+        <v>6809300</v>
       </c>
       <c r="J27" s="3">
-        <v>6745400</v>
+        <v>6992800</v>
       </c>
       <c r="K27" s="3">
         <v>8053000</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1834500</v>
+        <v>1901800</v>
       </c>
       <c r="E32" s="3">
-        <v>2581800</v>
+        <v>2676500</v>
       </c>
       <c r="F32" s="3">
-        <v>6021800</v>
+        <v>6242600</v>
       </c>
       <c r="G32" s="3">
-        <v>4994700</v>
+        <v>5177900</v>
       </c>
       <c r="H32" s="3">
-        <v>3369700</v>
+        <v>3493300</v>
       </c>
       <c r="I32" s="3">
-        <v>4388400</v>
+        <v>4549300</v>
       </c>
       <c r="J32" s="3">
-        <v>2827200</v>
+        <v>2930800</v>
       </c>
       <c r="K32" s="3">
         <v>3307800</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8017700</v>
+        <v>8311700</v>
       </c>
       <c r="E33" s="3">
-        <v>5509100</v>
+        <v>5711100</v>
       </c>
       <c r="F33" s="3">
-        <v>3744600</v>
+        <v>3881900</v>
       </c>
       <c r="G33" s="3">
-        <v>6187400</v>
+        <v>6414300</v>
       </c>
       <c r="H33" s="3">
-        <v>7016700</v>
+        <v>7274000</v>
       </c>
       <c r="I33" s="3">
-        <v>6568500</v>
+        <v>6809300</v>
       </c>
       <c r="J33" s="3">
-        <v>6745400</v>
+        <v>6992800</v>
       </c>
       <c r="K33" s="3">
         <v>8053000</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8017700</v>
+        <v>8311700</v>
       </c>
       <c r="E35" s="3">
-        <v>5509100</v>
+        <v>5711100</v>
       </c>
       <c r="F35" s="3">
-        <v>3744600</v>
+        <v>3881900</v>
       </c>
       <c r="G35" s="3">
-        <v>6187400</v>
+        <v>6414300</v>
       </c>
       <c r="H35" s="3">
-        <v>7016700</v>
+        <v>7274000</v>
       </c>
       <c r="I35" s="3">
-        <v>6568500</v>
+        <v>6809300</v>
       </c>
       <c r="J35" s="3">
-        <v>6745400</v>
+        <v>6992800</v>
       </c>
       <c r="K35" s="3">
         <v>8053000</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>785311000</v>
+        <v>814110000</v>
       </c>
       <c r="E41" s="3">
-        <v>730133000</v>
+        <v>756908000</v>
       </c>
       <c r="F41" s="3">
-        <v>555400000</v>
+        <v>575767000</v>
       </c>
       <c r="G41" s="3">
-        <v>526127000</v>
+        <v>545421000</v>
       </c>
       <c r="H41" s="3">
-        <v>529720000</v>
+        <v>549146000</v>
       </c>
       <c r="I41" s="3">
-        <v>450399000</v>
+        <v>466916000</v>
       </c>
       <c r="J41" s="3">
-        <v>348532000</v>
+        <v>361314000</v>
       </c>
       <c r="K41" s="3">
         <v>315404000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>313170000</v>
+        <v>324654000</v>
       </c>
       <c r="E42" s="3">
-        <v>329813000</v>
+        <v>341908000</v>
       </c>
       <c r="F42" s="3">
-        <v>403219000</v>
+        <v>418006000</v>
       </c>
       <c r="G42" s="3">
-        <v>280586000</v>
+        <v>290876000</v>
       </c>
       <c r="H42" s="3">
-        <v>279448000</v>
+        <v>289696000</v>
       </c>
       <c r="I42" s="3">
-        <v>337176000</v>
+        <v>349541000</v>
       </c>
       <c r="J42" s="3">
-        <v>291794000</v>
+        <v>302495000</v>
       </c>
       <c r="K42" s="3">
         <v>312762000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23342400</v>
+        <v>24198400</v>
       </c>
       <c r="E47" s="3">
-        <v>19592500</v>
+        <v>20311000</v>
       </c>
       <c r="F47" s="3">
-        <v>19147700</v>
+        <v>19849900</v>
       </c>
       <c r="G47" s="3">
-        <v>21003400</v>
+        <v>21773600</v>
       </c>
       <c r="H47" s="3">
-        <v>19639800</v>
+        <v>20360000</v>
       </c>
       <c r="I47" s="3">
-        <v>19534900</v>
+        <v>20251300</v>
       </c>
       <c r="J47" s="3">
-        <v>18358100</v>
+        <v>19031300</v>
       </c>
       <c r="K47" s="3">
         <v>18865300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8763300</v>
+        <v>9084700</v>
       </c>
       <c r="E48" s="3">
-        <v>9191500</v>
+        <v>9528600</v>
       </c>
       <c r="F48" s="3">
-        <v>9357300</v>
+        <v>9700400</v>
       </c>
       <c r="G48" s="3">
-        <v>9472000</v>
+        <v>9819400</v>
       </c>
       <c r="H48" s="3">
-        <v>9713100</v>
+        <v>10069300</v>
       </c>
       <c r="I48" s="3">
-        <v>9634600</v>
+        <v>9988000</v>
       </c>
       <c r="J48" s="3">
-        <v>9656900</v>
+        <v>10011000</v>
       </c>
       <c r="K48" s="3">
         <v>10537700</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9530600</v>
+        <v>9880100</v>
       </c>
       <c r="E49" s="3">
-        <v>10181900</v>
+        <v>10555300</v>
       </c>
       <c r="F49" s="3">
-        <v>10623700</v>
+        <v>11013300</v>
       </c>
       <c r="G49" s="3">
-        <v>8058000</v>
+        <v>8353500</v>
       </c>
       <c r="H49" s="3">
-        <v>8838900</v>
+        <v>9163100</v>
       </c>
       <c r="I49" s="3">
-        <v>8918300</v>
+        <v>9245400</v>
       </c>
       <c r="J49" s="3">
-        <v>8896000</v>
+        <v>9222200</v>
       </c>
       <c r="K49" s="3">
         <v>10105800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11262700</v>
+        <v>11675700</v>
       </c>
       <c r="E52" s="3">
-        <v>9561300</v>
+        <v>9912000</v>
       </c>
       <c r="F52" s="3">
-        <v>5953600</v>
+        <v>6172000</v>
       </c>
       <c r="G52" s="3">
-        <v>6582800</v>
+        <v>6824200</v>
       </c>
       <c r="H52" s="3">
-        <v>6829600</v>
+        <v>7080100</v>
       </c>
       <c r="I52" s="3">
-        <v>5158700</v>
+        <v>5347900</v>
       </c>
       <c r="J52" s="3">
-        <v>3571200</v>
+        <v>3702200</v>
       </c>
       <c r="K52" s="3">
         <v>4827300</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2649760000</v>
+        <v>2746930000</v>
       </c>
       <c r="E54" s="3">
-        <v>2548670000</v>
+        <v>2642130000</v>
       </c>
       <c r="F54" s="3">
-        <v>2386290000</v>
+        <v>2473800000</v>
       </c>
       <c r="G54" s="3">
-        <v>2205970000</v>
+        <v>2286870000</v>
       </c>
       <c r="H54" s="3">
-        <v>2176190000</v>
+        <v>2255990000</v>
       </c>
       <c r="I54" s="3">
-        <v>2150380000</v>
+        <v>2229240000</v>
       </c>
       <c r="J54" s="3">
-        <v>2114970000</v>
+        <v>2192530000</v>
       </c>
       <c r="K54" s="3">
         <v>2229110000</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>982600</v>
+        <v>1018600</v>
       </c>
       <c r="E59" s="3">
-        <v>852000</v>
+        <v>883300</v>
       </c>
       <c r="F59" s="3">
-        <v>797000</v>
+        <v>826200</v>
       </c>
       <c r="G59" s="3">
-        <v>566700</v>
+        <v>587400</v>
       </c>
       <c r="H59" s="3">
-        <v>618300</v>
+        <v>640900</v>
       </c>
       <c r="I59" s="3">
-        <v>578600</v>
+        <v>599800</v>
       </c>
       <c r="J59" s="3">
-        <v>642500</v>
+        <v>666000</v>
       </c>
       <c r="K59" s="3">
         <v>707400</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>319197000</v>
+        <v>330902000</v>
       </c>
       <c r="E61" s="3">
-        <v>312095000</v>
+        <v>323539000</v>
       </c>
       <c r="F61" s="3">
-        <v>270243000</v>
+        <v>280153000</v>
       </c>
       <c r="G61" s="3">
-        <v>201695000</v>
+        <v>209092000</v>
       </c>
       <c r="H61" s="3">
-        <v>192180000</v>
+        <v>199227000</v>
       </c>
       <c r="I61" s="3">
-        <v>190471000</v>
+        <v>197456000</v>
       </c>
       <c r="J61" s="3">
-        <v>153660000</v>
+        <v>159295000</v>
       </c>
       <c r="K61" s="3">
         <v>171442000</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6640000</v>
+        <v>6883500</v>
       </c>
       <c r="E62" s="3">
-        <v>10051800</v>
+        <v>10420400</v>
       </c>
       <c r="F62" s="3">
-        <v>8523600</v>
+        <v>8836200</v>
       </c>
       <c r="G62" s="3">
-        <v>9236100</v>
+        <v>9574800</v>
       </c>
       <c r="H62" s="3">
-        <v>9904100</v>
+        <v>10267300</v>
       </c>
       <c r="I62" s="3">
-        <v>9541400</v>
+        <v>9891300</v>
       </c>
       <c r="J62" s="3">
-        <v>9133700</v>
+        <v>9468600</v>
       </c>
       <c r="K62" s="3">
         <v>11017900</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2529060000</v>
+        <v>2621800000</v>
       </c>
       <c r="E66" s="3">
-        <v>2429540000</v>
+        <v>2518630000</v>
       </c>
       <c r="F66" s="3">
-        <v>2272920000</v>
+        <v>2356270000</v>
       </c>
       <c r="G66" s="3">
-        <v>2091260000</v>
+        <v>2167950000</v>
       </c>
       <c r="H66" s="3">
-        <v>2062570000</v>
+        <v>2138210000</v>
       </c>
       <c r="I66" s="3">
-        <v>2042040000</v>
+        <v>2116920000</v>
       </c>
       <c r="J66" s="3">
-        <v>2005310000</v>
+        <v>2078850000</v>
       </c>
       <c r="K66" s="3">
         <v>2109720000</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>85066900</v>
+        <v>88186500</v>
       </c>
       <c r="E72" s="3">
-        <v>79408600</v>
+        <v>82320600</v>
       </c>
       <c r="F72" s="3">
-        <v>76968000</v>
+        <v>79790500</v>
       </c>
       <c r="G72" s="3">
-        <v>75443800</v>
+        <v>78210400</v>
       </c>
       <c r="H72" s="3">
-        <v>71360300</v>
+        <v>73977200</v>
       </c>
       <c r="I72" s="3">
-        <v>65787800</v>
+        <v>68200300</v>
       </c>
       <c r="J72" s="3">
-        <v>60944500</v>
+        <v>63179400</v>
       </c>
       <c r="K72" s="3">
         <v>61297000</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120699000</v>
+        <v>125125000</v>
       </c>
       <c r="E76" s="3">
-        <v>119130000</v>
+        <v>123499000</v>
       </c>
       <c r="F76" s="3">
-        <v>113375000</v>
+        <v>117533000</v>
       </c>
       <c r="G76" s="3">
-        <v>114713000</v>
+        <v>118919000</v>
       </c>
       <c r="H76" s="3">
-        <v>113617000</v>
+        <v>117783000</v>
       </c>
       <c r="I76" s="3">
-        <v>108340000</v>
+        <v>112313000</v>
       </c>
       <c r="J76" s="3">
-        <v>109656000</v>
+        <v>113677000</v>
       </c>
       <c r="K76" s="3">
         <v>119391000</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8017700</v>
+        <v>8311700</v>
       </c>
       <c r="E81" s="3">
-        <v>5509100</v>
+        <v>5711100</v>
       </c>
       <c r="F81" s="3">
-        <v>3744600</v>
+        <v>3881900</v>
       </c>
       <c r="G81" s="3">
-        <v>6187400</v>
+        <v>6414300</v>
       </c>
       <c r="H81" s="3">
-        <v>7016700</v>
+        <v>7274000</v>
       </c>
       <c r="I81" s="3">
-        <v>6568500</v>
+        <v>6809300</v>
       </c>
       <c r="J81" s="3">
-        <v>6745400</v>
+        <v>6992800</v>
       </c>
       <c r="K81" s="3">
         <v>8053000</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2575400</v>
+        <v>2669900</v>
       </c>
       <c r="E83" s="3">
-        <v>2520100</v>
+        <v>2612600</v>
       </c>
       <c r="F83" s="3">
-        <v>4986300</v>
+        <v>5169200</v>
       </c>
       <c r="G83" s="3">
-        <v>2412000</v>
+        <v>2500500</v>
       </c>
       <c r="H83" s="3">
-        <v>2402200</v>
+        <v>2490300</v>
       </c>
       <c r="I83" s="3">
-        <v>2362000</v>
+        <v>2448600</v>
       </c>
       <c r="J83" s="3">
-        <v>2236600</v>
+        <v>2318600</v>
       </c>
       <c r="K83" s="3">
         <v>2476800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>69742600</v>
+        <v>72300200</v>
       </c>
       <c r="E89" s="3">
-        <v>247476100</v>
+        <v>256551400</v>
       </c>
       <c r="F89" s="3">
-        <v>57151300</v>
+        <v>59247200</v>
       </c>
       <c r="G89" s="3">
-        <v>39770000</v>
+        <v>41228400</v>
       </c>
       <c r="H89" s="3">
-        <v>87283400</v>
+        <v>90484200</v>
       </c>
       <c r="I89" s="3">
-        <v>49722600</v>
+        <v>51546000</v>
       </c>
       <c r="J89" s="3">
-        <v>47888900</v>
+        <v>49645000</v>
       </c>
       <c r="K89" s="3">
         <v>-16325900</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-718000</v>
+        <v>-744400</v>
       </c>
       <c r="E91" s="3">
-        <v>-947700</v>
+        <v>-982500</v>
       </c>
       <c r="F91" s="3">
-        <v>-901700</v>
+        <v>-934700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1009600</v>
+        <v>-1046600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1133100</v>
+        <v>-1174600</v>
       </c>
       <c r="I91" s="3">
-        <v>-863100</v>
+        <v>-894700</v>
       </c>
       <c r="J91" s="3">
-        <v>-829000</v>
+        <v>-859400</v>
       </c>
       <c r="K91" s="3">
         <v>-1373900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15617300</v>
+        <v>-16190000</v>
       </c>
       <c r="E94" s="3">
-        <v>-71895000</v>
+        <v>-74531500</v>
       </c>
       <c r="F94" s="3">
-        <v>-23882300</v>
+        <v>-24758100</v>
       </c>
       <c r="G94" s="3">
-        <v>-39899300</v>
+        <v>-41362500</v>
       </c>
       <c r="H94" s="3">
-        <v>-4012100</v>
+        <v>-4159200</v>
       </c>
       <c r="I94" s="3">
-        <v>63154500</v>
+        <v>65470500</v>
       </c>
       <c r="J94" s="3">
-        <v>15883100</v>
+        <v>16465500</v>
       </c>
       <c r="K94" s="3">
         <v>50648200</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2372400</v>
+        <v>-2459400</v>
       </c>
       <c r="E96" s="3">
-        <v>-2281400</v>
+        <v>-2365000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2159200</v>
+        <v>-2238300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1958800</v>
+        <v>-2030700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1709200</v>
+        <v>-1771800</v>
       </c>
       <c r="I96" s="3">
-        <v>-1748100</v>
+        <v>-1812200</v>
       </c>
       <c r="J96" s="3">
-        <v>-1783100</v>
+        <v>-1848500</v>
       </c>
       <c r="K96" s="3">
         <v>-2056400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7660200</v>
+        <v>-7941100</v>
       </c>
       <c r="E100" s="3">
-        <v>-3091700</v>
+        <v>-3205100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1784300</v>
+        <v>-1849700</v>
       </c>
       <c r="G100" s="3">
-        <v>-3434100</v>
+        <v>-3560000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2059900</v>
+        <v>-2135500</v>
       </c>
       <c r="I100" s="3">
-        <v>-4754500</v>
+        <v>-4928900</v>
       </c>
       <c r="J100" s="3">
-        <v>-748700</v>
+        <v>-776200</v>
       </c>
       <c r="K100" s="3">
         <v>-9010100</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8712800</v>
+        <v>9032300</v>
       </c>
       <c r="E101" s="3">
-        <v>2244300</v>
+        <v>2326600</v>
       </c>
       <c r="F101" s="3">
-        <v>-2212000</v>
+        <v>-2293100</v>
       </c>
       <c r="G101" s="3">
-        <v>-29700</v>
+        <v>-30800</v>
       </c>
       <c r="H101" s="3">
-        <v>-1890300</v>
+        <v>-1959600</v>
       </c>
       <c r="I101" s="3">
-        <v>-322500</v>
+        <v>-334300</v>
       </c>
       <c r="J101" s="3">
-        <v>-816900</v>
+        <v>-846800</v>
       </c>
       <c r="K101" s="3">
         <v>1969300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>55177900</v>
+        <v>57201300</v>
       </c>
       <c r="E102" s="3">
-        <v>174733600</v>
+        <v>181141300</v>
       </c>
       <c r="F102" s="3">
-        <v>29272800</v>
+        <v>30346200</v>
       </c>
       <c r="G102" s="3">
-        <v>-3593200</v>
+        <v>-3724900</v>
       </c>
       <c r="H102" s="3">
-        <v>79321100</v>
+        <v>82229900</v>
       </c>
       <c r="I102" s="3">
-        <v>107800200</v>
+        <v>111753300</v>
       </c>
       <c r="J102" s="3">
-        <v>62206400</v>
+        <v>64487600</v>
       </c>
       <c r="K102" s="3">
         <v>27281500</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41729</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41364</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40999</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19017700</v>
+        <v>38205400</v>
       </c>
       <c r="E8" s="3">
-        <v>19688400</v>
+        <v>18655500</v>
       </c>
       <c r="F8" s="3">
-        <v>28233600</v>
+        <v>19313400</v>
       </c>
       <c r="G8" s="3">
-        <v>27431700</v>
+        <v>27695800</v>
       </c>
       <c r="H8" s="3">
-        <v>22748200</v>
+        <v>26909200</v>
       </c>
       <c r="I8" s="3">
-        <v>21227800</v>
+        <v>22314900</v>
       </c>
       <c r="J8" s="3">
+        <v>20823500</v>
+      </c>
+      <c r="K8" s="3">
         <v>20354000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>21860600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>21715200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>21242900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23467400</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,9 +986,12 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,11 +1001,11 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="3">
-        <v>-2523800</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-2475700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1000,15 +1022,18 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>-2775300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6165500</v>
+        <v>18036400</v>
       </c>
       <c r="E17" s="3">
-        <v>9352900</v>
+        <v>6048100</v>
       </c>
       <c r="F17" s="3">
-        <v>15894500</v>
+        <v>9174800</v>
       </c>
       <c r="G17" s="3">
-        <v>13835700</v>
+        <v>15591800</v>
       </c>
       <c r="H17" s="3">
-        <v>8896000</v>
+        <v>13572100</v>
       </c>
       <c r="I17" s="3">
-        <v>7099800</v>
+        <v>8726500</v>
       </c>
       <c r="J17" s="3">
+        <v>6964500</v>
+      </c>
+      <c r="K17" s="3">
         <v>6407200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5973900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4326800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5693900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7810100</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12852200</v>
+        <v>20169000</v>
       </c>
       <c r="E18" s="3">
-        <v>10335500</v>
+        <v>12607400</v>
       </c>
       <c r="F18" s="3">
-        <v>12339000</v>
+        <v>10138600</v>
       </c>
       <c r="G18" s="3">
-        <v>13596000</v>
+        <v>12104000</v>
       </c>
       <c r="H18" s="3">
-        <v>13852200</v>
+        <v>13337100</v>
       </c>
       <c r="I18" s="3">
-        <v>14128000</v>
+        <v>13588400</v>
       </c>
       <c r="J18" s="3">
+        <v>13858900</v>
+      </c>
+      <c r="K18" s="3">
         <v>13946800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15886700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17388300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15549100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15657400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1901800</v>
+        <v>-8849800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2676500</v>
+        <v>-1865600</v>
       </c>
       <c r="F20" s="3">
-        <v>-6242600</v>
+        <v>-2625500</v>
       </c>
       <c r="G20" s="3">
-        <v>-5177900</v>
+        <v>-6123700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3493300</v>
+        <v>-5079200</v>
       </c>
       <c r="I20" s="3">
-        <v>-4549300</v>
+        <v>-3426800</v>
       </c>
       <c r="J20" s="3">
+        <v>-4462700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2930800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3307800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3254200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3243100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7973900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13594900</v>
+        <v>13748600</v>
       </c>
       <c r="E21" s="3">
-        <v>10246600</v>
+        <v>13379100</v>
       </c>
       <c r="F21" s="3">
-        <v>11216400</v>
+        <v>10093600</v>
       </c>
       <c r="G21" s="3">
-        <v>10894800</v>
+        <v>11086200</v>
       </c>
       <c r="H21" s="3">
-        <v>12825500</v>
+        <v>10727700</v>
       </c>
       <c r="I21" s="3">
-        <v>12004000</v>
+        <v>12621400</v>
       </c>
       <c r="J21" s="3">
+        <v>11814900</v>
+      </c>
+      <c r="K21" s="3">
         <v>13312500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15024000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16810200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14807800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10461900</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10950400</v>
+        <v>11319100</v>
       </c>
       <c r="E23" s="3">
-        <v>7659000</v>
+        <v>10741900</v>
       </c>
       <c r="F23" s="3">
-        <v>6096400</v>
+        <v>7513100</v>
       </c>
       <c r="G23" s="3">
-        <v>8418200</v>
+        <v>5980300</v>
       </c>
       <c r="H23" s="3">
-        <v>10358900</v>
+        <v>8257800</v>
       </c>
       <c r="I23" s="3">
-        <v>9578700</v>
+        <v>10161600</v>
       </c>
       <c r="J23" s="3">
+        <v>9396300</v>
+      </c>
+      <c r="K23" s="3">
         <v>11016000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12579000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14134200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12305900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7683500</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2083100</v>
+        <v>2664900</v>
       </c>
       <c r="E24" s="3">
-        <v>1360200</v>
+        <v>2043400</v>
       </c>
       <c r="F24" s="3">
-        <v>1623600</v>
+        <v>1334300</v>
       </c>
       <c r="G24" s="3">
-        <v>1437400</v>
+        <v>1592700</v>
       </c>
       <c r="H24" s="3">
-        <v>2303800</v>
+        <v>1410000</v>
       </c>
       <c r="I24" s="3">
-        <v>2515000</v>
+        <v>2259900</v>
       </c>
       <c r="J24" s="3">
+        <v>2467100</v>
+      </c>
+      <c r="K24" s="3">
         <v>3382500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3644100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4030300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3597700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3879900</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8867400</v>
+        <v>8654300</v>
       </c>
       <c r="E26" s="3">
-        <v>6298700</v>
+        <v>8698500</v>
       </c>
       <c r="F26" s="3">
-        <v>4472800</v>
+        <v>6178700</v>
       </c>
       <c r="G26" s="3">
-        <v>6980700</v>
+        <v>4387600</v>
       </c>
       <c r="H26" s="3">
-        <v>8055200</v>
+        <v>6847800</v>
       </c>
       <c r="I26" s="3">
-        <v>7063700</v>
+        <v>7901700</v>
       </c>
       <c r="J26" s="3">
+        <v>6929200</v>
+      </c>
+      <c r="K26" s="3">
         <v>7633500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8934900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10103900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8708200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3803600</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8311700</v>
+        <v>8049900</v>
       </c>
       <c r="E27" s="3">
-        <v>5711100</v>
+        <v>8153400</v>
       </c>
       <c r="F27" s="3">
-        <v>3881900</v>
+        <v>5602300</v>
       </c>
       <c r="G27" s="3">
-        <v>6414300</v>
+        <v>3808000</v>
       </c>
       <c r="H27" s="3">
-        <v>7274000</v>
+        <v>6292100</v>
       </c>
       <c r="I27" s="3">
-        <v>6809300</v>
+        <v>7135500</v>
       </c>
       <c r="J27" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="K27" s="3">
         <v>6992800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8053000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8856800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7587300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3600600</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1901800</v>
+        <v>8849800</v>
       </c>
       <c r="E32" s="3">
-        <v>2676500</v>
+        <v>1865600</v>
       </c>
       <c r="F32" s="3">
-        <v>6242600</v>
+        <v>2625500</v>
       </c>
       <c r="G32" s="3">
-        <v>5177900</v>
+        <v>6123700</v>
       </c>
       <c r="H32" s="3">
-        <v>3493300</v>
+        <v>5079200</v>
       </c>
       <c r="I32" s="3">
-        <v>4549300</v>
+        <v>3426800</v>
       </c>
       <c r="J32" s="3">
+        <v>4462700</v>
+      </c>
+      <c r="K32" s="3">
         <v>2930800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3307800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3254200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3243100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7973900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8311700</v>
+        <v>8049900</v>
       </c>
       <c r="E33" s="3">
-        <v>5711100</v>
+        <v>8153400</v>
       </c>
       <c r="F33" s="3">
-        <v>3881900</v>
+        <v>5602300</v>
       </c>
       <c r="G33" s="3">
-        <v>6414300</v>
+        <v>3808000</v>
       </c>
       <c r="H33" s="3">
-        <v>7274000</v>
+        <v>6292100</v>
       </c>
       <c r="I33" s="3">
-        <v>6809300</v>
+        <v>7135500</v>
       </c>
       <c r="J33" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="K33" s="3">
         <v>6992800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8053000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8856800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7587300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3600600</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8311700</v>
+        <v>8049900</v>
       </c>
       <c r="E35" s="3">
-        <v>5711100</v>
+        <v>8153400</v>
       </c>
       <c r="F35" s="3">
-        <v>3881900</v>
+        <v>5602300</v>
       </c>
       <c r="G35" s="3">
-        <v>6414300</v>
+        <v>3808000</v>
       </c>
       <c r="H35" s="3">
-        <v>7274000</v>
+        <v>6292100</v>
       </c>
       <c r="I35" s="3">
-        <v>6809300</v>
+        <v>7135500</v>
       </c>
       <c r="J35" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="K35" s="3">
         <v>6992800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8053000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8856800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7587300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3600600</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43190</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41729</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41364</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40999</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>814110000</v>
+        <v>819274000</v>
       </c>
       <c r="E41" s="3">
-        <v>756908000</v>
+        <v>798603000</v>
       </c>
       <c r="F41" s="3">
-        <v>575767000</v>
+        <v>742491000</v>
       </c>
       <c r="G41" s="3">
-        <v>545421000</v>
+        <v>564800000</v>
       </c>
       <c r="H41" s="3">
-        <v>549146000</v>
+        <v>535032000</v>
       </c>
       <c r="I41" s="3">
-        <v>466916000</v>
+        <v>538686000</v>
       </c>
       <c r="J41" s="3">
+        <v>458022000</v>
+      </c>
+      <c r="K41" s="3">
         <v>361314000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>315404000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>219564000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>104153000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>82518400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>324654000</v>
+        <v>337482000</v>
       </c>
       <c r="E42" s="3">
-        <v>341908000</v>
+        <v>318471000</v>
       </c>
       <c r="F42" s="3">
-        <v>418006000</v>
+        <v>335395000</v>
       </c>
       <c r="G42" s="3">
-        <v>290876000</v>
+        <v>410044000</v>
       </c>
       <c r="H42" s="3">
-        <v>289696000</v>
+        <v>285335000</v>
       </c>
       <c r="I42" s="3">
-        <v>349541000</v>
+        <v>284178000</v>
       </c>
       <c r="J42" s="3">
+        <v>342883000</v>
+      </c>
+      <c r="K42" s="3">
         <v>302495000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>312762000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>341792000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>311254000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>398474000</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>24198400</v>
+      <c r="D47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>20311000</v>
+        <v>23737500</v>
       </c>
       <c r="F47" s="3">
-        <v>19849900</v>
+        <v>19924100</v>
       </c>
       <c r="G47" s="3">
-        <v>21773600</v>
+        <v>19471800</v>
       </c>
       <c r="H47" s="3">
-        <v>20360000</v>
+        <v>21358900</v>
       </c>
       <c r="I47" s="3">
-        <v>20251300</v>
+        <v>19972200</v>
       </c>
       <c r="J47" s="3">
+        <v>19865600</v>
+      </c>
+      <c r="K47" s="3">
         <v>19031300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18865300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19602600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16095600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>10221000</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9084700</v>
+        <v>8797400</v>
       </c>
       <c r="E48" s="3">
-        <v>9528600</v>
+        <v>8911600</v>
       </c>
       <c r="F48" s="3">
-        <v>9700400</v>
+        <v>9347100</v>
       </c>
       <c r="G48" s="3">
-        <v>9819400</v>
+        <v>9515700</v>
       </c>
       <c r="H48" s="3">
-        <v>10069300</v>
+        <v>9632400</v>
       </c>
       <c r="I48" s="3">
-        <v>9988000</v>
+        <v>9877500</v>
       </c>
       <c r="J48" s="3">
+        <v>9797700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10011000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10537700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14106700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12768600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8926800</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9880100</v>
+        <v>9792100</v>
       </c>
       <c r="E49" s="3">
-        <v>10555300</v>
+        <v>9691900</v>
       </c>
       <c r="F49" s="3">
-        <v>11013300</v>
+        <v>10354300</v>
       </c>
       <c r="G49" s="3">
-        <v>8353500</v>
+        <v>10803500</v>
       </c>
       <c r="H49" s="3">
-        <v>9163100</v>
+        <v>8194400</v>
       </c>
       <c r="I49" s="3">
-        <v>9245400</v>
+        <v>8988500</v>
       </c>
       <c r="J49" s="3">
+        <v>9069300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9222200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10105800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13587500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9920800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>11306900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11675700</v>
+        <v>11878200</v>
       </c>
       <c r="E52" s="3">
-        <v>9912000</v>
+        <v>11453300</v>
       </c>
       <c r="F52" s="3">
-        <v>6172000</v>
+        <v>9723200</v>
       </c>
       <c r="G52" s="3">
-        <v>6824200</v>
+        <v>6054400</v>
       </c>
       <c r="H52" s="3">
-        <v>7080100</v>
+        <v>6694200</v>
       </c>
       <c r="I52" s="3">
-        <v>5347900</v>
+        <v>6945200</v>
       </c>
       <c r="J52" s="3">
+        <v>5246100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3702200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4827300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5418000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>870900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9184500</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2746930000</v>
+        <v>2788820000</v>
       </c>
       <c r="E54" s="3">
-        <v>2642130000</v>
+        <v>2694610000</v>
       </c>
       <c r="F54" s="3">
-        <v>2473800000</v>
+        <v>2591800000</v>
       </c>
       <c r="G54" s="3">
-        <v>2286870000</v>
+        <v>2426680000</v>
       </c>
       <c r="H54" s="3">
-        <v>2255990000</v>
+        <v>2243310000</v>
       </c>
       <c r="I54" s="3">
-        <v>2229240000</v>
+        <v>2213020000</v>
       </c>
       <c r="J54" s="3">
+        <v>2186770000</v>
+      </c>
+      <c r="K54" s="3">
         <v>2192530000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2229110000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2364490000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2131590000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1945430000</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,8 +2527,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2434,11 +2564,14 @@
         <v>0</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>18539300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,48 +2608,54 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1018600</v>
+        <v>1445500</v>
       </c>
       <c r="E59" s="3">
-        <v>883300</v>
+        <v>999200</v>
       </c>
       <c r="F59" s="3">
-        <v>826200</v>
+        <v>866500</v>
       </c>
       <c r="G59" s="3">
-        <v>587400</v>
+        <v>810500</v>
       </c>
       <c r="H59" s="3">
-        <v>640900</v>
+        <v>576300</v>
       </c>
       <c r="I59" s="3">
-        <v>599800</v>
+        <v>628700</v>
       </c>
       <c r="J59" s="3">
+        <v>588400</v>
+      </c>
+      <c r="K59" s="3">
         <v>666000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>707400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>729300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>578100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19594900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>330902000</v>
+        <v>292474000</v>
       </c>
       <c r="E61" s="3">
-        <v>323539000</v>
+        <v>324599000</v>
       </c>
       <c r="F61" s="3">
-        <v>280153000</v>
+        <v>317377000</v>
       </c>
       <c r="G61" s="3">
-        <v>209092000</v>
+        <v>274817000</v>
       </c>
       <c r="H61" s="3">
-        <v>199227000</v>
+        <v>205109000</v>
       </c>
       <c r="I61" s="3">
-        <v>197456000</v>
+        <v>195433000</v>
       </c>
       <c r="J61" s="3">
+        <v>193695000</v>
+      </c>
+      <c r="K61" s="3">
         <v>159295000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>171442000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>164827000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>153373000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>113841000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6883500</v>
+        <v>3830400</v>
       </c>
       <c r="E62" s="3">
-        <v>10420400</v>
+        <v>6752400</v>
       </c>
       <c r="F62" s="3">
-        <v>8836200</v>
+        <v>10221900</v>
       </c>
       <c r="G62" s="3">
-        <v>9574800</v>
+        <v>8667900</v>
       </c>
       <c r="H62" s="3">
-        <v>10267300</v>
+        <v>9392500</v>
       </c>
       <c r="I62" s="3">
-        <v>9891300</v>
+        <v>10071700</v>
       </c>
       <c r="J62" s="3">
+        <v>9702900</v>
+      </c>
+      <c r="K62" s="3">
         <v>9468600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11017900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7251400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6642600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>370800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2621800000</v>
+        <v>2664590000</v>
       </c>
       <c r="E66" s="3">
-        <v>2518630000</v>
+        <v>2571870000</v>
       </c>
       <c r="F66" s="3">
-        <v>2356270000</v>
+        <v>2470660000</v>
       </c>
       <c r="G66" s="3">
-        <v>2167950000</v>
+        <v>2311390000</v>
       </c>
       <c r="H66" s="3">
-        <v>2138210000</v>
+        <v>2126660000</v>
       </c>
       <c r="I66" s="3">
-        <v>2116920000</v>
+        <v>2097480000</v>
       </c>
       <c r="J66" s="3">
+        <v>2076600000</v>
+      </c>
+      <c r="K66" s="3">
         <v>2078850000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2109720000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2244820000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2024830000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1867840000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2913,17 +3080,20 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>3572400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>3545100</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>3996600</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>88186500</v>
+        <v>91849800</v>
       </c>
       <c r="E72" s="3">
-        <v>82320600</v>
+        <v>86506700</v>
       </c>
       <c r="F72" s="3">
-        <v>79790500</v>
+        <v>80752600</v>
       </c>
       <c r="G72" s="3">
-        <v>78210400</v>
+        <v>78270700</v>
       </c>
       <c r="H72" s="3">
-        <v>73977200</v>
+        <v>76720700</v>
       </c>
       <c r="I72" s="3">
-        <v>68200300</v>
+        <v>72568100</v>
       </c>
       <c r="J72" s="3">
+        <v>66901300</v>
+      </c>
+      <c r="K72" s="3">
         <v>63179400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>61297000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>64503400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>57056700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6527800</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>125125000</v>
+        <v>124238000</v>
       </c>
       <c r="E76" s="3">
-        <v>123499000</v>
+        <v>122741000</v>
       </c>
       <c r="F76" s="3">
-        <v>117533000</v>
+        <v>121147000</v>
       </c>
       <c r="G76" s="3">
-        <v>118919000</v>
+        <v>115294000</v>
       </c>
       <c r="H76" s="3">
-        <v>117783000</v>
+        <v>116654000</v>
       </c>
       <c r="I76" s="3">
-        <v>112313000</v>
+        <v>115540000</v>
       </c>
       <c r="J76" s="3">
+        <v>110174000</v>
+      </c>
+      <c r="K76" s="3">
         <v>113677000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>119391000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>116101000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>103222000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73595100</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43190</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41729</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41364</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40999</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8311700</v>
+        <v>8049900</v>
       </c>
       <c r="E81" s="3">
-        <v>5711100</v>
+        <v>8153400</v>
       </c>
       <c r="F81" s="3">
-        <v>3881900</v>
+        <v>5602300</v>
       </c>
       <c r="G81" s="3">
-        <v>6414300</v>
+        <v>3808000</v>
       </c>
       <c r="H81" s="3">
-        <v>7274000</v>
+        <v>6292100</v>
       </c>
       <c r="I81" s="3">
-        <v>6809300</v>
+        <v>7135500</v>
       </c>
       <c r="J81" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="K81" s="3">
         <v>6992800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8053000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8856800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7587300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3600600</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2669900</v>
+        <v>2412700</v>
       </c>
       <c r="E83" s="3">
-        <v>2612600</v>
+        <v>2619000</v>
       </c>
       <c r="F83" s="3">
-        <v>5169200</v>
+        <v>2562800</v>
       </c>
       <c r="G83" s="3">
-        <v>2500500</v>
+        <v>5070700</v>
       </c>
       <c r="H83" s="3">
-        <v>2490300</v>
+        <v>2452800</v>
       </c>
       <c r="I83" s="3">
-        <v>2448600</v>
+        <v>2442800</v>
       </c>
       <c r="J83" s="3">
+        <v>2402000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2318600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2476800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2664400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2496400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2775300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>72300200</v>
+        <v>96829400</v>
       </c>
       <c r="E89" s="3">
-        <v>256551400</v>
+        <v>70923000</v>
       </c>
       <c r="F89" s="3">
-        <v>59247200</v>
+        <v>251664700</v>
       </c>
       <c r="G89" s="3">
-        <v>41228400</v>
+        <v>58118600</v>
       </c>
       <c r="H89" s="3">
-        <v>90484200</v>
+        <v>40443100</v>
       </c>
       <c r="I89" s="3">
-        <v>51546000</v>
+        <v>88760700</v>
       </c>
       <c r="J89" s="3">
+        <v>50564200</v>
+      </c>
+      <c r="K89" s="3">
         <v>49645000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16325900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-37426700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2260500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5359600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-744400</v>
+        <v>-851800</v>
       </c>
       <c r="E91" s="3">
-        <v>-982500</v>
+        <v>-730200</v>
       </c>
       <c r="F91" s="3">
-        <v>-934700</v>
+        <v>-963800</v>
       </c>
       <c r="G91" s="3">
-        <v>-1046600</v>
+        <v>-916900</v>
       </c>
       <c r="H91" s="3">
-        <v>-1174600</v>
+        <v>-1026700</v>
       </c>
       <c r="I91" s="3">
-        <v>-894700</v>
+        <v>-1152300</v>
       </c>
       <c r="J91" s="3">
+        <v>-877700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-859400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1373900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1386500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1192600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1185900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-16190000</v>
+        <v>-76967400</v>
       </c>
       <c r="E94" s="3">
-        <v>-74531500</v>
+        <v>-15881700</v>
       </c>
       <c r="F94" s="3">
-        <v>-24758100</v>
+        <v>-73111900</v>
       </c>
       <c r="G94" s="3">
-        <v>-41362500</v>
+        <v>-24286500</v>
       </c>
       <c r="H94" s="3">
-        <v>-4159200</v>
+        <v>-40574600</v>
       </c>
       <c r="I94" s="3">
-        <v>65470500</v>
+        <v>-4080000</v>
       </c>
       <c r="J94" s="3">
+        <v>64223400</v>
+      </c>
+      <c r="K94" s="3">
         <v>16465500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>50648200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>54972800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>17139100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-93692800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2459400</v>
+        <v>-2743000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2365000</v>
+        <v>-2412600</v>
       </c>
       <c r="F96" s="3">
-        <v>-2238300</v>
+        <v>-2320000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2030700</v>
+        <v>-2195700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1771800</v>
+        <v>-1992000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1812200</v>
+        <v>-1738100</v>
       </c>
       <c r="J96" s="3">
+        <v>-1777700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1848500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-2056400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1979500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1705500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1844200</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7941100</v>
+        <v>-7045200</v>
       </c>
       <c r="E100" s="3">
-        <v>-3205100</v>
+        <v>-7789900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1849700</v>
+        <v>-3144100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3560000</v>
+        <v>-1814500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2135500</v>
+        <v>-3492200</v>
       </c>
       <c r="I100" s="3">
-        <v>-4928900</v>
+        <v>-2094800</v>
       </c>
       <c r="J100" s="3">
+        <v>-4835000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-776200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9010100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9224900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9365400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>88482200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9032300</v>
+        <v>7854100</v>
       </c>
       <c r="E101" s="3">
-        <v>2326600</v>
+        <v>8860300</v>
       </c>
       <c r="F101" s="3">
-        <v>-2293100</v>
+        <v>2282300</v>
       </c>
       <c r="G101" s="3">
-        <v>-30800</v>
+        <v>-2249500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1959600</v>
+        <v>-30200</v>
       </c>
       <c r="I101" s="3">
-        <v>-334300</v>
+        <v>-1922300</v>
       </c>
       <c r="J101" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-846800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1969300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2733800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1706900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-152600</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>57201300</v>
+        <v>20670800</v>
       </c>
       <c r="E102" s="3">
-        <v>181141300</v>
+        <v>56111800</v>
       </c>
       <c r="F102" s="3">
-        <v>30346200</v>
+        <v>177691000</v>
       </c>
       <c r="G102" s="3">
-        <v>-3724900</v>
+        <v>29768200</v>
       </c>
       <c r="H102" s="3">
-        <v>82229900</v>
+        <v>-3654000</v>
       </c>
       <c r="I102" s="3">
-        <v>111753300</v>
+        <v>80663700</v>
       </c>
       <c r="J102" s="3">
+        <v>109624700</v>
+      </c>
+      <c r="K102" s="3">
         <v>64487600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27281500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>11055000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7220100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>MUFG</t>
   </si>
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>38205400</v>
+        <v>36403800</v>
       </c>
       <c r="E8" s="3">
-        <v>18655500</v>
+        <v>17775800</v>
       </c>
       <c r="F8" s="3">
-        <v>19313400</v>
+        <v>18402600</v>
       </c>
       <c r="G8" s="3">
-        <v>27695800</v>
+        <v>26389800</v>
       </c>
       <c r="H8" s="3">
-        <v>26909200</v>
+        <v>25640200</v>
       </c>
       <c r="I8" s="3">
-        <v>22314900</v>
+        <v>21262600</v>
       </c>
       <c r="J8" s="3">
-        <v>20823500</v>
+        <v>19841500</v>
       </c>
       <c r="K8" s="3">
         <v>20354000</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>-2475700</v>
+        <v>-2358900</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>18036400</v>
+        <v>20949100</v>
       </c>
       <c r="E17" s="3">
-        <v>6048100</v>
+        <v>5762900</v>
       </c>
       <c r="F17" s="3">
-        <v>9174800</v>
+        <v>8742100</v>
       </c>
       <c r="G17" s="3">
-        <v>15591800</v>
+        <v>14856500</v>
       </c>
       <c r="H17" s="3">
-        <v>13572100</v>
+        <v>12932100</v>
       </c>
       <c r="I17" s="3">
-        <v>8726500</v>
+        <v>8315000</v>
       </c>
       <c r="J17" s="3">
-        <v>6964500</v>
+        <v>6636100</v>
       </c>
       <c r="K17" s="3">
         <v>6407200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>20169000</v>
+        <v>15454600</v>
       </c>
       <c r="E18" s="3">
-        <v>12607400</v>
+        <v>12012900</v>
       </c>
       <c r="F18" s="3">
-        <v>10138600</v>
+        <v>9660500</v>
       </c>
       <c r="G18" s="3">
-        <v>12104000</v>
+        <v>11533200</v>
       </c>
       <c r="H18" s="3">
-        <v>13337100</v>
+        <v>12708100</v>
       </c>
       <c r="I18" s="3">
-        <v>13588400</v>
+        <v>12947600</v>
       </c>
       <c r="J18" s="3">
-        <v>13858900</v>
+        <v>13205400</v>
       </c>
       <c r="K18" s="3">
         <v>13946800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-8849800</v>
+        <v>-4669300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1865600</v>
+        <v>-1777600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2625500</v>
+        <v>-2501700</v>
       </c>
       <c r="G20" s="3">
-        <v>-6123700</v>
+        <v>-5835000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5079200</v>
+        <v>-4839700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3426800</v>
+        <v>-3265200</v>
       </c>
       <c r="J20" s="3">
-        <v>-4462700</v>
+        <v>-4252200</v>
       </c>
       <c r="K20" s="3">
         <v>-2930800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13748600</v>
+        <v>13084300</v>
       </c>
       <c r="E21" s="3">
-        <v>13379100</v>
+        <v>12730800</v>
       </c>
       <c r="F21" s="3">
-        <v>10093600</v>
+        <v>9600700</v>
       </c>
       <c r="G21" s="3">
-        <v>11086200</v>
+        <v>10529900</v>
       </c>
       <c r="H21" s="3">
-        <v>10727700</v>
+        <v>10205600</v>
       </c>
       <c r="I21" s="3">
-        <v>12621400</v>
+        <v>12010000</v>
       </c>
       <c r="J21" s="3">
-        <v>11814900</v>
+        <v>11241900</v>
       </c>
       <c r="K21" s="3">
         <v>13312500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11319100</v>
+        <v>10785400</v>
       </c>
       <c r="E23" s="3">
-        <v>10741900</v>
+        <v>10235300</v>
       </c>
       <c r="F23" s="3">
-        <v>7513100</v>
+        <v>7158800</v>
       </c>
       <c r="G23" s="3">
-        <v>5980300</v>
+        <v>5698300</v>
       </c>
       <c r="H23" s="3">
-        <v>8257800</v>
+        <v>7868400</v>
       </c>
       <c r="I23" s="3">
-        <v>10161600</v>
+        <v>9682400</v>
       </c>
       <c r="J23" s="3">
-        <v>9396300</v>
+        <v>8953200</v>
       </c>
       <c r="K23" s="3">
         <v>11016000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2664900</v>
+        <v>2539200</v>
       </c>
       <c r="E24" s="3">
-        <v>2043400</v>
+        <v>1947000</v>
       </c>
       <c r="F24" s="3">
-        <v>1334300</v>
+        <v>1271400</v>
       </c>
       <c r="G24" s="3">
-        <v>1592700</v>
+        <v>1517600</v>
       </c>
       <c r="H24" s="3">
-        <v>1410000</v>
+        <v>1343600</v>
       </c>
       <c r="I24" s="3">
-        <v>2259900</v>
+        <v>2153300</v>
       </c>
       <c r="J24" s="3">
-        <v>2467100</v>
+        <v>2350800</v>
       </c>
       <c r="K24" s="3">
         <v>3382500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8654300</v>
+        <v>8246200</v>
       </c>
       <c r="E26" s="3">
-        <v>8698500</v>
+        <v>8288300</v>
       </c>
       <c r="F26" s="3">
-        <v>6178700</v>
+        <v>5887400</v>
       </c>
       <c r="G26" s="3">
-        <v>4387600</v>
+        <v>4180700</v>
       </c>
       <c r="H26" s="3">
-        <v>6847800</v>
+        <v>6524800</v>
       </c>
       <c r="I26" s="3">
-        <v>7901700</v>
+        <v>7529100</v>
       </c>
       <c r="J26" s="3">
-        <v>6929200</v>
+        <v>6602400</v>
       </c>
       <c r="K26" s="3">
         <v>7633500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8049900</v>
+        <v>7670300</v>
       </c>
       <c r="E27" s="3">
-        <v>8153400</v>
+        <v>7768900</v>
       </c>
       <c r="F27" s="3">
-        <v>5602300</v>
+        <v>5338100</v>
       </c>
       <c r="G27" s="3">
-        <v>3808000</v>
+        <v>3628400</v>
       </c>
       <c r="H27" s="3">
-        <v>6292100</v>
+        <v>5995400</v>
       </c>
       <c r="I27" s="3">
-        <v>7135500</v>
+        <v>6799000</v>
       </c>
       <c r="J27" s="3">
-        <v>6679600</v>
+        <v>6364600</v>
       </c>
       <c r="K27" s="3">
         <v>6992800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>8849800</v>
+        <v>4669300</v>
       </c>
       <c r="E32" s="3">
-        <v>1865600</v>
+        <v>1777600</v>
       </c>
       <c r="F32" s="3">
-        <v>2625500</v>
+        <v>2501700</v>
       </c>
       <c r="G32" s="3">
-        <v>6123700</v>
+        <v>5835000</v>
       </c>
       <c r="H32" s="3">
-        <v>5079200</v>
+        <v>4839700</v>
       </c>
       <c r="I32" s="3">
-        <v>3426800</v>
+        <v>3265200</v>
       </c>
       <c r="J32" s="3">
-        <v>4462700</v>
+        <v>4252200</v>
       </c>
       <c r="K32" s="3">
         <v>2930800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8049900</v>
+        <v>7670300</v>
       </c>
       <c r="E33" s="3">
-        <v>8153400</v>
+        <v>7768900</v>
       </c>
       <c r="F33" s="3">
-        <v>5602300</v>
+        <v>5338100</v>
       </c>
       <c r="G33" s="3">
-        <v>3808000</v>
+        <v>3628400</v>
       </c>
       <c r="H33" s="3">
-        <v>6292100</v>
+        <v>5995400</v>
       </c>
       <c r="I33" s="3">
-        <v>7135500</v>
+        <v>6799000</v>
       </c>
       <c r="J33" s="3">
-        <v>6679600</v>
+        <v>6364600</v>
       </c>
       <c r="K33" s="3">
         <v>6992800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8049900</v>
+        <v>7670300</v>
       </c>
       <c r="E35" s="3">
-        <v>8153400</v>
+        <v>7768900</v>
       </c>
       <c r="F35" s="3">
-        <v>5602300</v>
+        <v>5338100</v>
       </c>
       <c r="G35" s="3">
-        <v>3808000</v>
+        <v>3628400</v>
       </c>
       <c r="H35" s="3">
-        <v>6292100</v>
+        <v>5995400</v>
       </c>
       <c r="I35" s="3">
-        <v>7135500</v>
+        <v>6799000</v>
       </c>
       <c r="J35" s="3">
-        <v>6679600</v>
+        <v>6364600</v>
       </c>
       <c r="K35" s="3">
         <v>6992800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>819274000</v>
+        <v>780639000</v>
       </c>
       <c r="E41" s="3">
-        <v>798603000</v>
+        <v>760943000</v>
       </c>
       <c r="F41" s="3">
-        <v>742491000</v>
+        <v>707478000</v>
       </c>
       <c r="G41" s="3">
-        <v>564800000</v>
+        <v>538166000</v>
       </c>
       <c r="H41" s="3">
-        <v>535032000</v>
+        <v>509801000</v>
       </c>
       <c r="I41" s="3">
-        <v>538686000</v>
+        <v>513283000</v>
       </c>
       <c r="J41" s="3">
-        <v>458022000</v>
+        <v>436423000</v>
       </c>
       <c r="K41" s="3">
         <v>361314000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>337482000</v>
+        <v>321567000</v>
       </c>
       <c r="E42" s="3">
-        <v>318471000</v>
+        <v>303453000</v>
       </c>
       <c r="F42" s="3">
-        <v>335395000</v>
+        <v>319579000</v>
       </c>
       <c r="G42" s="3">
-        <v>410044000</v>
+        <v>390708000</v>
       </c>
       <c r="H42" s="3">
-        <v>285335000</v>
+        <v>271880000</v>
       </c>
       <c r="I42" s="3">
-        <v>284178000</v>
+        <v>270777000</v>
       </c>
       <c r="J42" s="3">
-        <v>342883000</v>
+        <v>326714000</v>
       </c>
       <c r="K42" s="3">
         <v>302495000</v>
@@ -2161,26 +2161,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>26116600</v>
       </c>
       <c r="E47" s="3">
-        <v>23737500</v>
+        <v>22618100</v>
       </c>
       <c r="F47" s="3">
-        <v>19924100</v>
+        <v>18984600</v>
       </c>
       <c r="G47" s="3">
-        <v>19471800</v>
+        <v>18553600</v>
       </c>
       <c r="H47" s="3">
-        <v>21358900</v>
+        <v>20351600</v>
       </c>
       <c r="I47" s="3">
-        <v>19972200</v>
+        <v>19030400</v>
       </c>
       <c r="J47" s="3">
-        <v>19865600</v>
+        <v>18928800</v>
       </c>
       <c r="K47" s="3">
         <v>19031300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8797400</v>
+        <v>8382600</v>
       </c>
       <c r="E48" s="3">
-        <v>8911600</v>
+        <v>8491400</v>
       </c>
       <c r="F48" s="3">
-        <v>9347100</v>
+        <v>8906300</v>
       </c>
       <c r="G48" s="3">
-        <v>9515700</v>
+        <v>9067000</v>
       </c>
       <c r="H48" s="3">
-        <v>9632400</v>
+        <v>9178100</v>
       </c>
       <c r="I48" s="3">
-        <v>9877500</v>
+        <v>9411700</v>
       </c>
       <c r="J48" s="3">
-        <v>9797700</v>
+        <v>9335700</v>
       </c>
       <c r="K48" s="3">
         <v>10011000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9792100</v>
+        <v>9330300</v>
       </c>
       <c r="E49" s="3">
-        <v>9691900</v>
+        <v>9234800</v>
       </c>
       <c r="F49" s="3">
-        <v>10354300</v>
+        <v>9866000</v>
       </c>
       <c r="G49" s="3">
-        <v>10803500</v>
+        <v>10294100</v>
       </c>
       <c r="H49" s="3">
-        <v>8194400</v>
+        <v>7808000</v>
       </c>
       <c r="I49" s="3">
-        <v>8988500</v>
+        <v>8564700</v>
       </c>
       <c r="J49" s="3">
-        <v>9069300</v>
+        <v>8641600</v>
       </c>
       <c r="K49" s="3">
         <v>9222200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11878200</v>
+        <v>11318000</v>
       </c>
       <c r="E52" s="3">
-        <v>11453300</v>
+        <v>10913200</v>
       </c>
       <c r="F52" s="3">
-        <v>9723200</v>
+        <v>9264600</v>
       </c>
       <c r="G52" s="3">
-        <v>6054400</v>
+        <v>5768900</v>
       </c>
       <c r="H52" s="3">
-        <v>6694200</v>
+        <v>6378500</v>
       </c>
       <c r="I52" s="3">
-        <v>6945200</v>
+        <v>6617700</v>
       </c>
       <c r="J52" s="3">
-        <v>5246100</v>
+        <v>4998700</v>
       </c>
       <c r="K52" s="3">
         <v>3702200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2788820000</v>
+        <v>2657310000</v>
       </c>
       <c r="E54" s="3">
-        <v>2694610000</v>
+        <v>2567540000</v>
       </c>
       <c r="F54" s="3">
-        <v>2591800000</v>
+        <v>2469580000</v>
       </c>
       <c r="G54" s="3">
-        <v>2426680000</v>
+        <v>2312250000</v>
       </c>
       <c r="H54" s="3">
-        <v>2243310000</v>
+        <v>2137520000</v>
       </c>
       <c r="I54" s="3">
-        <v>2213020000</v>
+        <v>2108660000</v>
       </c>
       <c r="J54" s="3">
-        <v>2186770000</v>
+        <v>2083650000</v>
       </c>
       <c r="K54" s="3">
         <v>2192530000</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>426531000</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>340522000</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>301217000</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>354474000</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1445500</v>
+        <v>1377400</v>
       </c>
       <c r="E59" s="3">
-        <v>999200</v>
+        <v>952100</v>
       </c>
       <c r="F59" s="3">
-        <v>866500</v>
+        <v>825600</v>
       </c>
       <c r="G59" s="3">
-        <v>810500</v>
+        <v>772300</v>
       </c>
       <c r="H59" s="3">
-        <v>576300</v>
+        <v>549100</v>
       </c>
       <c r="I59" s="3">
-        <v>628700</v>
+        <v>599100</v>
       </c>
       <c r="J59" s="3">
-        <v>588400</v>
+        <v>560700</v>
       </c>
       <c r="K59" s="3">
         <v>666000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>292474000</v>
+        <v>279000000</v>
       </c>
       <c r="E61" s="3">
-        <v>324599000</v>
+        <v>309930000</v>
       </c>
       <c r="F61" s="3">
-        <v>317377000</v>
+        <v>303070000</v>
       </c>
       <c r="G61" s="3">
-        <v>274817000</v>
+        <v>262614000</v>
       </c>
       <c r="H61" s="3">
-        <v>205109000</v>
+        <v>195437000</v>
       </c>
       <c r="I61" s="3">
-        <v>195433000</v>
+        <v>186217000</v>
       </c>
       <c r="J61" s="3">
-        <v>193695000</v>
+        <v>184561000</v>
       </c>
       <c r="K61" s="3">
         <v>159295000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3830400</v>
+        <v>3649800</v>
       </c>
       <c r="E62" s="3">
-        <v>6752400</v>
+        <v>6434000</v>
       </c>
       <c r="F62" s="3">
-        <v>10221900</v>
+        <v>9739900</v>
       </c>
       <c r="G62" s="3">
-        <v>8667900</v>
+        <v>8259100</v>
       </c>
       <c r="H62" s="3">
-        <v>9392500</v>
+        <v>8949500</v>
       </c>
       <c r="I62" s="3">
-        <v>10071700</v>
+        <v>9596800</v>
       </c>
       <c r="J62" s="3">
-        <v>9702900</v>
+        <v>9245400</v>
       </c>
       <c r="K62" s="3">
         <v>9468600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2664590000</v>
+        <v>2538930000</v>
       </c>
       <c r="E66" s="3">
-        <v>2571870000</v>
+        <v>2450580000</v>
       </c>
       <c r="F66" s="3">
-        <v>2470660000</v>
+        <v>2354150000</v>
       </c>
       <c r="G66" s="3">
-        <v>2311390000</v>
+        <v>2202390000</v>
       </c>
       <c r="H66" s="3">
-        <v>2126660000</v>
+        <v>2026370000</v>
       </c>
       <c r="I66" s="3">
-        <v>2097480000</v>
+        <v>1998570000</v>
       </c>
       <c r="J66" s="3">
-        <v>2076600000</v>
+        <v>1978680000</v>
       </c>
       <c r="K66" s="3">
         <v>2078850000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>91849800</v>
+        <v>87518500</v>
       </c>
       <c r="E72" s="3">
-        <v>86506700</v>
+        <v>82427300</v>
       </c>
       <c r="F72" s="3">
-        <v>80752600</v>
+        <v>76944600</v>
       </c>
       <c r="G72" s="3">
-        <v>78270700</v>
+        <v>74579700</v>
       </c>
       <c r="H72" s="3">
-        <v>76720700</v>
+        <v>73102800</v>
       </c>
       <c r="I72" s="3">
-        <v>72568100</v>
+        <v>69146000</v>
       </c>
       <c r="J72" s="3">
-        <v>66901300</v>
+        <v>63746400</v>
       </c>
       <c r="K72" s="3">
         <v>63179400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>124238000</v>
+        <v>118379000</v>
       </c>
       <c r="E76" s="3">
-        <v>122741000</v>
+        <v>116953000</v>
       </c>
       <c r="F76" s="3">
-        <v>121147000</v>
+        <v>115434000</v>
       </c>
       <c r="G76" s="3">
-        <v>115294000</v>
+        <v>109857000</v>
       </c>
       <c r="H76" s="3">
-        <v>116654000</v>
+        <v>111153000</v>
       </c>
       <c r="I76" s="3">
-        <v>115540000</v>
+        <v>110091000</v>
       </c>
       <c r="J76" s="3">
-        <v>110174000</v>
+        <v>104978000</v>
       </c>
       <c r="K76" s="3">
         <v>113677000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8049900</v>
+        <v>7670300</v>
       </c>
       <c r="E81" s="3">
-        <v>8153400</v>
+        <v>7768900</v>
       </c>
       <c r="F81" s="3">
-        <v>5602300</v>
+        <v>5338100</v>
       </c>
       <c r="G81" s="3">
-        <v>3808000</v>
+        <v>3628400</v>
       </c>
       <c r="H81" s="3">
-        <v>6292100</v>
+        <v>5995400</v>
       </c>
       <c r="I81" s="3">
-        <v>7135500</v>
+        <v>6799000</v>
       </c>
       <c r="J81" s="3">
-        <v>6679600</v>
+        <v>6364600</v>
       </c>
       <c r="K81" s="3">
         <v>6992800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2412700</v>
+        <v>2298900</v>
       </c>
       <c r="E83" s="3">
-        <v>2619000</v>
+        <v>2495500</v>
       </c>
       <c r="F83" s="3">
-        <v>2562800</v>
+        <v>2441900</v>
       </c>
       <c r="G83" s="3">
-        <v>5070700</v>
+        <v>4831600</v>
       </c>
       <c r="H83" s="3">
-        <v>2452800</v>
+        <v>2337200</v>
       </c>
       <c r="I83" s="3">
-        <v>2442800</v>
+        <v>2327600</v>
       </c>
       <c r="J83" s="3">
-        <v>2402000</v>
+        <v>2288700</v>
       </c>
       <c r="K83" s="3">
         <v>2318600</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>96829400</v>
+        <v>92263200</v>
       </c>
       <c r="E89" s="3">
-        <v>70923000</v>
+        <v>67578500</v>
       </c>
       <c r="F89" s="3">
-        <v>251664700</v>
+        <v>239797000</v>
       </c>
       <c r="G89" s="3">
-        <v>58118600</v>
+        <v>55378000</v>
       </c>
       <c r="H89" s="3">
-        <v>40443100</v>
+        <v>38535900</v>
       </c>
       <c r="I89" s="3">
-        <v>88760700</v>
+        <v>84575000</v>
       </c>
       <c r="J89" s="3">
-        <v>50564200</v>
+        <v>48179700</v>
       </c>
       <c r="K89" s="3">
         <v>49645000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-851800</v>
+        <v>-811700</v>
       </c>
       <c r="E91" s="3">
-        <v>-730200</v>
+        <v>-695800</v>
       </c>
       <c r="F91" s="3">
-        <v>-963800</v>
+        <v>-918300</v>
       </c>
       <c r="G91" s="3">
-        <v>-916900</v>
+        <v>-873700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1026700</v>
+        <v>-978200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1152300</v>
+        <v>-1097900</v>
       </c>
       <c r="J91" s="3">
-        <v>-877700</v>
+        <v>-836300</v>
       </c>
       <c r="K91" s="3">
         <v>-859400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76967400</v>
+        <v>-73337900</v>
       </c>
       <c r="E94" s="3">
-        <v>-15881700</v>
+        <v>-15132700</v>
       </c>
       <c r="F94" s="3">
-        <v>-73111900</v>
+        <v>-69664200</v>
       </c>
       <c r="G94" s="3">
-        <v>-24286500</v>
+        <v>-23141200</v>
       </c>
       <c r="H94" s="3">
-        <v>-40574600</v>
+        <v>-38661200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4080000</v>
+        <v>-3887600</v>
       </c>
       <c r="J94" s="3">
-        <v>64223400</v>
+        <v>61194900</v>
       </c>
       <c r="K94" s="3">
         <v>16465500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2743000</v>
+        <v>-2613700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2412600</v>
+        <v>-2298800</v>
       </c>
       <c r="F96" s="3">
-        <v>-2320000</v>
+        <v>-2210600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2195700</v>
+        <v>-2092200</v>
       </c>
       <c r="H96" s="3">
-        <v>-1992000</v>
+        <v>-1898000</v>
       </c>
       <c r="I96" s="3">
-        <v>-1738100</v>
+        <v>-1656100</v>
       </c>
       <c r="J96" s="3">
-        <v>-1777700</v>
+        <v>-1693900</v>
       </c>
       <c r="K96" s="3">
         <v>-1848500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7045200</v>
+        <v>-6712900</v>
       </c>
       <c r="E100" s="3">
-        <v>-7789900</v>
+        <v>-7422500</v>
       </c>
       <c r="F100" s="3">
-        <v>-3144100</v>
+        <v>-2995800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1814500</v>
+        <v>-1728900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3492200</v>
+        <v>-3327500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2094800</v>
+        <v>-1996000</v>
       </c>
       <c r="J100" s="3">
-        <v>-4835000</v>
+        <v>-4607000</v>
       </c>
       <c r="K100" s="3">
         <v>-776200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7854100</v>
+        <v>7483700</v>
       </c>
       <c r="E101" s="3">
-        <v>8860300</v>
+        <v>8442500</v>
       </c>
       <c r="F101" s="3">
-        <v>2282300</v>
+        <v>2174700</v>
       </c>
       <c r="G101" s="3">
-        <v>-2249500</v>
+        <v>-2143400</v>
       </c>
       <c r="H101" s="3">
-        <v>-30200</v>
+        <v>-28800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1922300</v>
+        <v>-1831700</v>
       </c>
       <c r="J101" s="3">
-        <v>-328000</v>
+        <v>-312500</v>
       </c>
       <c r="K101" s="3">
         <v>-846800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20670800</v>
+        <v>19696100</v>
       </c>
       <c r="E102" s="3">
-        <v>56111800</v>
+        <v>53465700</v>
       </c>
       <c r="F102" s="3">
-        <v>177691000</v>
+        <v>169311700</v>
       </c>
       <c r="G102" s="3">
-        <v>29768200</v>
+        <v>28364400</v>
       </c>
       <c r="H102" s="3">
-        <v>-3654000</v>
+        <v>-3481700</v>
       </c>
       <c r="I102" s="3">
-        <v>80663700</v>
+        <v>76859800</v>
       </c>
       <c r="J102" s="3">
-        <v>109624700</v>
+        <v>104455200</v>
       </c>
       <c r="K102" s="3">
         <v>64487600</v>

--- a/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/MUFG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>36403800</v>
+        <v>35185000</v>
       </c>
       <c r="E8" s="3">
-        <v>17775800</v>
+        <v>17180600</v>
       </c>
       <c r="F8" s="3">
-        <v>18402600</v>
+        <v>17786500</v>
       </c>
       <c r="G8" s="3">
-        <v>26389800</v>
+        <v>25506300</v>
       </c>
       <c r="H8" s="3">
-        <v>25640200</v>
+        <v>24781800</v>
       </c>
       <c r="I8" s="3">
-        <v>21262600</v>
+        <v>20550700</v>
       </c>
       <c r="J8" s="3">
-        <v>19841500</v>
+        <v>19177200</v>
       </c>
       <c r="K8" s="3">
         <v>20354000</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="3">
-        <v>-2358900</v>
+        <v>-2280000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20949100</v>
+        <v>20247800</v>
       </c>
       <c r="E17" s="3">
-        <v>5762900</v>
+        <v>5569900</v>
       </c>
       <c r="F17" s="3">
-        <v>8742100</v>
+        <v>8449400</v>
       </c>
       <c r="G17" s="3">
-        <v>14856500</v>
+        <v>14359200</v>
       </c>
       <c r="H17" s="3">
-        <v>12932100</v>
+        <v>12499200</v>
       </c>
       <c r="I17" s="3">
-        <v>8315000</v>
+        <v>8036600</v>
       </c>
       <c r="J17" s="3">
-        <v>6636100</v>
+        <v>6413900</v>
       </c>
       <c r="K17" s="3">
         <v>6407200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>15454600</v>
+        <v>14937200</v>
       </c>
       <c r="E18" s="3">
-        <v>12012900</v>
+        <v>11610700</v>
       </c>
       <c r="F18" s="3">
-        <v>9660500</v>
+        <v>9337100</v>
       </c>
       <c r="G18" s="3">
-        <v>11533200</v>
+        <v>11147100</v>
       </c>
       <c r="H18" s="3">
-        <v>12708100</v>
+        <v>12282700</v>
       </c>
       <c r="I18" s="3">
-        <v>12947600</v>
+        <v>12514100</v>
       </c>
       <c r="J18" s="3">
-        <v>13205400</v>
+        <v>12763300</v>
       </c>
       <c r="K18" s="3">
         <v>13946800</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4669300</v>
+        <v>-4512900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1777600</v>
+        <v>-1718100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2501700</v>
+        <v>-2418000</v>
       </c>
       <c r="G20" s="3">
-        <v>-5835000</v>
+        <v>-5639600</v>
       </c>
       <c r="H20" s="3">
-        <v>-4839700</v>
+        <v>-4677700</v>
       </c>
       <c r="I20" s="3">
-        <v>-3265200</v>
+        <v>-3155900</v>
       </c>
       <c r="J20" s="3">
-        <v>-4252200</v>
+        <v>-4109900</v>
       </c>
       <c r="K20" s="3">
         <v>-2930800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>13084300</v>
+        <v>12636200</v>
       </c>
       <c r="E21" s="3">
-        <v>12730800</v>
+        <v>12293700</v>
       </c>
       <c r="F21" s="3">
-        <v>9600700</v>
+        <v>9268600</v>
       </c>
       <c r="G21" s="3">
-        <v>10529900</v>
+        <v>10156300</v>
       </c>
       <c r="H21" s="3">
-        <v>10205600</v>
+        <v>9853700</v>
       </c>
       <c r="I21" s="3">
-        <v>12010000</v>
+        <v>11597800</v>
       </c>
       <c r="J21" s="3">
-        <v>11241900</v>
+        <v>10855500</v>
       </c>
       <c r="K21" s="3">
         <v>13312500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>10785400</v>
+        <v>10424300</v>
       </c>
       <c r="E23" s="3">
-        <v>10235300</v>
+        <v>9892700</v>
       </c>
       <c r="F23" s="3">
-        <v>7158800</v>
+        <v>6919100</v>
       </c>
       <c r="G23" s="3">
-        <v>5698300</v>
+        <v>5507500</v>
       </c>
       <c r="H23" s="3">
-        <v>7868400</v>
+        <v>7605000</v>
       </c>
       <c r="I23" s="3">
-        <v>9682400</v>
+        <v>9358300</v>
       </c>
       <c r="J23" s="3">
-        <v>8953200</v>
+        <v>8653400</v>
       </c>
       <c r="K23" s="3">
         <v>11016000</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2539200</v>
+        <v>2454200</v>
       </c>
       <c r="E24" s="3">
-        <v>1947000</v>
+        <v>1881800</v>
       </c>
       <c r="F24" s="3">
-        <v>1271400</v>
+        <v>1228900</v>
       </c>
       <c r="G24" s="3">
-        <v>1517600</v>
+        <v>1466800</v>
       </c>
       <c r="H24" s="3">
-        <v>1343600</v>
+        <v>1298600</v>
       </c>
       <c r="I24" s="3">
-        <v>2153300</v>
+        <v>2081200</v>
       </c>
       <c r="J24" s="3">
-        <v>2350800</v>
+        <v>2272100</v>
       </c>
       <c r="K24" s="3">
         <v>3382500</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8246200</v>
+        <v>7970100</v>
       </c>
       <c r="E26" s="3">
-        <v>8288300</v>
+        <v>8010800</v>
       </c>
       <c r="F26" s="3">
-        <v>5887400</v>
+        <v>5690300</v>
       </c>
       <c r="G26" s="3">
-        <v>4180700</v>
+        <v>4040700</v>
       </c>
       <c r="H26" s="3">
-        <v>6524800</v>
+        <v>6306400</v>
       </c>
       <c r="I26" s="3">
-        <v>7529100</v>
+        <v>7277000</v>
       </c>
       <c r="J26" s="3">
-        <v>6602400</v>
+        <v>6381400</v>
       </c>
       <c r="K26" s="3">
         <v>7633500</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7670300</v>
+        <v>7413500</v>
       </c>
       <c r="E27" s="3">
-        <v>7768900</v>
+        <v>7508800</v>
       </c>
       <c r="F27" s="3">
-        <v>5338100</v>
+        <v>5159400</v>
       </c>
       <c r="G27" s="3">
-        <v>3628400</v>
+        <v>3506900</v>
       </c>
       <c r="H27" s="3">
-        <v>5995400</v>
+        <v>5794700</v>
       </c>
       <c r="I27" s="3">
-        <v>6799000</v>
+        <v>6571400</v>
       </c>
       <c r="J27" s="3">
-        <v>6364600</v>
+        <v>6151600</v>
       </c>
       <c r="K27" s="3">
         <v>6992800</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4669300</v>
+        <v>4512900</v>
       </c>
       <c r="E32" s="3">
-        <v>1777600</v>
+        <v>1718100</v>
       </c>
       <c r="F32" s="3">
-        <v>2501700</v>
+        <v>2418000</v>
       </c>
       <c r="G32" s="3">
-        <v>5835000</v>
+        <v>5639600</v>
       </c>
       <c r="H32" s="3">
-        <v>4839700</v>
+        <v>4677700</v>
       </c>
       <c r="I32" s="3">
-        <v>3265200</v>
+        <v>3155900</v>
       </c>
       <c r="J32" s="3">
-        <v>4252200</v>
+        <v>4109900</v>
       </c>
       <c r="K32" s="3">
         <v>2930800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7670300</v>
+        <v>7413500</v>
       </c>
       <c r="E33" s="3">
-        <v>7768900</v>
+        <v>7508800</v>
       </c>
       <c r="F33" s="3">
-        <v>5338100</v>
+        <v>5159400</v>
       </c>
       <c r="G33" s="3">
-        <v>3628400</v>
+        <v>3506900</v>
       </c>
       <c r="H33" s="3">
-        <v>5995400</v>
+        <v>5794700</v>
       </c>
       <c r="I33" s="3">
-        <v>6799000</v>
+        <v>6571400</v>
       </c>
       <c r="J33" s="3">
-        <v>6364600</v>
+        <v>6151600</v>
       </c>
       <c r="K33" s="3">
         <v>6992800</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7670300</v>
+        <v>7413500</v>
       </c>
       <c r="E35" s="3">
-        <v>7768900</v>
+        <v>7508800</v>
       </c>
       <c r="F35" s="3">
-        <v>5338100</v>
+        <v>5159400</v>
       </c>
       <c r="G35" s="3">
-        <v>3628400</v>
+        <v>3506900</v>
       </c>
       <c r="H35" s="3">
-        <v>5995400</v>
+        <v>5794700</v>
       </c>
       <c r="I35" s="3">
-        <v>6799000</v>
+        <v>6571400</v>
       </c>
       <c r="J35" s="3">
-        <v>6364600</v>
+        <v>6151600</v>
       </c>
       <c r="K35" s="3">
         <v>6992800</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>780639000</v>
+        <v>754504000</v>
       </c>
       <c r="E41" s="3">
-        <v>760943000</v>
+        <v>735468000</v>
       </c>
       <c r="F41" s="3">
-        <v>707478000</v>
+        <v>683792000</v>
       </c>
       <c r="G41" s="3">
-        <v>538166000</v>
+        <v>520149000</v>
       </c>
       <c r="H41" s="3">
-        <v>509801000</v>
+        <v>492734000</v>
       </c>
       <c r="I41" s="3">
-        <v>513283000</v>
+        <v>496099000</v>
       </c>
       <c r="J41" s="3">
-        <v>436423000</v>
+        <v>421812000</v>
       </c>
       <c r="K41" s="3">
         <v>361314000</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>321567000</v>
+        <v>310801000</v>
       </c>
       <c r="E42" s="3">
-        <v>303453000</v>
+        <v>293293000</v>
       </c>
       <c r="F42" s="3">
-        <v>319579000</v>
+        <v>308880000</v>
       </c>
       <c r="G42" s="3">
-        <v>390708000</v>
+        <v>377627000</v>
       </c>
       <c r="H42" s="3">
-        <v>271880000</v>
+        <v>262777000</v>
       </c>
       <c r="I42" s="3">
-        <v>270777000</v>
+        <v>261712000</v>
       </c>
       <c r="J42" s="3">
-        <v>326714000</v>
+        <v>315776000</v>
       </c>
       <c r="K42" s="3">
         <v>302495000</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26116600</v>
+        <v>25242300</v>
       </c>
       <c r="E47" s="3">
-        <v>22618100</v>
+        <v>21860900</v>
       </c>
       <c r="F47" s="3">
-        <v>18984600</v>
+        <v>18349000</v>
       </c>
       <c r="G47" s="3">
-        <v>18553600</v>
+        <v>17932400</v>
       </c>
       <c r="H47" s="3">
-        <v>20351600</v>
+        <v>19670300</v>
       </c>
       <c r="I47" s="3">
-        <v>19030400</v>
+        <v>18393300</v>
       </c>
       <c r="J47" s="3">
-        <v>18928800</v>
+        <v>18295100</v>
       </c>
       <c r="K47" s="3">
         <v>19031300</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8382600</v>
+        <v>8101900</v>
       </c>
       <c r="E48" s="3">
-        <v>8491400</v>
+        <v>8207100</v>
       </c>
       <c r="F48" s="3">
-        <v>8906300</v>
+        <v>8608100</v>
       </c>
       <c r="G48" s="3">
-        <v>9067000</v>
+        <v>8763400</v>
       </c>
       <c r="H48" s="3">
-        <v>9178100</v>
+        <v>8870900</v>
       </c>
       <c r="I48" s="3">
-        <v>9411700</v>
+        <v>9096600</v>
       </c>
       <c r="J48" s="3">
-        <v>9335700</v>
+        <v>9023100</v>
       </c>
       <c r="K48" s="3">
         <v>10011000</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9330300</v>
+        <v>9017900</v>
       </c>
       <c r="E49" s="3">
-        <v>9234800</v>
+        <v>8925700</v>
       </c>
       <c r="F49" s="3">
-        <v>9866000</v>
+        <v>9535700</v>
       </c>
       <c r="G49" s="3">
-        <v>10294100</v>
+        <v>9949400</v>
       </c>
       <c r="H49" s="3">
-        <v>7808000</v>
+        <v>7546600</v>
       </c>
       <c r="I49" s="3">
-        <v>8564700</v>
+        <v>8277900</v>
       </c>
       <c r="J49" s="3">
-        <v>8641600</v>
+        <v>8352300</v>
       </c>
       <c r="K49" s="3">
         <v>9222200</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11318000</v>
+        <v>10939100</v>
       </c>
       <c r="E52" s="3">
-        <v>10913200</v>
+        <v>10547800</v>
       </c>
       <c r="F52" s="3">
-        <v>9264600</v>
+        <v>8954500</v>
       </c>
       <c r="G52" s="3">
-        <v>5768900</v>
+        <v>5575800</v>
       </c>
       <c r="H52" s="3">
-        <v>6378500</v>
+        <v>6165000</v>
       </c>
       <c r="I52" s="3">
-        <v>6617700</v>
+        <v>6396200</v>
       </c>
       <c r="J52" s="3">
-        <v>4998700</v>
+        <v>4831300</v>
       </c>
       <c r="K52" s="3">
         <v>3702200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2657310000</v>
+        <v>2568350000</v>
       </c>
       <c r="E54" s="3">
-        <v>2567540000</v>
+        <v>2481580000</v>
       </c>
       <c r="F54" s="3">
-        <v>2469580000</v>
+        <v>2386900000</v>
       </c>
       <c r="G54" s="3">
-        <v>2312250000</v>
+        <v>2234830000</v>
       </c>
       <c r="H54" s="3">
-        <v>2137520000</v>
+        <v>2065960000</v>
       </c>
       <c r="I54" s="3">
-        <v>2108660000</v>
+        <v>2038060000</v>
       </c>
       <c r="J54" s="3">
-        <v>2083650000</v>
+        <v>2013900000</v>
       </c>
       <c r="K54" s="3">
         <v>2192530000</v>
@@ -2576,16 +2576,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>426531000</v>
+        <v>412251000</v>
       </c>
       <c r="E58" s="3">
-        <v>340522000</v>
+        <v>329122000</v>
       </c>
       <c r="F58" s="3">
-        <v>301217000</v>
+        <v>291132000</v>
       </c>
       <c r="G58" s="3">
-        <v>354474000</v>
+        <v>342607000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1377400</v>
+        <v>1331200</v>
       </c>
       <c r="E59" s="3">
-        <v>952100</v>
+        <v>920200</v>
       </c>
       <c r="F59" s="3">
-        <v>825600</v>
+        <v>798000</v>
       </c>
       <c r="G59" s="3">
-        <v>772300</v>
+        <v>746400</v>
       </c>
       <c r="H59" s="3">
-        <v>549100</v>
+        <v>530700</v>
       </c>
       <c r="I59" s="3">
-        <v>599100</v>
+        <v>579000</v>
       </c>
       <c r="J59" s="3">
-        <v>560700</v>
+        <v>541900</v>
       </c>
       <c r="K59" s="3">
         <v>666000</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>279000000</v>
+        <v>269659000</v>
       </c>
       <c r="E61" s="3">
-        <v>309930000</v>
+        <v>299553000</v>
       </c>
       <c r="F61" s="3">
-        <v>303070000</v>
+        <v>292923000</v>
       </c>
       <c r="G61" s="3">
-        <v>262614000</v>
+        <v>253822000</v>
       </c>
       <c r="H61" s="3">
-        <v>195437000</v>
+        <v>188894000</v>
       </c>
       <c r="I61" s="3">
-        <v>186217000</v>
+        <v>179982000</v>
       </c>
       <c r="J61" s="3">
-        <v>184561000</v>
+        <v>178382000</v>
       </c>
       <c r="K61" s="3">
         <v>159295000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3649800</v>
+        <v>3527600</v>
       </c>
       <c r="E62" s="3">
-        <v>6434000</v>
+        <v>6218600</v>
       </c>
       <c r="F62" s="3">
-        <v>9739900</v>
+        <v>9413800</v>
       </c>
       <c r="G62" s="3">
-        <v>8259100</v>
+        <v>7982600</v>
       </c>
       <c r="H62" s="3">
-        <v>8949500</v>
+        <v>8649900</v>
       </c>
       <c r="I62" s="3">
-        <v>9596800</v>
+        <v>9275500</v>
       </c>
       <c r="J62" s="3">
-        <v>9245400</v>
+        <v>8935900</v>
       </c>
       <c r="K62" s="3">
         <v>9468600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2538930000</v>
+        <v>2453930000</v>
       </c>
       <c r="E66" s="3">
-        <v>2450580000</v>
+        <v>2368540000</v>
       </c>
       <c r="F66" s="3">
-        <v>2354150000</v>
+        <v>2275340000</v>
       </c>
       <c r="G66" s="3">
-        <v>2202390000</v>
+        <v>2128650000</v>
       </c>
       <c r="H66" s="3">
-        <v>2026370000</v>
+        <v>1958530000</v>
       </c>
       <c r="I66" s="3">
-        <v>1998570000</v>
+        <v>1931660000</v>
       </c>
       <c r="J66" s="3">
-        <v>1978680000</v>
+        <v>1912430000</v>
       </c>
       <c r="K66" s="3">
         <v>2078850000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>87518500</v>
+        <v>84588500</v>
       </c>
       <c r="E72" s="3">
-        <v>82427300</v>
+        <v>79667800</v>
       </c>
       <c r="F72" s="3">
-        <v>76944600</v>
+        <v>74368600</v>
       </c>
       <c r="G72" s="3">
-        <v>74579700</v>
+        <v>72082900</v>
       </c>
       <c r="H72" s="3">
-        <v>73102800</v>
+        <v>70655400</v>
       </c>
       <c r="I72" s="3">
-        <v>69146000</v>
+        <v>66831100</v>
       </c>
       <c r="J72" s="3">
-        <v>63746400</v>
+        <v>61612200</v>
       </c>
       <c r="K72" s="3">
         <v>63179400</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>118379000</v>
+        <v>114416000</v>
       </c>
       <c r="E76" s="3">
-        <v>116953000</v>
+        <v>113038000</v>
       </c>
       <c r="F76" s="3">
-        <v>115434000</v>
+        <v>111569000</v>
       </c>
       <c r="G76" s="3">
-        <v>109857000</v>
+        <v>106180000</v>
       </c>
       <c r="H76" s="3">
-        <v>111153000</v>
+        <v>107432000</v>
       </c>
       <c r="I76" s="3">
-        <v>110091000</v>
+        <v>106405000</v>
       </c>
       <c r="J76" s="3">
-        <v>104978000</v>
+        <v>101464000</v>
       </c>
       <c r="K76" s="3">
         <v>113677000</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7670300</v>
+        <v>7413500</v>
       </c>
       <c r="E81" s="3">
-        <v>7768900</v>
+        <v>7508800</v>
       </c>
       <c r="F81" s="3">
-        <v>5338100</v>
+        <v>5159400</v>
       </c>
       <c r="G81" s="3">
-        <v>3628400</v>
+        <v>3506900</v>
       </c>
       <c r="H81" s="3">
-        <v>5995400</v>
+        <v>5794700</v>
       </c>
       <c r="I81" s="3">
-        <v>6799000</v>
+        <v>6571400</v>
       </c>
       <c r="J81" s="3">
-        <v>6364600</v>
+        <v>6151600</v>
       </c>
       <c r="K81" s="3">
         <v>6992800</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2298900</v>
+        <v>2222000</v>
       </c>
       <c r="E83" s="3">
-        <v>2495500</v>
+        <v>2412000</v>
       </c>
       <c r="F83" s="3">
-        <v>2441900</v>
+        <v>2360200</v>
       </c>
       <c r="G83" s="3">
-        <v>4831600</v>
+        <v>4669900</v>
       </c>
       <c r="H83" s="3">
-        <v>2337200</v>
+        <v>2258900</v>
       </c>
       <c r="I83" s="3">
-        <v>2327600</v>
+        <v>2249700</v>
       </c>
       <c r="J83" s="3">
-        <v>2288700</v>
+        <v>2212100</v>
       </c>
       <c r="K83" s="3">
         <v>2318600</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>92263200</v>
+        <v>89174400</v>
       </c>
       <c r="E89" s="3">
-        <v>67578500</v>
+        <v>65316100</v>
       </c>
       <c r="F89" s="3">
-        <v>239797000</v>
+        <v>231768800</v>
       </c>
       <c r="G89" s="3">
-        <v>55378000</v>
+        <v>53524000</v>
       </c>
       <c r="H89" s="3">
-        <v>38535900</v>
+        <v>37245800</v>
       </c>
       <c r="I89" s="3">
-        <v>84575000</v>
+        <v>81743600</v>
       </c>
       <c r="J89" s="3">
-        <v>48179700</v>
+        <v>46566700</v>
       </c>
       <c r="K89" s="3">
         <v>49645000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-811700</v>
+        <v>-784500</v>
       </c>
       <c r="E91" s="3">
-        <v>-695800</v>
+        <v>-672500</v>
       </c>
       <c r="F91" s="3">
-        <v>-918300</v>
+        <v>-887600</v>
       </c>
       <c r="G91" s="3">
-        <v>-873700</v>
+        <v>-844400</v>
       </c>
       <c r="H91" s="3">
-        <v>-978200</v>
+        <v>-945500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1097900</v>
+        <v>-1061200</v>
       </c>
       <c r="J91" s="3">
-        <v>-836300</v>
+        <v>-808300</v>
       </c>
       <c r="K91" s="3">
         <v>-859400</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-73337900</v>
+        <v>-70882600</v>
       </c>
       <c r="E94" s="3">
-        <v>-15132700</v>
+        <v>-14626100</v>
       </c>
       <c r="F94" s="3">
-        <v>-69664200</v>
+        <v>-67331900</v>
       </c>
       <c r="G94" s="3">
-        <v>-23141200</v>
+        <v>-22366500</v>
       </c>
       <c r="H94" s="3">
-        <v>-38661200</v>
+        <v>-37366900</v>
       </c>
       <c r="I94" s="3">
-        <v>-3887600</v>
+        <v>-3757400</v>
       </c>
       <c r="J94" s="3">
-        <v>61194900</v>
+        <v>59146100</v>
       </c>
       <c r="K94" s="3">
         <v>16465500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2613700</v>
+        <v>-2526200</v>
       </c>
       <c r="E96" s="3">
-        <v>-2298800</v>
+        <v>-2221900</v>
       </c>
       <c r="F96" s="3">
-        <v>-2210600</v>
+        <v>-2136600</v>
       </c>
       <c r="G96" s="3">
-        <v>-2092200</v>
+        <v>-2022100</v>
       </c>
       <c r="H96" s="3">
-        <v>-1898000</v>
+        <v>-1834500</v>
       </c>
       <c r="I96" s="3">
-        <v>-1656100</v>
+        <v>-1600700</v>
       </c>
       <c r="J96" s="3">
-        <v>-1693900</v>
+        <v>-1637200</v>
       </c>
       <c r="K96" s="3">
         <v>-1848500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6712900</v>
+        <v>-6488200</v>
       </c>
       <c r="E100" s="3">
-        <v>-7422500</v>
+        <v>-7174000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2995800</v>
+        <v>-2895500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1728900</v>
+        <v>-1671000</v>
       </c>
       <c r="H100" s="3">
-        <v>-3327500</v>
+        <v>-3216100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1996000</v>
+        <v>-1929200</v>
       </c>
       <c r="J100" s="3">
-        <v>-4607000</v>
+        <v>-4452700</v>
       </c>
       <c r="K100" s="3">
         <v>-776200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7483700</v>
+        <v>7233100</v>
       </c>
       <c r="E101" s="3">
-        <v>8442500</v>
+        <v>8159800</v>
       </c>
       <c r="F101" s="3">
-        <v>2174700</v>
+        <v>2101900</v>
       </c>
       <c r="G101" s="3">
-        <v>-2143400</v>
+        <v>-2071600</v>
       </c>
       <c r="H101" s="3">
-        <v>-28800</v>
+        <v>-27800</v>
       </c>
       <c r="I101" s="3">
-        <v>-1831700</v>
+        <v>-1770300</v>
       </c>
       <c r="J101" s="3">
-        <v>-312500</v>
+        <v>-302000</v>
       </c>
       <c r="K101" s="3">
         <v>-846800</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>19696100</v>
+        <v>19036700</v>
       </c>
       <c r="E102" s="3">
-        <v>53465700</v>
+        <v>51675800</v>
       </c>
       <c r="F102" s="3">
-        <v>169311700</v>
+        <v>163643300</v>
       </c>
       <c r="G102" s="3">
-        <v>28364400</v>
+        <v>27414800</v>
       </c>
       <c r="H102" s="3">
-        <v>-3481700</v>
+        <v>-3365100</v>
       </c>
       <c r="I102" s="3">
-        <v>76859800</v>
+        <v>74286600</v>
       </c>
       <c r="J102" s="3">
-        <v>104455200</v>
+        <v>100958100</v>
       </c>
       <c r="K102" s="3">
         <v>64487600</v>
